--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macie\OneDrive\Dokumenty\SAM\resources\Core\templates\AHU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DDD6903-7550-4EB5-98E6-6928CCDE515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F418FEB8-BDB8-44EE-8A20-F9BB369A4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,6 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,9 +307,12 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -328,9 +328,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -368,7 +368,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -474,7 +474,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -639,23 +639,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -670,21 +670,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -699,21 +699,21 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -728,21 +728,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -757,21 +757,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -786,21 +786,21 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -815,21 +815,21 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -844,21 +844,21 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -873,21 +873,21 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -902,21 +902,21 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -931,21 +931,21 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -960,21 +960,21 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -989,21 +989,21 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1018,21 +1018,21 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1047,21 +1047,21 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1076,21 +1076,21 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1105,21 +1105,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1134,21 +1134,21 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1163,21 +1163,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1192,21 +1192,21 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1221,21 +1221,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1250,21 +1250,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1279,21 +1279,21 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1308,21 +1308,21 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1337,21 +1337,21 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1366,21 +1366,21 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1395,21 +1395,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1424,21 +1424,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1453,21 +1453,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1482,21 +1482,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1511,21 +1511,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1540,21 +1540,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1569,21 +1569,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1598,21 +1598,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -1627,21 +1627,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -1656,21 +1656,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1685,21 +1685,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -1714,21 +1714,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -1743,21 +1743,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -1772,21 +1772,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -1801,21 +1801,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -1830,21 +1830,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -1859,21 +1859,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -1888,21 +1888,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -1917,21 +1917,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -1946,21 +1946,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -1975,21 +1975,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2004,21 +2004,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2033,21 +2033,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2062,21 +2062,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2091,21 +2091,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="18"/>
-      <c r="I51" s="18"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="18"/>
-      <c r="L51" s="18"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="18"/>
-      <c r="O51" s="18"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2120,21 +2120,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
-      <c r="D52" s="18"/>
-      <c r="E52" s="18"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="18"/>
-      <c r="I52" s="18"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="18"/>
-      <c r="L52" s="18"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="18"/>
-      <c r="O52" s="18"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2149,21 +2149,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
-      <c r="D53" s="18"/>
-      <c r="E53" s="18"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="18"/>
-      <c r="I53" s="18"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="18"/>
-      <c r="L53" s="18"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="18"/>
-      <c r="O53" s="18"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2178,21 +2178,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
-      <c r="D54" s="18"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="18"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="18"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="18"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2207,21 +2207,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2236,21 +2236,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2265,21 +2265,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="18"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="18"/>
-      <c r="I57" s="18"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="18"/>
-      <c r="L57" s="18"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="18"/>
-      <c r="O57" s="18"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2294,21 +2294,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
-      <c r="D58" s="18"/>
-      <c r="E58" s="18"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="18"/>
-      <c r="I58" s="18"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="18"/>
-      <c r="L58" s="18"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="18"/>
-      <c r="O58" s="18"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2323,21 +2323,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
-      <c r="D59" s="18"/>
-      <c r="E59" s="18"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="18"/>
-      <c r="I59" s="18"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="18"/>
-      <c r="L59" s="18"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="18"/>
-      <c r="O59" s="18"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2352,21 +2352,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
-      <c r="D60" s="18"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="18"/>
-      <c r="I60" s="18"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="18"/>
-      <c r="L60" s="18"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="18"/>
-      <c r="O60" s="18"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2381,21 +2381,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
-      <c r="D61" s="18"/>
-      <c r="E61" s="18"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="18"/>
-      <c r="O61" s="18"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2410,21 +2410,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
-      <c r="D62" s="18"/>
-      <c r="E62" s="18"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="18"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="18"/>
-      <c r="L62" s="18"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="18"/>
-      <c r="O62" s="18"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2439,21 +2439,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
-      <c r="D63" s="18"/>
-      <c r="E63" s="18"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="18"/>
-      <c r="I63" s="18"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="18"/>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2468,21 +2468,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
-      <c r="D64" s="18"/>
-      <c r="E64" s="18"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="18"/>
-      <c r="I64" s="18"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="18"/>
-      <c r="L64" s="18"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="18"/>
-      <c r="O64" s="18"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2497,21 +2497,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="18"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="18"/>
-      <c r="I65" s="18"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="18"/>
-      <c r="O65" s="18"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2526,21 +2526,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="18"/>
-      <c r="L66" s="18"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="18"/>
-      <c r="O66" s="18"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2555,21 +2555,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="18"/>
-      <c r="L67" s="18"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="18"/>
-      <c r="O67" s="18"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2584,21 +2584,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="18"/>
-      <c r="L68" s="18"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="18"/>
-      <c r="O68" s="18"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2613,21 +2613,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="18"/>
-      <c r="L69" s="18"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="18"/>
-      <c r="O69" s="18"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -2642,21 +2642,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="18"/>
-      <c r="L70" s="18"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="18"/>
-      <c r="O70" s="18"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -2671,21 +2671,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
-      <c r="D71" s="18"/>
-      <c r="E71" s="18"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="18"/>
-      <c r="I71" s="18"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="18"/>
-      <c r="L71" s="18"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="18"/>
-      <c r="O71" s="18"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -2700,21 +2700,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
-      <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="18"/>
-      <c r="I72" s="18"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="18"/>
-      <c r="L72" s="18"/>
-      <c r="M72" s="18"/>
-      <c r="N72" s="18"/>
-      <c r="O72" s="18"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -2729,21 +2729,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
-      <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="18"/>
-      <c r="I73" s="18"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="18"/>
-      <c r="L73" s="18"/>
-      <c r="M73" s="18"/>
-      <c r="N73" s="18"/>
-      <c r="O73" s="18"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -4800,41 +4800,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C164F5-C5CF-4A29-88B2-42E9468C57B5}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C44" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I53" sqref="I53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="13" max="13" width="6.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4843,28 +4844,28 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -4873,28 +4874,28 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -4903,28 +4904,28 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -4933,28 +4934,28 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="18"/>
-      <c r="T5" s="18"/>
-      <c r="U5" s="18"/>
-      <c r="V5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -4963,28 +4964,28 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -4993,28 +4994,28 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-      <c r="Q7" s="18"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="18"/>
-      <c r="T7" s="18"/>
-      <c r="U7" s="18"/>
-      <c r="V7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -5023,28 +5024,28 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-      <c r="Q8" s="18"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="18"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5053,28 +5054,28 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-      <c r="Q9" s="18"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="18"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -5083,28 +5084,28 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-      <c r="Q10" s="18"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -5113,28 +5114,28 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-      <c r="Q11" s="18"/>
-      <c r="R11" s="18"/>
-      <c r="S11" s="18"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5143,28 +5144,28 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5173,28 +5174,28 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
-      <c r="Q13" s="18"/>
-      <c r="R13" s="18"/>
-      <c r="S13" s="18"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5203,28 +5204,28 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="18"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5233,28 +5234,28 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
-      <c r="Q15" s="18"/>
-      <c r="R15" s="18"/>
-      <c r="S15" s="18"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -5263,28 +5264,28 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
-      <c r="Q16" s="18"/>
-      <c r="R16" s="18"/>
-      <c r="S16" s="18"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -5293,28 +5294,28 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
-      <c r="Q17" s="18"/>
-      <c r="R17" s="18"/>
-      <c r="S17" s="18"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -5323,28 +5324,28 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
-      <c r="Q18" s="18"/>
-      <c r="R18" s="18"/>
-      <c r="S18" s="18"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -5353,28 +5354,28 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
-      <c r="Q19" s="18"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="18"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5383,28 +5384,28 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
-      <c r="Q20" s="18"/>
-      <c r="R20" s="18"/>
-      <c r="S20" s="18"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5413,28 +5414,28 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
-      <c r="Q21" s="18"/>
-      <c r="R21" s="18"/>
-      <c r="S21" s="18"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5443,28 +5444,28 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5473,28 +5474,28 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5503,28 +5504,28 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="18"/>
-      <c r="S24" s="18"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5533,28 +5534,28 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-      <c r="Q25" s="18"/>
-      <c r="R25" s="18"/>
-      <c r="S25" s="18"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -5563,28 +5564,28 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="18"/>
-      <c r="R26" s="18"/>
-      <c r="S26" s="18"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -5593,28 +5594,28 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="18"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -5623,28 +5624,28 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -5653,28 +5654,28 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -5683,28 +5684,28 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -5713,28 +5714,28 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-      <c r="S31" s="18"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -5743,28 +5744,28 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="18"/>
-      <c r="R32" s="18"/>
-      <c r="S32" s="18"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -5773,28 +5774,28 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="18"/>
-      <c r="R33" s="18"/>
-      <c r="S33" s="18"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -5803,28 +5804,28 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="O34" s="18"/>
-      <c r="P34" s="18"/>
-      <c r="Q34" s="18"/>
-      <c r="R34" s="18"/>
-      <c r="S34" s="18"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -5833,28 +5834,28 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="O35" s="18"/>
-      <c r="P35" s="18"/>
-      <c r="Q35" s="18"/>
-      <c r="R35" s="18"/>
-      <c r="S35" s="18"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -5863,28 +5864,28 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="18"/>
-      <c r="P36" s="18"/>
-      <c r="Q36" s="18"/>
-      <c r="R36" s="18"/>
-      <c r="S36" s="18"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -5893,28 +5894,28 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="18"/>
-      <c r="Q37" s="18"/>
-      <c r="R37" s="18"/>
-      <c r="S37" s="18"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -5923,28 +5924,28 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="O38" s="18"/>
-      <c r="P38" s="18"/>
-      <c r="Q38" s="18"/>
-      <c r="R38" s="18"/>
-      <c r="S38" s="18"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -5953,28 +5954,28 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="O39" s="18"/>
-      <c r="P39" s="18"/>
-      <c r="Q39" s="18"/>
-      <c r="R39" s="18"/>
-      <c r="S39" s="18"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -5983,28 +5984,28 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="O40" s="18"/>
-      <c r="P40" s="18"/>
-      <c r="Q40" s="18"/>
-      <c r="R40" s="18"/>
-      <c r="S40" s="18"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6013,28 +6014,28 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="O41" s="18"/>
-      <c r="P41" s="18"/>
-      <c r="Q41" s="18"/>
-      <c r="R41" s="18"/>
-      <c r="S41" s="18"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6043,28 +6044,28 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -6073,28 +6074,28 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="O43" s="18"/>
-      <c r="P43" s="18"/>
-      <c r="Q43" s="18"/>
-      <c r="R43" s="18"/>
-      <c r="S43" s="18"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -6103,28 +6104,28 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="O44" s="18"/>
-      <c r="P44" s="18"/>
-      <c r="Q44" s="18"/>
-      <c r="R44" s="18"/>
-      <c r="S44" s="18"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6133,28 +6134,28 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="O45" s="18"/>
-      <c r="P45" s="18"/>
-      <c r="Q45" s="18"/>
-      <c r="R45" s="18"/>
-      <c r="S45" s="18"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -6163,28 +6164,28 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="18"/>
-      <c r="P46" s="18"/>
-      <c r="Q46" s="18"/>
-      <c r="R46" s="18"/>
-      <c r="S46" s="18"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -6193,28 +6194,28 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="18"/>
-      <c r="P47" s="18"/>
-      <c r="Q47" s="18"/>
-      <c r="R47" s="18"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -6223,28 +6224,28 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="18"/>
-      <c r="L48" s="18"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="18"/>
-      <c r="O48" s="18"/>
-      <c r="P48" s="18"/>
-      <c r="Q48" s="18"/>
-      <c r="R48" s="18"/>
-      <c r="S48" s="18"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -6253,28 +6254,28 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="18"/>
-      <c r="L49" s="18"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="18"/>
-      <c r="O49" s="18"/>
-      <c r="P49" s="18"/>
-      <c r="Q49" s="18"/>
-      <c r="R49" s="18"/>
-      <c r="S49" s="18"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -6283,28 +6284,28 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
-      <c r="D50" s="18"/>
-      <c r="E50" s="18"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="18"/>
-      <c r="I50" s="18"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="18"/>
-      <c r="L50" s="18"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="18"/>
-      <c r="O50" s="18"/>
-      <c r="P50" s="18"/>
-      <c r="Q50" s="18"/>
-      <c r="R50" s="18"/>
-      <c r="S50" s="18"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -6314,47 +6315,43 @@
     </row>
     <row r="51" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
+      <c r="B51" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="F51" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="G51" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="I51" s="3" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K51" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="K51" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L51" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="M51" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O51" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="P51" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="R51" s="9" t="s">
+      <c r="N51" s="9" t="s">
         <v>36</v>
       </c>
       <c r="S51" s="6"/>
@@ -6370,47 +6367,43 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
+      <c r="B52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="F52" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="L52" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="M52" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K52" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M52" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O52" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="P52" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R52" s="5" t="s">
+      <c r="N52" s="5" t="s">
         <v>13</v>
       </c>
       <c r="S52" s="6"/>
@@ -6426,47 +6419,43 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="B53" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="F53" s="7" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I53" s="7" t="s">
-        <v>20</v>
+        <v>23</v>
+      </c>
+      <c r="I53" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M53" s="10" t="s">
-        <v>24</v>
+        <v>29</v>
+      </c>
+      <c r="M53" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="N53" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O53" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="P53" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q53" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="R53" s="7" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="13"/>
@@ -7562,7 +7551,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V50"/>
+    <mergeCell ref="A1:M21"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -7583,642 +7572,642 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" s="18"/>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" s="18"/>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="18"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="18"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="18"/>
-      <c r="I48" s="18"/>
-      <c r="J48" s="18"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
-      <c r="D49" s="18"/>
-      <c r="E49" s="18"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="18"/>
-      <c r="I49" s="18"/>
-      <c r="J49" s="18"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -8883,7 +8872,7 @@
   </sheetPr>
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -8893,582 +8882,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="18"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="18"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="18"/>
-      <c r="O14" s="18"/>
-      <c r="P14" s="18"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="18"/>
-      <c r="O15" s="18"/>
-      <c r="P15" s="18"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="18"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="18"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="18"/>
-      <c r="O16" s="18"/>
-      <c r="P16" s="18"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="P17" s="18"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="18"/>
-      <c r="L18" s="18"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="P18" s="18"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="18"/>
-      <c r="L19" s="18"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="P19" s="18"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="P21" s="18"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -9571,564 +9560,564 @@
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
-      <c r="C36" s="19" t="s">
+      <c r="B36" s="18"/>
+      <c r="C36" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="19" t="s">
+      <c r="E36" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F36" s="19" t="s">
+      <c r="F36" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="G36" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="H36" s="19" t="s">
+      <c r="H36" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="I36" s="19" t="s">
+      <c r="I36" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="J36" s="21" t="s">
+      <c r="J36" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="K36" s="19" t="s">
+      <c r="K36" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="19" t="s">
+      <c r="L36" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="M36" s="19" t="s">
+      <c r="M36" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="N36" s="19" t="s">
+      <c r="N36" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="O36" s="19" t="s">
+      <c r="O36" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="P36" s="19"/>
+      <c r="P36" s="18"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="19"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="18"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="18"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="19"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="18"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="21"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
-      <c r="O40" s="19"/>
-      <c r="P40" s="19"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+      <c r="O40" s="18"/>
+      <c r="P40" s="18"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="21"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
-      <c r="O41" s="19"/>
-      <c r="P41" s="19"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="18"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="21"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="19"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="18"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="21"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-      <c r="O43" s="19"/>
-      <c r="P43" s="19"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+      <c r="O44" s="18"/>
+      <c r="P44" s="18"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
-      <c r="F45" s="19"/>
-      <c r="G45" s="19"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="21"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-      <c r="O45" s="19"/>
-      <c r="P45" s="19"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="18"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B46" s="19"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-      <c r="G46" s="19"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="21"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-      <c r="O46" s="19"/>
-      <c r="P46" s="19"/>
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="18"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="F47" s="19"/>
-      <c r="G47" s="19"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="21"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="19"/>
-      <c r="M47" s="19"/>
-      <c r="N47" s="19"/>
-      <c r="O47" s="19"/>
-      <c r="P47" s="19"/>
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="18"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B48" s="19"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="19"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="19"/>
-      <c r="P48" s="19"/>
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="19"/>
+      <c r="G48" s="19"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="21"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="19"/>
+      <c r="O48" s="18"/>
+      <c r="P48" s="18"/>
     </row>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
-      <c r="F49" s="19"/>
-      <c r="G49" s="19"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="21"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="19"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="19"/>
-      <c r="P49" s="19"/>
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="18"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
-      <c r="F50" s="19"/>
-      <c r="G50" s="19"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="21"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="19"/>
-      <c r="M50" s="19"/>
-      <c r="N50" s="19"/>
-      <c r="O50" s="19"/>
-      <c r="P50" s="19"/>
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="18"/>
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
-      <c r="F51" s="19"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="21"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="19"/>
-      <c r="M51" s="19"/>
-      <c r="N51" s="19"/>
-      <c r="O51" s="19"/>
-      <c r="P51" s="19"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="18"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
-      <c r="F52" s="19"/>
-      <c r="G52" s="19"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="21"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="19"/>
-      <c r="M52" s="19"/>
-      <c r="N52" s="19"/>
-      <c r="O52" s="19"/>
-      <c r="P52" s="19"/>
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+      <c r="O52" s="18"/>
+      <c r="P52" s="18"/>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
-      <c r="F53" s="19"/>
-      <c r="G53" s="19"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="21"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="19"/>
-      <c r="M53" s="19"/>
-      <c r="N53" s="19"/>
-      <c r="O53" s="19"/>
-      <c r="P53" s="19"/>
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="18"/>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
-      <c r="F54" s="19"/>
-      <c r="G54" s="19"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="21"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="19"/>
-      <c r="M54" s="19"/>
-      <c r="N54" s="19"/>
-      <c r="O54" s="19"/>
-      <c r="P54" s="19"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="18"/>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
-      <c r="F55" s="19"/>
-      <c r="G55" s="19"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="21"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="19"/>
-      <c r="M55" s="19"/>
-      <c r="N55" s="19"/>
-      <c r="O55" s="19"/>
-      <c r="P55" s="19"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B56" s="19"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-      <c r="G56" s="19"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="21"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="19"/>
-      <c r="M56" s="19"/>
-      <c r="N56" s="19"/>
-      <c r="O56" s="19"/>
-      <c r="P56" s="19"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B57" s="19"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="19"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="19"/>
-      <c r="M57" s="19"/>
-      <c r="N57" s="19"/>
-      <c r="O57" s="19"/>
-      <c r="P57" s="19"/>
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="18"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+      <c r="O57" s="18"/>
+      <c r="P57" s="18"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B58" s="19"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
-      <c r="F58" s="19"/>
-      <c r="G58" s="19"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="21"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="19"/>
-      <c r="M58" s="19"/>
-      <c r="N58" s="19"/>
-      <c r="O58" s="19"/>
-      <c r="P58" s="19"/>
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="18"/>
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B59" s="19"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
-      <c r="F59" s="19"/>
-      <c r="G59" s="19"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="21"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="19"/>
-      <c r="M59" s="19"/>
-      <c r="N59" s="19"/>
-      <c r="O59" s="19"/>
-      <c r="P59" s="19"/>
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="18"/>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="21"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="19"/>
-      <c r="M60" s="19"/>
-      <c r="N60" s="19"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="19"/>
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B61" s="19"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
-      <c r="F61" s="19"/>
-      <c r="G61" s="19"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="21"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="19"/>
-      <c r="M61" s="19"/>
-      <c r="N61" s="19"/>
-      <c r="O61" s="19"/>
-      <c r="P61" s="19"/>
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+      <c r="O61" s="18"/>
+      <c r="P61" s="18"/>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B62" s="19"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="19"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="21"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="19"/>
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B63" s="19"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="19"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="21"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="19"/>
-      <c r="M63" s="19"/>
-      <c r="N63" s="19"/>
-      <c r="O63" s="19"/>
-      <c r="P63" s="19"/>
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="18"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
     </row>
     <row r="64" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B64" s="19"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="19"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="21"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="19"/>
-      <c r="M64" s="19"/>
-      <c r="N64" s="19"/>
-      <c r="O64" s="19"/>
-      <c r="P64" s="19"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="18"/>
+      <c r="J64" s="20"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
     </row>
     <row r="65" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B65" s="19"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="19"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="21"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="19"/>
-      <c r="M65" s="19"/>
-      <c r="N65" s="19"/>
-      <c r="O65" s="19"/>
-      <c r="P65" s="19"/>
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B66" s="19"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="21"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="19"/>
-      <c r="M66" s="19"/>
-      <c r="N66" s="19"/>
-      <c r="O66" s="19"/>
-      <c r="P66" s="19"/>
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="20"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:P32"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="96" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="97" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F418FEB8-BDB8-44EE-8A20-F9BB369A4103}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C349A897-568F-4D59-BE6A-22C7172F17DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$V$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$146</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$147</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">A4_Landscape!$A$1:$P$33,A4_Landscape!$B$34:$P$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">A4_Portrait!$A$1:$J$98</definedName>
   </definedNames>
@@ -626,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F9135E-1C3B-4B75-8739-436391A26F14}">
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A57" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K75" sqref="K75:N77"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1395,21 +1395,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="22"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1424,21 +1424,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1453,21 +1453,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="22"/>
-      <c r="J29" s="22"/>
-      <c r="K29" s="22"/>
-      <c r="L29" s="22"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1482,21 +1482,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="22"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="22"/>
-      <c r="H30" s="22"/>
-      <c r="I30" s="22"/>
-      <c r="J30" s="22"/>
-      <c r="K30" s="22"/>
-      <c r="L30" s="22"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1511,21 +1511,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="22"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1540,21 +1540,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="22"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
-      <c r="K32" s="22"/>
-      <c r="L32" s="22"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1569,21 +1569,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22"/>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
-      <c r="K33" s="22"/>
-      <c r="L33" s="22"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1598,21 +1598,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="22"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="22"/>
-      <c r="H34" s="22"/>
-      <c r="I34" s="22"/>
-      <c r="J34" s="22"/>
-      <c r="K34" s="22"/>
-      <c r="L34" s="22"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="22"/>
-      <c r="O34" s="22"/>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -1627,21 +1627,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="22"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22"/>
-      <c r="I35" s="22"/>
-      <c r="J35" s="22"/>
-      <c r="K35" s="22"/>
-      <c r="L35" s="22"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="22"/>
-      <c r="O35" s="22"/>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -1656,21 +1656,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="22"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
-      <c r="G36" s="22"/>
-      <c r="H36" s="22"/>
-      <c r="I36" s="22"/>
-      <c r="J36" s="22"/>
-      <c r="K36" s="22"/>
-      <c r="L36" s="22"/>
-      <c r="M36" s="22"/>
-      <c r="N36" s="22"/>
-      <c r="O36" s="22"/>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1685,21 +1685,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="22"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="22"/>
-      <c r="H37" s="22"/>
-      <c r="I37" s="22"/>
-      <c r="J37" s="22"/>
-      <c r="K37" s="22"/>
-      <c r="L37" s="22"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="22"/>
-      <c r="O37" s="22"/>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -1714,21 +1714,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="22"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="22"/>
-      <c r="H38" s="22"/>
-      <c r="I38" s="22"/>
-      <c r="J38" s="22"/>
-      <c r="K38" s="22"/>
-      <c r="L38" s="22"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="22"/>
-      <c r="O38" s="22"/>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -1743,21 +1743,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="22"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
-      <c r="G39" s="22"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="22"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="22"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="22"/>
-      <c r="O39" s="22"/>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -1772,21 +1772,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="22"/>
-      <c r="B40" s="22"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
-      <c r="G40" s="22"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="22"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="22"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="22"/>
-      <c r="N40" s="22"/>
-      <c r="O40" s="22"/>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -1801,21 +1801,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="22"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
-      <c r="G41" s="22"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="22"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="22"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="22"/>
-      <c r="O41" s="22"/>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -1830,21 +1830,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="22"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
-      <c r="G42" s="22"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="22"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="22"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="22"/>
-      <c r="O42" s="22"/>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -1859,21 +1859,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="22"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-      <c r="F43" s="22"/>
-      <c r="G43" s="22"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="22"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="22"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="22"/>
-      <c r="O43" s="22"/>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -1888,21 +1888,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="22"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="22"/>
-      <c r="I44" s="22"/>
-      <c r="J44" s="22"/>
-      <c r="K44" s="22"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="22"/>
-      <c r="N44" s="22"/>
-      <c r="O44" s="22"/>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -1917,21 +1917,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="22"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="22"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="22"/>
-      <c r="O45" s="22"/>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -1946,21 +1946,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="22"/>
-      <c r="F46" s="22"/>
-      <c r="G46" s="22"/>
-      <c r="H46" s="22"/>
-      <c r="I46" s="22"/>
-      <c r="J46" s="22"/>
-      <c r="K46" s="22"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="22"/>
-      <c r="O46" s="22"/>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -1975,21 +1975,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="22"/>
-      <c r="B47" s="22"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="22"/>
-      <c r="F47" s="22"/>
-      <c r="G47" s="22"/>
-      <c r="H47" s="22"/>
-      <c r="I47" s="22"/>
-      <c r="J47" s="22"/>
-      <c r="K47" s="22"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="22"/>
-      <c r="O47" s="22"/>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2004,21 +2004,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="22"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="22"/>
-      <c r="F48" s="22"/>
-      <c r="G48" s="22"/>
-      <c r="H48" s="22"/>
-      <c r="I48" s="22"/>
-      <c r="J48" s="22"/>
-      <c r="K48" s="22"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="22"/>
-      <c r="N48" s="22"/>
-      <c r="O48" s="22"/>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2033,21 +2033,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
-      <c r="K49" s="22"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2062,21 +2062,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22"/>
-      <c r="B50" s="22"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2091,21 +2091,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="22"/>
-      <c r="B51" s="22"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22"/>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22"/>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2120,21 +2120,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="22"/>
-      <c r="B52" s="22"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="22"/>
-      <c r="F52" s="22"/>
-      <c r="G52" s="22"/>
-      <c r="H52" s="22"/>
-      <c r="I52" s="22"/>
-      <c r="J52" s="22"/>
-      <c r="K52" s="22"/>
-      <c r="L52" s="22"/>
-      <c r="M52" s="22"/>
-      <c r="N52" s="22"/>
-      <c r="O52" s="22"/>
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2149,21 +2149,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="22"/>
-      <c r="B53" s="22"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="22"/>
-      <c r="F53" s="22"/>
-      <c r="G53" s="22"/>
-      <c r="H53" s="22"/>
-      <c r="I53" s="22"/>
-      <c r="J53" s="22"/>
-      <c r="K53" s="22"/>
-      <c r="L53" s="22"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="22"/>
-      <c r="O53" s="22"/>
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2178,21 +2178,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="22"/>
-      <c r="B54" s="22"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="22"/>
-      <c r="E54" s="22"/>
-      <c r="F54" s="22"/>
-      <c r="G54" s="22"/>
-      <c r="H54" s="22"/>
-      <c r="I54" s="22"/>
-      <c r="J54" s="22"/>
-      <c r="K54" s="22"/>
-      <c r="L54" s="22"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="22"/>
-      <c r="O54" s="22"/>
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2207,21 +2207,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="22"/>
-      <c r="B55" s="22"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="22"/>
-      <c r="E55" s="22"/>
-      <c r="F55" s="22"/>
-      <c r="G55" s="22"/>
-      <c r="H55" s="22"/>
-      <c r="I55" s="22"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
-      <c r="O55" s="22"/>
+      <c r="A55" s="1"/>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2236,21 +2236,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="22"/>
-      <c r="B56" s="22"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="22"/>
-      <c r="E56" s="22"/>
-      <c r="F56" s="22"/>
-      <c r="G56" s="22"/>
-      <c r="H56" s="22"/>
-      <c r="I56" s="22"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
-      <c r="O56" s="22"/>
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2265,21 +2265,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="22"/>
-      <c r="B57" s="22"/>
-      <c r="C57" s="22"/>
-      <c r="D57" s="22"/>
-      <c r="E57" s="22"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="22"/>
-      <c r="H57" s="22"/>
-      <c r="I57" s="22"/>
-      <c r="J57" s="22"/>
-      <c r="K57" s="22"/>
-      <c r="L57" s="22"/>
-      <c r="M57" s="22"/>
-      <c r="N57" s="22"/>
-      <c r="O57" s="22"/>
+      <c r="A57" s="1"/>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2294,21 +2294,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="22"/>
-      <c r="B58" s="22"/>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
-      <c r="K58" s="22"/>
-      <c r="L58" s="22"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2323,21 +2323,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="22"/>
-      <c r="B59" s="22"/>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
-      <c r="K59" s="22"/>
-      <c r="L59" s="22"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2352,21 +2352,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="22"/>
-      <c r="B60" s="22"/>
-      <c r="C60" s="22"/>
-      <c r="D60" s="22"/>
-      <c r="E60" s="22"/>
-      <c r="F60" s="22"/>
-      <c r="G60" s="22"/>
-      <c r="H60" s="22"/>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
-      <c r="K60" s="22"/>
-      <c r="L60" s="22"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="22"/>
-      <c r="O60" s="22"/>
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2381,21 +2381,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="22"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
-      <c r="G61" s="22"/>
-      <c r="H61" s="22"/>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="22"/>
-      <c r="M61" s="22"/>
-      <c r="N61" s="22"/>
-      <c r="O61" s="22"/>
+      <c r="A61" s="1"/>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2410,21 +2410,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="22"/>
-      <c r="B62" s="22"/>
-      <c r="C62" s="22"/>
-      <c r="D62" s="22"/>
-      <c r="E62" s="22"/>
-      <c r="F62" s="22"/>
-      <c r="G62" s="22"/>
-      <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="22"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="22"/>
-      <c r="O62" s="22"/>
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2439,21 +2439,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="22"/>
-      <c r="B63" s="22"/>
-      <c r="C63" s="22"/>
-      <c r="D63" s="22"/>
-      <c r="E63" s="22"/>
-      <c r="F63" s="22"/>
-      <c r="G63" s="22"/>
-      <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
-      <c r="J63" s="22"/>
-      <c r="K63" s="22"/>
-      <c r="L63" s="22"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="22"/>
-      <c r="O63" s="22"/>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2468,21 +2468,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="22"/>
-      <c r="B64" s="22"/>
-      <c r="C64" s="22"/>
-      <c r="D64" s="22"/>
-      <c r="E64" s="22"/>
-      <c r="F64" s="22"/>
-      <c r="G64" s="22"/>
-      <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="22"/>
-      <c r="L64" s="22"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="22"/>
-      <c r="O64" s="22"/>
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2497,21 +2497,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="22"/>
-      <c r="B65" s="22"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="22"/>
-      <c r="E65" s="22"/>
-      <c r="F65" s="22"/>
-      <c r="G65" s="22"/>
-      <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
-      <c r="J65" s="22"/>
-      <c r="K65" s="22"/>
-      <c r="L65" s="22"/>
-      <c r="M65" s="22"/>
-      <c r="N65" s="22"/>
-      <c r="O65" s="22"/>
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2526,21 +2526,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="22"/>
-      <c r="B66" s="22"/>
-      <c r="C66" s="22"/>
-      <c r="D66" s="22"/>
-      <c r="E66" s="22"/>
-      <c r="F66" s="22"/>
-      <c r="G66" s="22"/>
-      <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
-      <c r="J66" s="22"/>
-      <c r="K66" s="22"/>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2555,21 +2555,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="22"/>
-      <c r="B67" s="22"/>
-      <c r="C67" s="22"/>
-      <c r="D67" s="22"/>
-      <c r="E67" s="22"/>
-      <c r="F67" s="22"/>
-      <c r="G67" s="22"/>
-      <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
-      <c r="J67" s="22"/>
-      <c r="K67" s="22"/>
-      <c r="L67" s="22"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="22"/>
-      <c r="O67" s="22"/>
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2584,21 +2584,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="22"/>
-      <c r="B68" s="22"/>
-      <c r="C68" s="22"/>
-      <c r="D68" s="22"/>
-      <c r="E68" s="22"/>
-      <c r="F68" s="22"/>
-      <c r="G68" s="22"/>
-      <c r="H68" s="22"/>
-      <c r="I68" s="22"/>
-      <c r="J68" s="22"/>
-      <c r="K68" s="22"/>
-      <c r="L68" s="22"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="22"/>
-      <c r="O68" s="22"/>
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2613,21 +2613,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="22"/>
-      <c r="B69" s="22"/>
-      <c r="C69" s="22"/>
-      <c r="D69" s="22"/>
-      <c r="E69" s="22"/>
-      <c r="F69" s="22"/>
-      <c r="G69" s="22"/>
-      <c r="H69" s="22"/>
-      <c r="I69" s="22"/>
-      <c r="J69" s="22"/>
-      <c r="K69" s="22"/>
-      <c r="L69" s="22"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="22"/>
-      <c r="O69" s="22"/>
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -2642,21 +2642,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-      <c r="E70" s="22"/>
-      <c r="F70" s="22"/>
-      <c r="G70" s="22"/>
-      <c r="H70" s="22"/>
-      <c r="I70" s="22"/>
-      <c r="J70" s="22"/>
-      <c r="K70" s="22"/>
-      <c r="L70" s="22"/>
-      <c r="M70" s="22"/>
-      <c r="N70" s="22"/>
-      <c r="O70" s="22"/>
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -2671,21 +2671,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="22"/>
-      <c r="B71" s="22"/>
-      <c r="C71" s="22"/>
-      <c r="D71" s="22"/>
-      <c r="E71" s="22"/>
-      <c r="F71" s="22"/>
-      <c r="G71" s="22"/>
-      <c r="H71" s="22"/>
-      <c r="I71" s="22"/>
-      <c r="J71" s="22"/>
-      <c r="K71" s="22"/>
-      <c r="L71" s="22"/>
-      <c r="M71" s="22"/>
-      <c r="N71" s="22"/>
-      <c r="O71" s="22"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -2700,21 +2700,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22"/>
-      <c r="D72" s="22"/>
-      <c r="E72" s="22"/>
-      <c r="F72" s="22"/>
-      <c r="G72" s="22"/>
-      <c r="H72" s="22"/>
-      <c r="I72" s="22"/>
-      <c r="J72" s="22"/>
-      <c r="K72" s="22"/>
-      <c r="L72" s="22"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="22"/>
-      <c r="O72" s="22"/>
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -2729,21 +2729,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
-      <c r="K73" s="22"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
-      <c r="O73" s="22"/>
+      <c r="A73" s="1"/>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -4786,10 +4786,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O73"/>
+    <mergeCell ref="A1:O26"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="141" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
@@ -4800,8 +4800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C164F5-C5CF-4A29-88B2-42E9468C57B5}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:M21"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScale="70" zoomScaleNormal="55" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4827,15 +4827,15 @@
       <c r="K1" s="22"/>
       <c r="L1" s="22"/>
       <c r="M1" s="22"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4857,15 +4857,15 @@
       <c r="K2" s="22"/>
       <c r="L2" s="22"/>
       <c r="M2" s="22"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -4887,15 +4887,15 @@
       <c r="K3" s="22"/>
       <c r="L3" s="22"/>
       <c r="M3" s="22"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -4917,15 +4917,15 @@
       <c r="K4" s="22"/>
       <c r="L4" s="22"/>
       <c r="M4" s="22"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -4947,15 +4947,15 @@
       <c r="K5" s="22"/>
       <c r="L5" s="22"/>
       <c r="M5" s="22"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -4977,15 +4977,15 @@
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
       <c r="M6" s="22"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -5007,15 +5007,15 @@
       <c r="K7" s="22"/>
       <c r="L7" s="22"/>
       <c r="M7" s="22"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -5037,15 +5037,15 @@
       <c r="K8" s="22"/>
       <c r="L8" s="22"/>
       <c r="M8" s="22"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5067,15 +5067,15 @@
       <c r="K9" s="22"/>
       <c r="L9" s="22"/>
       <c r="M9" s="22"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -5097,15 +5097,15 @@
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
       <c r="M10" s="22"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -5127,15 +5127,15 @@
       <c r="K11" s="22"/>
       <c r="L11" s="22"/>
       <c r="M11" s="22"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5157,15 +5157,15 @@
       <c r="K12" s="22"/>
       <c r="L12" s="22"/>
       <c r="M12" s="22"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5187,15 +5187,15 @@
       <c r="K13" s="22"/>
       <c r="L13" s="22"/>
       <c r="M13" s="22"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5217,15 +5217,15 @@
       <c r="K14" s="22"/>
       <c r="L14" s="22"/>
       <c r="M14" s="22"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5247,15 +5247,15 @@
       <c r="K15" s="22"/>
       <c r="L15" s="22"/>
       <c r="M15" s="22"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -5277,15 +5277,15 @@
       <c r="K16" s="22"/>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -5307,15 +5307,15 @@
       <c r="K17" s="22"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -5337,15 +5337,15 @@
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -5367,15 +5367,15 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5397,15 +5397,15 @@
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="22"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5427,15 +5427,15 @@
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5444,28 +5444,28 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5474,28 +5474,28 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5504,28 +5504,28 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5534,28 +5534,28 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -5564,28 +5564,28 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -5594,28 +5594,28 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -5624,28 +5624,28 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -5654,28 +5654,28 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -5684,28 +5684,28 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -5714,28 +5714,28 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -5744,28 +5744,28 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -5774,28 +5774,28 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -5804,28 +5804,28 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -5834,28 +5834,28 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -5864,28 +5864,28 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -5894,28 +5894,28 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -7551,10 +7551,10 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:M21"/>
+    <mergeCell ref="A1:V37"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="141" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
@@ -7565,7 +7565,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4CF21E-DA85-4FCB-8DF0-21787D9AFDE3}">
   <dimension ref="A1:K98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
       <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
@@ -8872,7 +8872,7 @@
   </sheetPr>
   <dimension ref="A1:P66"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\SAM\resources\Core\templates\AHU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FAF17D-D22B-4BE4-86E2-51146F8CDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864466B-016A-4F9F-A052-5DE0852C90BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
     <sheet name="A3_Landscape" sheetId="2" r:id="rId2"/>
-    <sheet name="A4_Portrait" sheetId="3" r:id="rId3"/>
-    <sheet name="A4_Landscape" sheetId="6" r:id="rId4"/>
+    <sheet name="A4_Portrait" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="A4_Landscape" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$V$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$U$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$147</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">A4_Landscape!$A$1:$P$33,A4_Landscape!$B$34:$P$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">A4_Portrait!$A$1:$J$98</definedName>
@@ -230,7 +230,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,11 +238,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -302,6 +311,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F9135E-1C3B-4B75-8739-436391A26F14}">
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="Z76" sqref="Z76"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77:N77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2892,43 +2907,43 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L77" s="5" t="s">
+      <c r="L77" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="21" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="5"/>
@@ -4794,12 +4809,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C164F5-C5CF-4A29-88B2-42E9468C57B5}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:V50"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="6.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" customWidth="1"/>
@@ -6413,43 +6430,43 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="21" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="11"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D864466B-016A-4F9F-A052-5DE0852C90BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEE533-2682-4776-AD52-FD89510112DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,38 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="5" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -251,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -310,13 +342,31 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -635,7 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F9135E-1C3B-4B75-8739-436391A26F14}">
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="B77" sqref="B77:N77"/>
     </sheetView>
   </sheetViews>
@@ -648,23 +698,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -679,21 +729,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -708,21 +758,21 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -737,21 +787,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -766,21 +816,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -795,21 +845,21 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -824,21 +874,21 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -853,21 +903,21 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -882,21 +932,21 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -911,21 +961,21 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -940,21 +990,21 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -969,21 +1019,21 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -998,21 +1048,21 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1027,21 +1077,21 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1056,21 +1106,21 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1085,21 +1135,21 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1114,21 +1164,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1143,21 +1193,21 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1172,21 +1222,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1201,21 +1251,21 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1230,21 +1280,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1259,21 +1309,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1288,21 +1338,21 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1317,21 +1367,21 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1346,21 +1396,21 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1375,21 +1425,21 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1404,21 +1454,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1433,21 +1483,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1462,21 +1512,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1491,21 +1541,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1520,21 +1570,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1549,21 +1599,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1578,21 +1628,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1607,21 +1657,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -1636,21 +1686,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -1665,21 +1715,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1694,21 +1744,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -1723,21 +1773,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -1752,21 +1802,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -1781,21 +1831,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -1810,21 +1860,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -1839,21 +1889,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -1868,21 +1918,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -1897,21 +1947,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -1926,21 +1976,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -1955,21 +2005,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -1984,21 +2034,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2013,21 +2063,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2042,21 +2092,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2071,21 +2121,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2100,21 +2150,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2129,21 +2179,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2158,21 +2208,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="26"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2187,21 +2237,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="26"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2216,21 +2266,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2245,21 +2295,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2274,21 +2324,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="26"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="26"/>
+      <c r="N57" s="26"/>
+      <c r="O57" s="26"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2303,21 +2353,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="26"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2332,21 +2382,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="26"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2361,21 +2411,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="26"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="26"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2390,21 +2440,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2419,21 +2469,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="26"/>
+      <c r="G62" s="26"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="26"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="26"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2448,21 +2498,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="26"/>
+      <c r="F63" s="26"/>
+      <c r="G63" s="26"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="26"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="26"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2477,21 +2527,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="26"/>
+      <c r="G64" s="26"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="26"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2506,21 +2556,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="26"/>
+      <c r="F65" s="26"/>
+      <c r="G65" s="26"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="26"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="26"/>
+      <c r="M65" s="26"/>
+      <c r="N65" s="26"/>
+      <c r="O65" s="26"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2535,21 +2585,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="26"/>
+      <c r="F66" s="26"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="26"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="26"/>
+      <c r="N66" s="26"/>
+      <c r="O66" s="26"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2564,21 +2614,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2593,21 +2643,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2622,21 +2672,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="26"/>
+      <c r="F69" s="26"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="26"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="26"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -2651,21 +2701,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="26"/>
+      <c r="F70" s="26"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="26"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="26"/>
+      <c r="M70" s="26"/>
+      <c r="N70" s="26"/>
+      <c r="O70" s="26"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -2680,21 +2730,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="26"/>
+      <c r="G71" s="26"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="26"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="26"/>
+      <c r="N71" s="26"/>
+      <c r="O71" s="26"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -2709,21 +2759,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="26"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -2738,21 +2788,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="26"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="26"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -2767,21 +2817,21 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="26"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="26"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -2852,43 +2902,43 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="M76" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="20" t="s">
         <v>13</v>
       </c>
       <c r="O76" s="4"/>
@@ -2907,43 +2957,43 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="21" t="s">
+      <c r="B77" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="21" t="s">
+      <c r="C77" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="21" t="s">
+      <c r="D77" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="21" t="s">
+      <c r="E77" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="21" t="s">
+      <c r="F77" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="21" t="s">
+      <c r="G77" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="21" t="s">
+      <c r="H77" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="22" t="s">
+      <c r="I77" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="21" t="s">
+      <c r="J77" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="21" t="s">
+      <c r="K77" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L77" s="21" t="s">
+      <c r="L77" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M77" s="21" t="s">
+      <c r="M77" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="21" t="s">
+      <c r="N77" s="28" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="5"/>
@@ -4809,8 +4859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C164F5-C5CF-4A29-88B2-42E9468C57B5}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53:N53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4823,30 +4873,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4855,28 +4905,28 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -4885,28 +4935,28 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -4915,28 +4965,28 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -4945,28 +4995,28 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -4975,28 +5025,28 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
+      <c r="T6" s="26"/>
+      <c r="U6" s="26"/>
+      <c r="V6" s="26"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -5005,28 +5055,28 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="26"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -5035,28 +5085,28 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="26"/>
+      <c r="U8" s="26"/>
+      <c r="V8" s="26"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5065,28 +5115,28 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="26"/>
+      <c r="U9" s="26"/>
+      <c r="V9" s="26"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -5095,28 +5145,28 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="26"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="26"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -5125,28 +5175,28 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="26"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="26"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5155,28 +5205,28 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="26"/>
+      <c r="U12" s="26"/>
+      <c r="V12" s="26"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5185,28 +5235,28 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5215,28 +5265,28 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="26"/>
+      <c r="U14" s="26"/>
+      <c r="V14" s="26"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5245,28 +5295,28 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -5275,28 +5325,28 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="26"/>
+      <c r="U16" s="26"/>
+      <c r="V16" s="26"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -5305,28 +5355,28 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -5335,28 +5385,28 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="26"/>
+      <c r="S18" s="26"/>
+      <c r="T18" s="26"/>
+      <c r="U18" s="26"/>
+      <c r="V18" s="26"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -5365,28 +5415,28 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="26"/>
+      <c r="R19" s="26"/>
+      <c r="S19" s="26"/>
+      <c r="T19" s="26"/>
+      <c r="U19" s="26"/>
+      <c r="V19" s="26"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5395,28 +5445,28 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="26"/>
+      <c r="S20" s="26"/>
+      <c r="T20" s="26"/>
+      <c r="U20" s="26"/>
+      <c r="V20" s="26"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5425,28 +5475,28 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="26"/>
+      <c r="U21" s="26"/>
+      <c r="V21" s="26"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5455,28 +5505,28 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="26"/>
+      <c r="U22" s="26"/>
+      <c r="V22" s="26"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5485,28 +5535,28 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="26"/>
+      <c r="U23" s="26"/>
+      <c r="V23" s="26"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5515,28 +5565,28 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="26"/>
+      <c r="U24" s="26"/>
+      <c r="V24" s="26"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5545,28 +5595,28 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -5575,28 +5625,28 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="26"/>
+      <c r="R26" s="26"/>
+      <c r="S26" s="26"/>
+      <c r="T26" s="26"/>
+      <c r="U26" s="26"/>
+      <c r="V26" s="26"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -5605,28 +5655,28 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -5635,28 +5685,28 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="26"/>
+      <c r="U28" s="26"/>
+      <c r="V28" s="26"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -5665,28 +5715,28 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="26"/>
+      <c r="U29" s="26"/>
+      <c r="V29" s="26"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -5695,28 +5745,28 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="26"/>
+      <c r="U30" s="26"/>
+      <c r="V30" s="26"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -5725,28 +5775,28 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -5755,28 +5805,28 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
+      <c r="Q32" s="26"/>
+      <c r="R32" s="26"/>
+      <c r="S32" s="26"/>
+      <c r="T32" s="26"/>
+      <c r="U32" s="26"/>
+      <c r="V32" s="26"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -5785,28 +5835,28 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="26"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -5815,28 +5865,28 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="26"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -5845,28 +5895,28 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="26"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -5875,28 +5925,28 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="26"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -5905,28 +5955,28 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="26"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -5935,28 +5985,28 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="26"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -5965,28 +6015,28 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="26"/>
+      <c r="R39" s="26"/>
+      <c r="S39" s="26"/>
+      <c r="T39" s="26"/>
+      <c r="U39" s="26"/>
+      <c r="V39" s="26"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -5995,28 +6045,28 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+      <c r="M40" s="26"/>
+      <c r="N40" s="26"/>
+      <c r="O40" s="26"/>
+      <c r="P40" s="26"/>
+      <c r="Q40" s="26"/>
+      <c r="R40" s="26"/>
+      <c r="S40" s="26"/>
+      <c r="T40" s="26"/>
+      <c r="U40" s="26"/>
+      <c r="V40" s="26"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6025,28 +6075,28 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+      <c r="V41" s="26"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6055,28 +6105,28 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+      <c r="V42" s="26"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -6085,28 +6135,28 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+      <c r="T43" s="26"/>
+      <c r="U43" s="26"/>
+      <c r="V43" s="26"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -6115,28 +6165,28 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+      <c r="T44" s="26"/>
+      <c r="U44" s="26"/>
+      <c r="V44" s="26"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6145,28 +6195,28 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+      <c r="V45" s="26"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -6175,28 +6225,28 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+      <c r="V46" s="26"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -6205,28 +6255,28 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="26"/>
+      <c r="R47" s="26"/>
+      <c r="S47" s="26"/>
+      <c r="T47" s="26"/>
+      <c r="U47" s="26"/>
+      <c r="V47" s="26"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -6235,28 +6285,28 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+      <c r="V48" s="26"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -6265,28 +6315,28 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+      <c r="V49" s="26"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -6295,28 +6345,28 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="26"/>
+      <c r="R50" s="26"/>
+      <c r="S50" s="26"/>
+      <c r="T50" s="26"/>
+      <c r="U50" s="26"/>
+      <c r="V50" s="26"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -6430,43 +6480,43 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="21" t="s">
+      <c r="C53" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="21" t="s">
+      <c r="D53" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="21" t="s">
+      <c r="E53" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="21" t="s">
+      <c r="F53" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="21" t="s">
+      <c r="G53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="21" t="s">
+      <c r="H53" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="22" t="s">
+      <c r="I53" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="21" t="s">
+      <c r="J53" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="21" t="s">
+      <c r="K53" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="21" t="s">
+      <c r="L53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="21" t="s">
+      <c r="M53" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="21" t="s">
+      <c r="N53" s="28" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="11"/>
@@ -7583,642 +7633,642 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="26"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="26"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="26"/>
+      <c r="J37" s="26"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="26"/>
+      <c r="J38" s="26"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -8893,582 +8943,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="A3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="26"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="A6" s="26"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="A7" s="26"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="26"/>
+      <c r="N7" s="26"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="26"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="26"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="26"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="A11" s="26"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26"/>
+      <c r="P11" s="26"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="26"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="A13" s="26"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="A14" s="26"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="26"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="A15" s="26"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="26"/>
+      <c r="P15" s="26"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="26"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
+      <c r="J19" s="26"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="26"/>
+      <c r="O19" s="26"/>
+      <c r="P19" s="26"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="26"/>
+      <c r="J20" s="26"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="26"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="26"/>
+      <c r="J21" s="26"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="26"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="26"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="26"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="26"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="26"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="26"/>
+      <c r="O23" s="26"/>
+      <c r="P23" s="26"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="26"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="26"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="26"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="A25" s="26"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="A26" s="26"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="26"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+      <c r="M28" s="26"/>
+      <c r="N28" s="26"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="26"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="26"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="26"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+      <c r="M32" s="26"/>
+      <c r="N32" s="26"/>
+      <c r="O32" s="26"/>
+      <c r="P32" s="26"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\SAM\resources\Core\templates\AHU\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FAF17D-D22B-4BE4-86E2-51146F8CDAEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0C42F3-0B27-41AB-A9DF-BEC33944ADC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
     <sheet name="A3_Landscape" sheetId="2" r:id="rId2"/>
-    <sheet name="A4_Portrait" sheetId="3" r:id="rId3"/>
-    <sheet name="A4_Landscape" sheetId="6" r:id="rId4"/>
+    <sheet name="A4_Portrait" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="A4_Landscape" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$V$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$U$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$147</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">A4_Landscape!$A$1:$P$33,A4_Landscape!$B$34:$P$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">A4_Portrait!$A$1:$J$98</definedName>
@@ -172,7 +172,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,6 +221,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +246,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -238,11 +254,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -301,7 +326,31 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F9135E-1C3B-4B75-8739-436391A26F14}">
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="25" zoomScaleNormal="100" zoomScaleSheetLayoutView="25" workbookViewId="0">
-      <selection activeCell="Z76" sqref="Z76"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,23 +682,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -664,21 +713,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -693,21 +742,21 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -722,21 +771,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -751,21 +800,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -780,21 +829,21 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -809,21 +858,21 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -838,21 +887,21 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -867,21 +916,21 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -896,21 +945,21 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -925,21 +974,21 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -954,21 +1003,21 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -983,21 +1032,21 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1012,21 +1061,21 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1041,21 +1090,21 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1070,21 +1119,21 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1099,21 +1148,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1128,21 +1177,21 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1157,21 +1206,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1186,21 +1235,21 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1215,21 +1264,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1244,21 +1293,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1273,21 +1322,21 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1302,21 +1351,21 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1331,21 +1380,21 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1360,21 +1409,21 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1389,21 +1438,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1418,21 +1467,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1447,21 +1496,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1476,21 +1525,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1505,21 +1554,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1534,21 +1583,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1563,21 +1612,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1592,21 +1641,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -1621,21 +1670,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -1650,21 +1699,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1679,21 +1728,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -1708,21 +1757,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -1737,21 +1786,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -1766,21 +1815,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -1795,21 +1844,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -1824,21 +1873,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -1853,21 +1902,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -1882,21 +1931,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -1911,21 +1960,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -1940,21 +1989,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -1969,21 +2018,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -1998,21 +2047,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2027,21 +2076,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2056,21 +2105,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2085,21 +2134,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
+      <c r="A51" s="22"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2114,21 +2163,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
+      <c r="A52" s="22"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="22"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="22"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="22"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="22"/>
+      <c r="M52" s="22"/>
+      <c r="N52" s="22"/>
+      <c r="O52" s="22"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2143,21 +2192,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="20"/>
-      <c r="D53" s="20"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
+      <c r="A53" s="22"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="22"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="22"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="22"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="22"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="22"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="22"/>
+      <c r="O53" s="22"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2172,21 +2221,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="20"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="20"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
+      <c r="A54" s="22"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="22"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="22"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="22"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="22"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="22"/>
+      <c r="O54" s="22"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2201,21 +2250,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="20"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="20"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="22"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="22"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="22"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="22"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="22"/>
+      <c r="O55" s="22"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2230,21 +2279,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="20"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="20"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="22"/>
+      <c r="H56" s="22"/>
+      <c r="I56" s="22"/>
+      <c r="J56" s="22"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="22"/>
+      <c r="M56" s="22"/>
+      <c r="N56" s="22"/>
+      <c r="O56" s="22"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2259,21 +2308,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="20"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="20"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="22"/>
+      <c r="O57" s="22"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2288,21 +2337,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="20"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="20"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
+      <c r="A58" s="22"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="22"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2317,21 +2366,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="20"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="20"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
+      <c r="A59" s="22"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="22"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2346,21 +2395,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="20"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="20"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
+      <c r="A60" s="22"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="22"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="22"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="22"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="22"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="22"/>
+      <c r="O60" s="22"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2375,21 +2424,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="20"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="22"/>
+      <c r="M61" s="22"/>
+      <c r="N61" s="22"/>
+      <c r="O61" s="22"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2404,21 +2453,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="20"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="20"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="22"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="22"/>
+      <c r="F62" s="22"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="22"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="22"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="22"/>
+      <c r="O62" s="22"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2433,21 +2482,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="20"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="20"/>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22"/>
+      <c r="F63" s="22"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="22"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="22"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="22"/>
+      <c r="O63" s="22"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2462,21 +2511,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="20"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="20"/>
-      <c r="D64" s="20"/>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
+      <c r="A64" s="22"/>
+      <c r="B64" s="22"/>
+      <c r="C64" s="22"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="22"/>
+      <c r="F64" s="22"/>
+      <c r="G64" s="22"/>
+      <c r="H64" s="22"/>
+      <c r="I64" s="22"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="22"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="22"/>
+      <c r="O64" s="22"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2491,21 +2540,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
+      <c r="A65" s="22"/>
+      <c r="B65" s="22"/>
+      <c r="C65" s="22"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="22"/>
+      <c r="F65" s="22"/>
+      <c r="G65" s="22"/>
+      <c r="H65" s="22"/>
+      <c r="I65" s="22"/>
+      <c r="J65" s="22"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="22"/>
+      <c r="M65" s="22"/>
+      <c r="N65" s="22"/>
+      <c r="O65" s="22"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2520,21 +2569,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
+      <c r="A66" s="22"/>
+      <c r="B66" s="22"/>
+      <c r="C66" s="22"/>
+      <c r="D66" s="22"/>
+      <c r="E66" s="22"/>
+      <c r="F66" s="22"/>
+      <c r="G66" s="22"/>
+      <c r="H66" s="22"/>
+      <c r="I66" s="22"/>
+      <c r="J66" s="22"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2549,21 +2598,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="20"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
+      <c r="A67" s="22"/>
+      <c r="B67" s="22"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="22"/>
+      <c r="F67" s="22"/>
+      <c r="G67" s="22"/>
+      <c r="H67" s="22"/>
+      <c r="I67" s="22"/>
+      <c r="J67" s="22"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="22"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="22"/>
+      <c r="O67" s="22"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2578,21 +2627,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="20"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="20"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
+      <c r="A68" s="22"/>
+      <c r="B68" s="22"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="22"/>
+      <c r="F68" s="22"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="22"/>
+      <c r="J68" s="22"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="22"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="22"/>
+      <c r="O68" s="22"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2607,21 +2656,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="20"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="20"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
+      <c r="A69" s="22"/>
+      <c r="B69" s="22"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+      <c r="J69" s="22"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="22"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="22"/>
+      <c r="O69" s="22"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -2636,21 +2685,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="20"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="20"/>
-      <c r="D70" s="20"/>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
+      <c r="A70" s="22"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="22"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="22"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="22"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="22"/>
+      <c r="M70" s="22"/>
+      <c r="N70" s="22"/>
+      <c r="O70" s="22"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -2665,21 +2714,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="20"/>
-      <c r="D71" s="20"/>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
+      <c r="A71" s="22"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="22"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="22"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="22"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="22"/>
+      <c r="M71" s="22"/>
+      <c r="N71" s="22"/>
+      <c r="O71" s="22"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -2694,21 +2743,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="20"/>
-      <c r="D72" s="20"/>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
+      <c r="A72" s="22"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="22"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="22"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="22"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="22"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="22"/>
+      <c r="O72" s="22"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -2723,21 +2772,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="20"/>
-      <c r="D73" s="20"/>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
+      <c r="A73" s="22"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="22"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="22"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="22"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="22"/>
+      <c r="O73" s="22"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -2752,21 +2801,21 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="20"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
+      <c r="A74" s="22"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="22"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -2837,43 +2886,43 @@
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="E76" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="M76" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="23" t="s">
         <v>13</v>
       </c>
       <c r="O76" s="4"/>
@@ -2892,43 +2941,43 @@
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="5"/>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E77" s="5" t="s">
+      <c r="E77" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="G77" s="5" t="s">
+      <c r="G77" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="8" t="s">
+      <c r="I77" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="5" t="s">
+      <c r="J77" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="L77" s="5" t="s">
+      <c r="L77" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="26" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="5"/>
@@ -4794,42 +4843,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C164F5-C5CF-4A29-88B2-42E9468C57B5}">
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection sqref="A1:V50"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
     <col min="13" max="13" width="6.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4838,28 +4889,28 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -4868,28 +4919,28 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -4898,28 +4949,28 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -4928,28 +4979,28 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="22"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -4958,28 +5009,28 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="22"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -4988,28 +5039,28 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="22"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -5018,28 +5069,28 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5048,28 +5099,28 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+      <c r="U9" s="22"/>
+      <c r="V9" s="22"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -5078,28 +5129,28 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="22"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -5108,28 +5159,28 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="22"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5138,28 +5189,28 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="22"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5168,28 +5219,28 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5198,28 +5249,28 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5228,28 +5279,28 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="22"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -5258,28 +5309,28 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="22"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -5288,28 +5339,28 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+      <c r="U17" s="22"/>
+      <c r="V17" s="22"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -5318,28 +5369,28 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+      <c r="U18" s="22"/>
+      <c r="V18" s="22"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -5348,28 +5399,28 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+      <c r="U19" s="22"/>
+      <c r="V19" s="22"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5378,28 +5429,28 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+      <c r="U20" s="22"/>
+      <c r="V20" s="22"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5408,28 +5459,28 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+      <c r="U21" s="22"/>
+      <c r="V21" s="22"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5438,28 +5489,28 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5468,28 +5519,28 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="20"/>
-      <c r="V23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5498,28 +5549,28 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5528,28 +5579,28 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -5558,28 +5609,28 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="22"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -5588,28 +5639,28 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="22"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -5618,28 +5669,28 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="22"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -5648,28 +5699,28 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="22"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -5678,28 +5729,28 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="22"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -5708,28 +5759,28 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="22"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -5738,28 +5789,28 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
+      <c r="V32" s="22"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -5768,28 +5819,28 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
+      <c r="V33" s="22"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -5798,28 +5849,28 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="22"/>
+      <c r="Q34" s="22"/>
+      <c r="R34" s="22"/>
+      <c r="S34" s="22"/>
+      <c r="T34" s="22"/>
+      <c r="U34" s="22"/>
+      <c r="V34" s="22"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -5828,28 +5879,28 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="22"/>
+      <c r="Q35" s="22"/>
+      <c r="R35" s="22"/>
+      <c r="S35" s="22"/>
+      <c r="T35" s="22"/>
+      <c r="U35" s="22"/>
+      <c r="V35" s="22"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -5858,28 +5909,28 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="22"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -5888,28 +5939,28 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="22"/>
+      <c r="Q37" s="22"/>
+      <c r="R37" s="22"/>
+      <c r="S37" s="22"/>
+      <c r="T37" s="22"/>
+      <c r="U37" s="22"/>
+      <c r="V37" s="22"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -5918,28 +5969,28 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="22"/>
+      <c r="Q38" s="22"/>
+      <c r="R38" s="22"/>
+      <c r="S38" s="22"/>
+      <c r="T38" s="22"/>
+      <c r="U38" s="22"/>
+      <c r="V38" s="22"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -5948,28 +5999,28 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="22"/>
+      <c r="Q39" s="22"/>
+      <c r="R39" s="22"/>
+      <c r="S39" s="22"/>
+      <c r="T39" s="22"/>
+      <c r="U39" s="22"/>
+      <c r="V39" s="22"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -5978,28 +6029,28 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
+      <c r="O40" s="22"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="22"/>
+      <c r="S40" s="22"/>
+      <c r="T40" s="22"/>
+      <c r="U40" s="22"/>
+      <c r="V40" s="22"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6008,28 +6059,28 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="22"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="22"/>
+      <c r="S41" s="22"/>
+      <c r="T41" s="22"/>
+      <c r="U41" s="22"/>
+      <c r="V41" s="22"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6038,28 +6089,28 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -6068,28 +6119,28 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -6098,28 +6149,28 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="22"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="22"/>
+      <c r="P44" s="22"/>
+      <c r="Q44" s="22"/>
+      <c r="R44" s="22"/>
+      <c r="S44" s="22"/>
+      <c r="T44" s="22"/>
+      <c r="U44" s="22"/>
+      <c r="V44" s="22"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6128,28 +6179,28 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="22"/>
+      <c r="S45" s="22"/>
+      <c r="T45" s="22"/>
+      <c r="U45" s="22"/>
+      <c r="V45" s="22"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -6158,28 +6209,28 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="22"/>
+      <c r="Q46" s="22"/>
+      <c r="R46" s="22"/>
+      <c r="S46" s="22"/>
+      <c r="T46" s="22"/>
+      <c r="U46" s="22"/>
+      <c r="V46" s="22"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -6188,28 +6239,28 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="22"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="22"/>
+      <c r="Q47" s="22"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="22"/>
+      <c r="T47" s="22"/>
+      <c r="U47" s="22"/>
+      <c r="V47" s="22"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -6218,28 +6269,28 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="22"/>
+      <c r="N48" s="22"/>
+      <c r="O48" s="22"/>
+      <c r="P48" s="22"/>
+      <c r="Q48" s="22"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="22"/>
+      <c r="T48" s="22"/>
+      <c r="U48" s="22"/>
+      <c r="V48" s="22"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -6248,28 +6299,28 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
+      <c r="V49" s="22"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -6278,28 +6329,28 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
+      <c r="V50" s="22"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -6413,43 +6464,43 @@
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A53" s="11"/>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="5" t="s">
+      <c r="E53" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="5" t="s">
+      <c r="G53" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="8" t="s">
+      <c r="I53" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="5" t="s">
+      <c r="J53" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="5" t="s">
+      <c r="K53" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="5" t="s">
+      <c r="L53" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="5" t="s">
+      <c r="M53" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="5" t="s">
+      <c r="N53" s="20" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="11"/>
@@ -7566,642 +7617,642 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="22"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22"/>
+      <c r="I36" s="22"/>
+      <c r="J36" s="22"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="22"/>
+      <c r="J37" s="22"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="22"/>
+      <c r="J38" s="22"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="22"/>
+      <c r="J39" s="22"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="22"/>
+      <c r="J40" s="22"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="22"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="22"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="22"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -8876,582 +8927,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="20"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="20"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="20"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="20"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="20"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20"/>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="20"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7DEE533-2682-4776-AD52-FD89510112DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5139A-6674-43FC-ACFA-BBF14010F6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
@@ -36,8 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -45,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
   <si>
     <t>A3_Portrait</t>
   </si>
@@ -167,12 +165,54 @@
     <t>relative
 humidity</t>
   </si>
+  <si>
+    <t>Temp.
+DryBulb</t>
+  </si>
+  <si>
+    <t>Humidity
+ratio</t>
+  </si>
+  <si>
+    <t>Relative
+humidity</t>
+  </si>
+  <si>
+    <t>Temp.
+WetBulb</t>
+  </si>
+  <si>
+    <t>Enthalpy</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Pressure
+atmospheric</t>
+  </si>
+  <si>
+    <t>Specific
+volume</t>
+  </si>
+  <si>
+    <t>Process name</t>
+  </si>
+  <si>
+    <t>x [g/kg]</t>
+  </si>
+  <si>
+    <t>t [°C]</t>
+  </si>
+  <si>
+    <t>φ [%]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,6 +293,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="7"/>
+      <color rgb="FF080808"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -283,7 +344,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -360,13 +421,30 @@
     <xf numFmtId="2" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -384,6 +462,547 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>358588</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="404663" cy="183127"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48D8600-EF7F-4120-AC24-905080617CD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3146612" y="13554635"/>
+              <a:ext cx="404663" cy="183127"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> [</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>℃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48D8600-EF7F-4120-AC24-905080617CD0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3146612" y="13554635"/>
+              <a:ext cx="404663" cy="183127"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡_𝑓  [</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>℃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>117662</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>365685</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="445315" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45735D89-9C2E-44A0-B032-FE3D128B7FC3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1336862" y="13916585"/>
+              <a:ext cx="445315" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub/>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> [</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>℃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45735D89-9C2E-44A0-B032-FE3D128B7FC3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1336862" y="13916585"/>
+              <a:ext cx="445315" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡_  [</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>℃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>125063</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>793</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="404663" cy="183127"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E816E-E776-4A55-919A-3E624CABEC00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3173063" y="9449593"/>
+              <a:ext cx="404663" cy="183127"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <m:sSub>
+                      <m:sSubPr>
+                        <m:ctrlPr>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                        </m:ctrlPr>
+                      </m:sSubPr>
+                      <m:e>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑡</m:t>
+                        </m:r>
+                      </m:e>
+                      <m:sub>
+                        <m:r>
+                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          </a:rPr>
+                          <m:t>𝑓</m:t>
+                        </m:r>
+                      </m:sub>
+                    </m:sSub>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t> [</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>℃</m:t>
+                    </m:r>
+                    <m:r>
+                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <m:t>]</m:t>
+                    </m:r>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E816E-E776-4A55-919A-3E624CABEC00}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3173063" y="9449593"/>
+              <a:ext cx="404663" cy="183127"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡_𝑓  [</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>℃</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>]</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -683,10 +1302,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F9135E-1C3B-4B75-8739-436391A26F14}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A61" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77:N77"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A69" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="K83" sqref="K83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -698,23 +1318,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -729,21 +1349,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -758,21 +1378,21 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -787,21 +1407,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -816,21 +1436,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -845,21 +1465,21 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -874,21 +1494,21 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -903,21 +1523,21 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -932,21 +1552,21 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -961,21 +1581,21 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -990,21 +1610,21 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1019,21 +1639,21 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1048,21 +1668,21 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1077,21 +1697,21 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1106,21 +1726,21 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1135,21 +1755,21 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1164,21 +1784,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1193,21 +1813,21 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1222,21 +1842,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1251,21 +1871,21 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1280,21 +1900,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1309,21 +1929,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1338,21 +1958,21 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1367,21 +1987,21 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1396,21 +2016,21 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1425,21 +2045,21 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1454,21 +2074,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1483,21 +2103,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1512,21 +2132,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1541,21 +2161,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1570,21 +2190,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1599,21 +2219,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1628,21 +2248,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1657,21 +2277,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -1686,21 +2306,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -1715,21 +2335,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -1744,21 +2364,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -1773,21 +2393,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -1802,21 +2422,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -1831,21 +2451,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -1860,21 +2480,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -1889,21 +2509,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -1918,21 +2538,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -1947,21 +2567,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -1976,21 +2596,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2005,21 +2625,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2034,21 +2654,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2063,21 +2683,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2092,21 +2712,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2121,21 +2741,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2150,21 +2770,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26"/>
-      <c r="E51" s="26"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="26"/>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="26"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
+      <c r="A51" s="35"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="35"/>
+      <c r="D51" s="35"/>
+      <c r="E51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
+      <c r="N51" s="35"/>
+      <c r="O51" s="35"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2179,21 +2799,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="26"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
+      <c r="A52" s="35"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="35"/>
+      <c r="D52" s="35"/>
+      <c r="E52" s="35"/>
+      <c r="F52" s="35"/>
+      <c r="G52" s="35"/>
+      <c r="H52" s="35"/>
+      <c r="I52" s="35"/>
+      <c r="J52" s="35"/>
+      <c r="K52" s="35"/>
+      <c r="L52" s="35"/>
+      <c r="M52" s="35"/>
+      <c r="N52" s="35"/>
+      <c r="O52" s="35"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2208,21 +2828,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="26"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="26"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="26"/>
+      <c r="A53" s="35"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="35"/>
+      <c r="D53" s="35"/>
+      <c r="E53" s="35"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="35"/>
+      <c r="H53" s="35"/>
+      <c r="I53" s="35"/>
+      <c r="J53" s="35"/>
+      <c r="K53" s="35"/>
+      <c r="L53" s="35"/>
+      <c r="M53" s="35"/>
+      <c r="N53" s="35"/>
+      <c r="O53" s="35"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2237,21 +2857,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="26"/>
-      <c r="E54" s="26"/>
-      <c r="F54" s="26"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="26"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="26"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="26"/>
-      <c r="O54" s="26"/>
+      <c r="A54" s="35"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="35"/>
+      <c r="D54" s="35"/>
+      <c r="E54" s="35"/>
+      <c r="F54" s="35"/>
+      <c r="G54" s="35"/>
+      <c r="H54" s="35"/>
+      <c r="I54" s="35"/>
+      <c r="J54" s="35"/>
+      <c r="K54" s="35"/>
+      <c r="L54" s="35"/>
+      <c r="M54" s="35"/>
+      <c r="N54" s="35"/>
+      <c r="O54" s="35"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2266,21 +2886,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="26"/>
-      <c r="B55" s="26"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="26"/>
-      <c r="E55" s="26"/>
-      <c r="F55" s="26"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="26"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="26"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="26"/>
+      <c r="A55" s="35"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="35"/>
+      <c r="D55" s="35"/>
+      <c r="E55" s="35"/>
+      <c r="F55" s="35"/>
+      <c r="G55" s="35"/>
+      <c r="H55" s="35"/>
+      <c r="I55" s="35"/>
+      <c r="J55" s="35"/>
+      <c r="K55" s="35"/>
+      <c r="L55" s="35"/>
+      <c r="M55" s="35"/>
+      <c r="N55" s="35"/>
+      <c r="O55" s="35"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2295,21 +2915,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="26"/>
-      <c r="B56" s="26"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="26"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="26"/>
-      <c r="M56" s="26"/>
-      <c r="N56" s="26"/>
-      <c r="O56" s="26"/>
+      <c r="A56" s="35"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="35"/>
+      <c r="D56" s="35"/>
+      <c r="E56" s="35"/>
+      <c r="F56" s="35"/>
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+      <c r="K56" s="35"/>
+      <c r="L56" s="35"/>
+      <c r="M56" s="35"/>
+      <c r="N56" s="35"/>
+      <c r="O56" s="35"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2324,21 +2944,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="26"/>
-      <c r="B57" s="26"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="26"/>
-      <c r="O57" s="26"/>
+      <c r="A57" s="35"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="35"/>
+      <c r="D57" s="35"/>
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="35"/>
+      <c r="N57" s="35"/>
+      <c r="O57" s="35"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2353,21 +2973,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="26"/>
-      <c r="B58" s="26"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="26"/>
-      <c r="E58" s="26"/>
-      <c r="F58" s="26"/>
-      <c r="G58" s="26"/>
-      <c r="H58" s="26"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="26"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="26"/>
-      <c r="O58" s="26"/>
+      <c r="A58" s="35"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="35"/>
+      <c r="N58" s="35"/>
+      <c r="O58" s="35"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2382,21 +3002,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="26"/>
-      <c r="B59" s="26"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="26"/>
-      <c r="E59" s="26"/>
-      <c r="F59" s="26"/>
-      <c r="G59" s="26"/>
-      <c r="H59" s="26"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="26"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="26"/>
-      <c r="O59" s="26"/>
+      <c r="A59" s="35"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="35"/>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2411,21 +3031,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="26"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-      <c r="O60" s="26"/>
+      <c r="A60" s="35"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="35"/>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35"/>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2440,21 +3060,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="26"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="26"/>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
+      <c r="A61" s="35"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="35"/>
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2469,21 +3089,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="26"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
+      <c r="A62" s="35"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="35"/>
+      <c r="D62" s="35"/>
+      <c r="E62" s="35"/>
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" s="35"/>
+      <c r="K62" s="35"/>
+      <c r="L62" s="35"/>
+      <c r="M62" s="35"/>
+      <c r="N62" s="35"/>
+      <c r="O62" s="35"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2498,21 +3118,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="26"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="26"/>
-      <c r="E63" s="26"/>
-      <c r="F63" s="26"/>
-      <c r="G63" s="26"/>
-      <c r="H63" s="26"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="26"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="26"/>
-      <c r="O63" s="26"/>
+      <c r="A63" s="35"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="35"/>
+      <c r="D63" s="35"/>
+      <c r="E63" s="35"/>
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" s="35"/>
+      <c r="K63" s="35"/>
+      <c r="L63" s="35"/>
+      <c r="M63" s="35"/>
+      <c r="N63" s="35"/>
+      <c r="O63" s="35"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2527,21 +3147,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="26"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="26"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="26"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="26"/>
-      <c r="O64" s="26"/>
+      <c r="A64" s="35"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="35"/>
+      <c r="D64" s="35"/>
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="35"/>
+      <c r="K64" s="35"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2556,21 +3176,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="26"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="26"/>
-      <c r="E65" s="26"/>
-      <c r="F65" s="26"/>
-      <c r="G65" s="26"/>
-      <c r="H65" s="26"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="26"/>
-      <c r="M65" s="26"/>
-      <c r="N65" s="26"/>
-      <c r="O65" s="26"/>
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35"/>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2585,21 +3205,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="26"/>
-      <c r="E66" s="26"/>
-      <c r="F66" s="26"/>
-      <c r="G66" s="26"/>
-      <c r="H66" s="26"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="26"/>
-      <c r="N66" s="26"/>
-      <c r="O66" s="26"/>
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" s="35"/>
+      <c r="K66" s="35"/>
+      <c r="L66" s="35"/>
+      <c r="M66" s="35"/>
+      <c r="N66" s="35"/>
+      <c r="O66" s="35"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2614,21 +3234,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="26"/>
-      <c r="B67" s="26"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="26"/>
-      <c r="E67" s="26"/>
-      <c r="F67" s="26"/>
-      <c r="G67" s="26"/>
-      <c r="H67" s="26"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="26"/>
-      <c r="O67" s="26"/>
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2643,21 +3263,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="26"/>
-      <c r="B68" s="26"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="26"/>
-      <c r="E68" s="26"/>
-      <c r="F68" s="26"/>
-      <c r="G68" s="26"/>
-      <c r="H68" s="26"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="26"/>
-      <c r="O68" s="26"/>
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2672,21 +3292,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="26"/>
-      <c r="B69" s="26"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="26"/>
-      <c r="E69" s="26"/>
-      <c r="F69" s="26"/>
-      <c r="G69" s="26"/>
-      <c r="H69" s="26"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="26"/>
-      <c r="O69" s="26"/>
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="35"/>
+      <c r="N69" s="35"/>
+      <c r="O69" s="35"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -2701,21 +3321,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="26"/>
-      <c r="B70" s="26"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="26"/>
-      <c r="E70" s="26"/>
-      <c r="F70" s="26"/>
-      <c r="G70" s="26"/>
-      <c r="H70" s="26"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="26"/>
-      <c r="N70" s="26"/>
-      <c r="O70" s="26"/>
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="35"/>
+      <c r="N70" s="35"/>
+      <c r="O70" s="35"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -2730,21 +3350,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="26"/>
-      <c r="B71" s="26"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="26"/>
-      <c r="G71" s="26"/>
-      <c r="H71" s="26"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="26"/>
-      <c r="M71" s="26"/>
-      <c r="N71" s="26"/>
-      <c r="O71" s="26"/>
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
+      <c r="I71" s="35"/>
+      <c r="J71" s="35"/>
+      <c r="K71" s="35"/>
+      <c r="L71" s="35"/>
+      <c r="M71" s="35"/>
+      <c r="N71" s="35"/>
+      <c r="O71" s="35"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -2759,21 +3379,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="26"/>
-      <c r="B72" s="26"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="26"/>
-      <c r="E72" s="26"/>
-      <c r="F72" s="26"/>
-      <c r="G72" s="26"/>
-      <c r="H72" s="26"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="26"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="26"/>
-      <c r="O72" s="26"/>
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="35"/>
+      <c r="K72" s="35"/>
+      <c r="L72" s="35"/>
+      <c r="M72" s="35"/>
+      <c r="N72" s="35"/>
+      <c r="O72" s="35"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -2788,21 +3408,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="26"/>
-      <c r="B73" s="26"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="26"/>
-      <c r="E73" s="26"/>
-      <c r="F73" s="26"/>
-      <c r="G73" s="26"/>
-      <c r="H73" s="26"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="26"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="26"/>
-      <c r="O73" s="26"/>
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35"/>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -2817,21 +3437,21 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="26"/>
-      <c r="B74" s="26"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="26"/>
-      <c r="E74" s="26"/>
-      <c r="F74" s="26"/>
-      <c r="G74" s="26"/>
-      <c r="H74" s="26"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="26"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="26"/>
-      <c r="O74" s="26"/>
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
+      <c r="I74" s="35"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="35"/>
+      <c r="L74" s="35"/>
+      <c r="M74" s="35"/>
+      <c r="N74" s="35"/>
+      <c r="O74" s="35"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -2905,18 +3525,14 @@
       <c r="B76" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="C76" s="20"/>
       <c r="D76" s="20" t="s">
         <v>11</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="20" t="s">
-        <v>10</v>
-      </c>
+      <c r="F76" s="20"/>
       <c r="G76" s="20" t="s">
         <v>13</v>
       </c>
@@ -2990,10 +3606,10 @@
       <c r="L77" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M77" s="27" t="s">
+      <c r="M77" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="28" t="s">
+      <c r="N77" s="27" t="s">
         <v>32</v>
       </c>
       <c r="O77" s="5"/>
@@ -3044,7 +3660,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="E79" s="34"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -3074,7 +3690,6 @@
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
       <c r="I80" s="8"/>
@@ -4852,15 +5467,17 @@
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1C164F5-C5CF-4A29-88B2-42E9468C57B5}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53:N53"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4873,30 +5490,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -4905,28 +5522,28 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -4935,28 +5552,28 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="35"/>
+      <c r="R3" s="35"/>
+      <c r="S3" s="35"/>
+      <c r="T3" s="35"/>
+      <c r="U3" s="35"/>
+      <c r="V3" s="35"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -4965,28 +5582,28 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="35"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -4995,28 +5612,28 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="26"/>
-      <c r="V5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
+      <c r="Q5" s="35"/>
+      <c r="R5" s="35"/>
+      <c r="S5" s="35"/>
+      <c r="T5" s="35"/>
+      <c r="U5" s="35"/>
+      <c r="V5" s="35"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -5025,28 +5642,28 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="26"/>
-      <c r="S6" s="26"/>
-      <c r="T6" s="26"/>
-      <c r="U6" s="26"/>
-      <c r="V6" s="26"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -5055,28 +5672,28 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
-      <c r="Q7" s="26"/>
-      <c r="R7" s="26"/>
-      <c r="S7" s="26"/>
-      <c r="T7" s="26"/>
-      <c r="U7" s="26"/>
-      <c r="V7" s="26"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -5085,28 +5702,28 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5115,28 +5732,28 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="26"/>
-      <c r="V9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+      <c r="V9" s="35"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -5145,28 +5762,28 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="26"/>
-      <c r="V10" s="26"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+      <c r="V10" s="35"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -5175,28 +5792,28 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="26"/>
-      <c r="U11" s="26"/>
-      <c r="V11" s="26"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+      <c r="V11" s="35"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5205,28 +5822,28 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
-      <c r="V12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="35"/>
+      <c r="T12" s="35"/>
+      <c r="U12" s="35"/>
+      <c r="V12" s="35"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5235,28 +5852,28 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
-      <c r="V13" s="26"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5265,28 +5882,28 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="26"/>
-      <c r="U14" s="26"/>
-      <c r="V14" s="26"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5295,28 +5912,28 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="26"/>
-      <c r="U15" s="26"/>
-      <c r="V15" s="26"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -5325,28 +5942,28 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="26"/>
-      <c r="U16" s="26"/>
-      <c r="V16" s="26"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="35"/>
+      <c r="T16" s="35"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="35"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -5355,28 +5972,28 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -5385,28 +6002,28 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="26"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="26"/>
-      <c r="V18" s="26"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -5415,28 +6032,28 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="26"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="26"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="26"/>
-      <c r="V19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5445,28 +6062,28 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="26"/>
-      <c r="S20" s="26"/>
-      <c r="T20" s="26"/>
-      <c r="U20" s="26"/>
-      <c r="V20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5475,28 +6092,28 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="26"/>
-      <c r="U21" s="26"/>
-      <c r="V21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5505,28 +6122,28 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="26"/>
-      <c r="V22" s="26"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5535,28 +6152,28 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="26"/>
-      <c r="U23" s="26"/>
-      <c r="V23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5565,28 +6182,28 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="26"/>
-      <c r="V24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5595,28 +6212,28 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="26"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="26"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="26"/>
-      <c r="V25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -5625,28 +6242,28 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
-      <c r="Q26" s="26"/>
-      <c r="R26" s="26"/>
-      <c r="S26" s="26"/>
-      <c r="T26" s="26"/>
-      <c r="U26" s="26"/>
-      <c r="V26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -5655,28 +6272,28 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
-      <c r="Q27" s="26"/>
-      <c r="R27" s="26"/>
-      <c r="S27" s="26"/>
-      <c r="T27" s="26"/>
-      <c r="U27" s="26"/>
-      <c r="V27" s="26"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -5685,28 +6302,28 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="26"/>
-      <c r="V28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -5715,28 +6332,28 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="26"/>
-      <c r="U29" s="26"/>
-      <c r="V29" s="26"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -5745,28 +6362,28 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="26"/>
-      <c r="U30" s="26"/>
-      <c r="V30" s="26"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -5775,28 +6392,28 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="26"/>
-      <c r="U31" s="26"/>
-      <c r="V31" s="26"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
+      <c r="Q31" s="35"/>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -5805,28 +6422,28 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
-      <c r="Q32" s="26"/>
-      <c r="R32" s="26"/>
-      <c r="S32" s="26"/>
-      <c r="T32" s="26"/>
-      <c r="U32" s="26"/>
-      <c r="V32" s="26"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
+      <c r="Q32" s="35"/>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -5835,28 +6452,28 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="26"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
+      <c r="P33" s="35"/>
+      <c r="Q33" s="35"/>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -5865,28 +6482,28 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="26"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="26"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="35"/>
+      <c r="L34" s="35"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="35"/>
+      <c r="P34" s="35"/>
+      <c r="Q34" s="35"/>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -5895,28 +6512,28 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="26"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="26"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -5925,28 +6542,28 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="26"/>
-      <c r="M36" s="26"/>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="26"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="35"/>
+      <c r="L36" s="35"/>
+      <c r="M36" s="35"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="35"/>
+      <c r="P36" s="35"/>
+      <c r="Q36" s="35"/>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -5955,28 +6572,28 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="26"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="26"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="P37" s="35"/>
+      <c r="Q37" s="35"/>
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -5985,28 +6602,28 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="26"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="26"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="35"/>
+      <c r="L38" s="35"/>
+      <c r="M38" s="35"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="35"/>
+      <c r="P38" s="35"/>
+      <c r="Q38" s="35"/>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -6015,28 +6632,28 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="26"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="26"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="26"/>
-      <c r="Q39" s="26"/>
-      <c r="R39" s="26"/>
-      <c r="S39" s="26"/>
-      <c r="T39" s="26"/>
-      <c r="U39" s="26"/>
-      <c r="V39" s="26"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="35"/>
+      <c r="L39" s="35"/>
+      <c r="M39" s="35"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="35"/>
+      <c r="P39" s="35"/>
+      <c r="Q39" s="35"/>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -6045,28 +6662,28 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
-      <c r="K40" s="26"/>
-      <c r="L40" s="26"/>
-      <c r="M40" s="26"/>
-      <c r="N40" s="26"/>
-      <c r="O40" s="26"/>
-      <c r="P40" s="26"/>
-      <c r="Q40" s="26"/>
-      <c r="R40" s="26"/>
-      <c r="S40" s="26"/>
-      <c r="T40" s="26"/>
-      <c r="U40" s="26"/>
-      <c r="V40" s="26"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="35"/>
+      <c r="L40" s="35"/>
+      <c r="M40" s="35"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="35"/>
+      <c r="P40" s="35"/>
+      <c r="Q40" s="35"/>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6075,28 +6692,28 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="26"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-      <c r="V41" s="26"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="35"/>
+      <c r="L41" s="35"/>
+      <c r="M41" s="35"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="35"/>
+      <c r="P41" s="35"/>
+      <c r="Q41" s="35"/>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6105,28 +6722,28 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="26"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-      <c r="V42" s="26"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -6135,28 +6752,28 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="26"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="26"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="26"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="26"/>
-      <c r="S43" s="26"/>
-      <c r="T43" s="26"/>
-      <c r="U43" s="26"/>
-      <c r="V43" s="26"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35"/>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -6165,28 +6782,28 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="26"/>
-      <c r="M44" s="26"/>
-      <c r="N44" s="26"/>
-      <c r="O44" s="26"/>
-      <c r="P44" s="26"/>
-      <c r="Q44" s="26"/>
-      <c r="R44" s="26"/>
-      <c r="S44" s="26"/>
-      <c r="T44" s="26"/>
-      <c r="U44" s="26"/>
-      <c r="V44" s="26"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="35"/>
+      <c r="L44" s="35"/>
+      <c r="M44" s="35"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="35"/>
+      <c r="P44" s="35"/>
+      <c r="Q44" s="35"/>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6195,28 +6812,28 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="26"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-      <c r="V45" s="26"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="35"/>
+      <c r="L45" s="35"/>
+      <c r="M45" s="35"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="35"/>
+      <c r="P45" s="35"/>
+      <c r="Q45" s="35"/>
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -6225,28 +6842,28 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="26"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-      <c r="V46" s="26"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="35"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="35"/>
+      <c r="P46" s="35"/>
+      <c r="Q46" s="35"/>
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -6255,28 +6872,28 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="26"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="26"/>
-      <c r="Q47" s="26"/>
-      <c r="R47" s="26"/>
-      <c r="S47" s="26"/>
-      <c r="T47" s="26"/>
-      <c r="U47" s="26"/>
-      <c r="V47" s="26"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -6285,28 +6902,28 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="26"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-      <c r="V48" s="26"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="35"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="35"/>
+      <c r="P48" s="35"/>
+      <c r="Q48" s="35"/>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -6315,28 +6932,28 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="26"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-      <c r="V49" s="26"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="35"/>
+      <c r="P49" s="35"/>
+      <c r="Q49" s="35"/>
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -6345,28 +6962,28 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="26"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="26"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="26"/>
-      <c r="Q50" s="26"/>
-      <c r="R50" s="26"/>
-      <c r="S50" s="26"/>
-      <c r="T50" s="26"/>
-      <c r="U50" s="26"/>
-      <c r="V50" s="26"/>
+      <c r="A50" s="35"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="35"/>
+      <c r="D50" s="35"/>
+      <c r="E50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="35"/>
+      <c r="P50" s="35"/>
+      <c r="Q50" s="35"/>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -6380,31 +6997,31 @@
         <v>1</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="K51" s="2" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="L51" s="2" t="s">
         <v>34</v>
@@ -6428,43 +7045,41 @@
     </row>
     <row r="52" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="H52" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J52" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="L52" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="M52" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K52" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="28" t="s">
         <v>13</v>
       </c>
       <c r="S52" s="4"/>
@@ -6513,10 +7128,10 @@
       <c r="L53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="27" t="s">
+      <c r="M53" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="28" t="s">
+      <c r="N53" s="27" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="11"/>
@@ -6545,7 +7160,7 @@
       <c r="L54" s="11"/>
       <c r="M54" s="12"/>
       <c r="N54" s="11"/>
-      <c r="O54" s="11"/>
+      <c r="O54" s="30"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
@@ -6591,9 +7206,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="12"/>
+      <c r="M56" s="32"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="11"/>
+      <c r="O56" s="31"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -7619,11 +8234,13 @@
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4CF21E-DA85-4FCB-8DF0-21787D9AFDE3}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:K98"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A43" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -7633,642 +8250,642 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="35"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="35"/>
+      <c r="I34" s="35"/>
+      <c r="J34" s="35"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="35"/>
+      <c r="E36" s="35"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="35"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="35"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="26"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
-      <c r="G37" s="26"/>
-      <c r="H37" s="26"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="A37" s="35"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="35"/>
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="26"/>
-      <c r="G38" s="26"/>
-      <c r="H38" s="26"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="26"/>
-      <c r="H39" s="26"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="35"/>
+      <c r="E39" s="35"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="35"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="26"/>
-      <c r="G40" s="26"/>
-      <c r="H40" s="26"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="35"/>
+      <c r="E40" s="35"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" s="35"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="26"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="35"/>
+      <c r="E41" s="35"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" s="35"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="26"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
+      <c r="A42" s="35"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="35"/>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="35"/>
+      <c r="H44" s="35"/>
+      <c r="I44" s="35"/>
+      <c r="J44" s="35"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="35"/>
+      <c r="H45" s="35"/>
+      <c r="I45" s="35"/>
+      <c r="J45" s="35"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="A47" s="35"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="A48" s="35"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="A49" s="35"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="35"/>
+      <c r="D49" s="35"/>
+      <c r="E49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -8928,7 +9545,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9ED77F92-88EE-452A-8A81-3A86C076D963}">
-  <sheetPr>
+  <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:P66"/>
@@ -8943,582 +9560,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
+      <c r="M3" s="35"/>
+      <c r="N3" s="35"/>
+      <c r="O3" s="35"/>
+      <c r="P3" s="35"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="26"/>
+      <c r="A4" s="35"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
+      <c r="P4" s="35"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="26"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
+      <c r="M5" s="35"/>
+      <c r="N5" s="35"/>
+      <c r="O5" s="35"/>
+      <c r="P5" s="35"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="26"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="35"/>
+      <c r="I6" s="35"/>
+      <c r="J6" s="35"/>
+      <c r="K6" s="35"/>
+      <c r="L6" s="35"/>
+      <c r="M6" s="35"/>
+      <c r="N6" s="35"/>
+      <c r="O6" s="35"/>
+      <c r="P6" s="35"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="26"/>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="26"/>
-      <c r="N7" s="26"/>
-      <c r="O7" s="26"/>
-      <c r="P7" s="26"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="35"/>
+      <c r="L7" s="35"/>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="26"/>
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="35"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="35"/>
+      <c r="P9" s="35"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="26"/>
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="26"/>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="26"/>
-      <c r="O11" s="26"/>
-      <c r="P11" s="26"/>
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35"/>
+      <c r="N11" s="35"/>
+      <c r="O11" s="35"/>
+      <c r="P11" s="35"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
-      <c r="B13" s="26"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="26"/>
+      <c r="A13" s="35"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="26"/>
-      <c r="B14" s="26"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="26"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
+      <c r="A14" s="35"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="26"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="26"/>
-      <c r="O15" s="26"/>
-      <c r="P15" s="26"/>
+      <c r="A15" s="35"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="26"/>
+      <c r="A16" s="35"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="35"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="26"/>
+      <c r="A17" s="35"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="26"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="26"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="26"/>
-      <c r="P19" s="26"/>
+      <c r="A19" s="35"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="26"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="26"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="26"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="26"/>
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="26"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="26"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="35"/>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="26"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="26"/>
-      <c r="M23" s="26"/>
-      <c r="N23" s="26"/>
-      <c r="O23" s="26"/>
-      <c r="P23" s="26"/>
+      <c r="A23" s="35"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="26"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="26"/>
+      <c r="A25" s="35"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="26"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="26"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="26"/>
+      <c r="A26" s="35"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="26"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="26"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="26"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="26"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="35"/>
+      <c r="P27" s="35"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="26"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="26"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="26"/>
-      <c r="P28" s="26"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="26"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="26"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="26"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="35"/>
+      <c r="I29" s="35"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="26"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="26"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="26"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="35"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="35"/>
+      <c r="P30" s="35"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="26"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="26"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="26"/>
+      <c r="A31" s="35"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="35"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
+      <c r="P31" s="35"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="26"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="26"/>
-      <c r="M32" s="26"/>
-      <c r="N32" s="26"/>
-      <c r="O32" s="26"/>
-      <c r="P32" s="26"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="35"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="35"/>
+      <c r="I32" s="35"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="35"/>
+      <c r="P32" s="35"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BB5139A-6674-43FC-ACFA-BBF14010F6B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654291B3-2DD0-42E4-8195-F512F7FDCFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
   <sheets>
     <sheet name="A3_Portrait" sheetId="1" r:id="rId1"/>
@@ -653,8 +653,8 @@
       <xdr:rowOff>365685</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="445315" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -748,7 +748,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2">
@@ -1305,8 +1305,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A69" zoomScale="120" zoomScaleNormal="100" zoomScaleSheetLayoutView="120" workbookViewId="0">
-      <selection activeCell="K83" sqref="K83"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5476,7 +5476,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654291B3-2DD0-42E4-8195-F512F7FDCFAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949C0C4-8241-4ABA-A39F-3DDA8325AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>A3_Portrait</t>
   </si>
@@ -207,12 +207,69 @@
   <si>
     <t>φ [%]</t>
   </si>
+  <si>
+    <t>temp
+Dew</t>
+  </si>
+  <si>
+    <t>[SaturationTemperature]</t>
+  </si>
+  <si>
+    <r>
+      <t>t_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tao</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [°C]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>t_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [°C]</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +370,13 @@
       <color rgb="FF080808"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -468,185 +532,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>98612</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>358588</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="404663" cy="183127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48D8600-EF7F-4120-AC24-905080617CD0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3146612" y="13554635"/>
-              <a:ext cx="404663" cy="183127"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> [</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>℃</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F48D8600-EF7F-4120-AC24-905080617CD0}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3146612" y="13554635"/>
-              <a:ext cx="404663" cy="183127"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡_𝑓  [</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>℃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>117662</xdr:colOff>
       <xdr:row>74</xdr:row>
@@ -796,190 +681,6 @@
                   <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
                 <a:t>𝑡_  [</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>℃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>125063</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>793</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="404663" cy="183127"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E816E-E776-4A55-919A-3E624CABEC00}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3173063" y="9449593"/>
-              <a:ext cx="404663" cy="183127"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑓</m:t>
-                        </m:r>
-                      </m:sub>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> [</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>℃</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D03E816E-E776-4A55-919A-3E624CABEC00}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3173063" y="9449593"/>
-              <a:ext cx="404663" cy="183127"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡_𝑓  [</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="en-US" sz="1100" b="0" i="0">
@@ -1305,8 +1006,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A73" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3482,31 +3183,33 @@
       <c r="F75" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H75" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="I75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="N75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N75" s="7" t="s">
+      <c r="O75" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="O75" s="4"/>
       <c r="P75" s="1"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="1"/>
@@ -3532,32 +3235,36 @@
       <c r="E76" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20" t="s">
+      <c r="F76" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G76" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="H76" s="21" t="s">
+      <c r="I76" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I76" s="20" t="s">
+      <c r="J76" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="J76" s="21" t="s">
+      <c r="K76" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K76" s="22" t="s">
+      <c r="L76" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="L76" s="20" t="s">
+      <c r="M76" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="20" t="s">
+      <c r="N76" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="N76" s="20" t="s">
+      <c r="O76" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O76" s="4"/>
       <c r="P76" s="1"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="1"/>
@@ -3589,30 +3296,32 @@
         <v>21</v>
       </c>
       <c r="G77" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H77" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H77" s="23" t="s">
+      <c r="I77" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I77" s="24" t="s">
+      <c r="J77" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J77" s="23" t="s">
+      <c r="K77" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K77" s="23" t="s">
+      <c r="L77" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L77" s="25" t="s">
+      <c r="M77" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M77" s="26" t="s">
+      <c r="N77" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N77" s="27" t="s">
+      <c r="O77" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="O77" s="5"/>
       <c r="P77" s="1"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="1"/>
@@ -5476,8 +5185,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A46" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6991,7 +6700,7 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="B51" s="2" t="s">
         <v>1</v>
@@ -7008,28 +6717,31 @@
       <c r="F51" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="I51" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="N51" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N51" s="7" t="s">
+      <c r="O51" s="7" t="s">
         <v>36</v>
       </c>
       <c r="S51" s="4"/>
@@ -7057,29 +6769,34 @@
       <c r="E52" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="28"/>
+      <c r="F52" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="G52" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H52" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H52" s="29" t="s">
+      <c r="I52" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="I52" s="28" t="s">
+      <c r="J52" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="J52" s="29" t="s">
+      <c r="K52" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="K52" s="29" t="s">
+      <c r="L52" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="28" t="s">
+      <c r="M52" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="M52" s="28" t="s">
+      <c r="N52" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="N52" s="28" t="s">
+      <c r="O52" s="28" t="s">
         <v>13</v>
       </c>
       <c r="S52" s="4"/>
@@ -7111,27 +6828,30 @@
         <v>21</v>
       </c>
       <c r="G53" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="H53" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="I53" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="I53" s="24" t="s">
+      <c r="J53" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="J53" s="23" t="s">
+      <c r="K53" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="23" t="s">
+      <c r="L53" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="L53" s="25" t="s">
+      <c r="M53" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="M53" s="26" t="s">
+      <c r="N53" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="N53" s="27" t="s">
+      <c r="O53" s="27" t="s">
         <v>32</v>
       </c>
       <c r="S53" s="11"/>
@@ -8234,7 +7954,6 @@
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0949C0C4-8241-4ABA-A39F-3DDA8325AF61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B530D94-0F64-473F-B320-B8A6D0BEDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
@@ -1007,7 +1007,7 @@
   <dimension ref="A1:AA146"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,8 +5185,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O57" sqref="O57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5222,7 +5222,7 @@
       <c r="S1" s="35"/>
       <c r="T1" s="35"/>
       <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
+      <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
@@ -5252,7 +5252,7 @@
       <c r="S2" s="35"/>
       <c r="T2" s="35"/>
       <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
+      <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
       <c r="Y2" s="1"/>
@@ -5282,7 +5282,7 @@
       <c r="S3" s="35"/>
       <c r="T3" s="35"/>
       <c r="U3" s="35"/>
-      <c r="V3" s="35"/>
+      <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -5312,7 +5312,7 @@
       <c r="S4" s="35"/>
       <c r="T4" s="35"/>
       <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
+      <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
@@ -5342,7 +5342,7 @@
       <c r="S5" s="35"/>
       <c r="T5" s="35"/>
       <c r="U5" s="35"/>
-      <c r="V5" s="35"/>
+      <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1"/>
@@ -5372,7 +5372,7 @@
       <c r="S6" s="35"/>
       <c r="T6" s="35"/>
       <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
+      <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
@@ -5402,7 +5402,7 @@
       <c r="S7" s="35"/>
       <c r="T7" s="35"/>
       <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
+      <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -5432,7 +5432,7 @@
       <c r="S8" s="35"/>
       <c r="T8" s="35"/>
       <c r="U8" s="35"/>
-      <c r="V8" s="35"/>
+      <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
@@ -5462,7 +5462,7 @@
       <c r="S9" s="35"/>
       <c r="T9" s="35"/>
       <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
+      <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
@@ -5492,7 +5492,7 @@
       <c r="S10" s="35"/>
       <c r="T10" s="35"/>
       <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
+      <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1"/>
@@ -5522,7 +5522,7 @@
       <c r="S11" s="35"/>
       <c r="T11" s="35"/>
       <c r="U11" s="35"/>
-      <c r="V11" s="35"/>
+      <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
       <c r="Y11" s="1"/>
@@ -5552,7 +5552,7 @@
       <c r="S12" s="35"/>
       <c r="T12" s="35"/>
       <c r="U12" s="35"/>
-      <c r="V12" s="35"/>
+      <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
       <c r="Y12" s="1"/>
@@ -5582,7 +5582,7 @@
       <c r="S13" s="35"/>
       <c r="T13" s="35"/>
       <c r="U13" s="35"/>
-      <c r="V13" s="35"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1"/>
@@ -5612,7 +5612,7 @@
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
       <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
+      <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
       <c r="Y14" s="1"/>
@@ -5642,7 +5642,7 @@
       <c r="S15" s="35"/>
       <c r="T15" s="35"/>
       <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
+      <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
@@ -5672,7 +5672,7 @@
       <c r="S16" s="35"/>
       <c r="T16" s="35"/>
       <c r="U16" s="35"/>
-      <c r="V16" s="35"/>
+      <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
@@ -5702,7 +5702,7 @@
       <c r="S17" s="35"/>
       <c r="T17" s="35"/>
       <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
@@ -5732,7 +5732,7 @@
       <c r="S18" s="35"/>
       <c r="T18" s="35"/>
       <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
+      <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
@@ -5762,7 +5762,7 @@
       <c r="S19" s="35"/>
       <c r="T19" s="35"/>
       <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
+      <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -5792,7 +5792,7 @@
       <c r="S20" s="35"/>
       <c r="T20" s="35"/>
       <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
+      <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -5822,7 +5822,7 @@
       <c r="S21" s="35"/>
       <c r="T21" s="35"/>
       <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
+      <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
       <c r="Y21" s="1"/>
@@ -5852,7 +5852,7 @@
       <c r="S22" s="35"/>
       <c r="T22" s="35"/>
       <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
+      <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
@@ -5882,7 +5882,7 @@
       <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
+      <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="1"/>
@@ -5912,7 +5912,7 @@
       <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
+      <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="1"/>
@@ -5942,7 +5942,7 @@
       <c r="S25" s="35"/>
       <c r="T25" s="35"/>
       <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
+      <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
@@ -5972,7 +5972,7 @@
       <c r="S26" s="35"/>
       <c r="T26" s="35"/>
       <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
+      <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
@@ -6002,7 +6002,7 @@
       <c r="S27" s="35"/>
       <c r="T27" s="35"/>
       <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
+      <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
@@ -6032,7 +6032,7 @@
       <c r="S28" s="35"/>
       <c r="T28" s="35"/>
       <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
+      <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
@@ -6062,7 +6062,7 @@
       <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
+      <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
@@ -6092,7 +6092,7 @@
       <c r="S30" s="35"/>
       <c r="T30" s="35"/>
       <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
+      <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
@@ -6122,7 +6122,7 @@
       <c r="S31" s="35"/>
       <c r="T31" s="35"/>
       <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
+      <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
@@ -6152,7 +6152,7 @@
       <c r="S32" s="35"/>
       <c r="T32" s="35"/>
       <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
+      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -6182,7 +6182,7 @@
       <c r="S33" s="35"/>
       <c r="T33" s="35"/>
       <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
+      <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
@@ -6212,7 +6212,7 @@
       <c r="S34" s="35"/>
       <c r="T34" s="35"/>
       <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
+      <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
@@ -6242,7 +6242,7 @@
       <c r="S35" s="35"/>
       <c r="T35" s="35"/>
       <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
+      <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="1"/>
@@ -6272,7 +6272,7 @@
       <c r="S36" s="35"/>
       <c r="T36" s="35"/>
       <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
+      <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
       <c r="Y36" s="1"/>
@@ -6302,7 +6302,7 @@
       <c r="S37" s="35"/>
       <c r="T37" s="35"/>
       <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
+      <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
       <c r="Y37" s="1"/>
@@ -6332,7 +6332,7 @@
       <c r="S38" s="35"/>
       <c r="T38" s="35"/>
       <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
+      <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
       <c r="Y38" s="1"/>
@@ -6362,7 +6362,7 @@
       <c r="S39" s="35"/>
       <c r="T39" s="35"/>
       <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
+      <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
       <c r="Y39" s="1"/>
@@ -6392,7 +6392,7 @@
       <c r="S40" s="35"/>
       <c r="T40" s="35"/>
       <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
+      <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
       <c r="Y40" s="1"/>
@@ -6422,7 +6422,7 @@
       <c r="S41" s="35"/>
       <c r="T41" s="35"/>
       <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
+      <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="1"/>
@@ -6452,7 +6452,7 @@
       <c r="S42" s="35"/>
       <c r="T42" s="35"/>
       <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
+      <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
       <c r="Y42" s="1"/>
@@ -6482,7 +6482,7 @@
       <c r="S43" s="35"/>
       <c r="T43" s="35"/>
       <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
+      <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
       <c r="Y43" s="1"/>
@@ -6512,7 +6512,7 @@
       <c r="S44" s="35"/>
       <c r="T44" s="35"/>
       <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
+      <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
       <c r="Y44" s="1"/>
@@ -6542,7 +6542,7 @@
       <c r="S45" s="35"/>
       <c r="T45" s="35"/>
       <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
+      <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
       <c r="Y45" s="1"/>
@@ -6572,7 +6572,7 @@
       <c r="S46" s="35"/>
       <c r="T46" s="35"/>
       <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
+      <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
@@ -6602,7 +6602,7 @@
       <c r="S47" s="35"/>
       <c r="T47" s="35"/>
       <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
+      <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
       <c r="Y47" s="1"/>
@@ -6632,7 +6632,7 @@
       <c r="S48" s="35"/>
       <c r="T48" s="35"/>
       <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
+      <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
       <c r="Y48" s="1"/>
@@ -6662,7 +6662,7 @@
       <c r="S49" s="35"/>
       <c r="T49" s="35"/>
       <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
+      <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
@@ -6692,7 +6692,7 @@
       <c r="S50" s="35"/>
       <c r="T50" s="35"/>
       <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
+      <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
       <c r="Y50" s="1"/>
@@ -7947,7 +7947,7 @@
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:V50"/>
+    <mergeCell ref="A1:U50"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="141" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B530D94-0F64-473F-B320-B8A6D0BEDECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A949CE-475E-4200-ACC0-9000EB9D1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="A4_Landscape" sheetId="6" state="hidden" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$U$98</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$T$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$147</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">A4_Landscape!$A$1:$P$33,A4_Landscape!$B$34:$P$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">A4_Portrait!$A$1:$J$98</definedName>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="63">
   <si>
     <t>A3_Portrait</t>
   </si>
@@ -264,12 +264,96 @@
       <t xml:space="preserve"> [°C]</t>
     </r>
   </si>
+  <si>
+    <t>Heat Recovery</t>
+  </si>
+  <si>
+    <t>Temp.
+Dew</t>
+  </si>
+  <si>
+    <t>p [Pa]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ρ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [kg/m3]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>υ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> [m3/kg]</t>
+    </r>
+  </si>
+  <si>
+    <t>h [kJ/kgK]</t>
+  </si>
+  <si>
+    <t>[kJ/kg]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">ε = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Δh / Δx</t>
+    </r>
+  </si>
+  <si>
+    <t>[epsilon]</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +462,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -387,7 +478,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -404,11 +495,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -494,21 +651,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -526,184 +742,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>117662</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>365685</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="445315" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45735D89-9C2E-44A0-B032-FE3D128B7FC3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1336862" y="13916585"/>
-              <a:ext cx="445315" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a14:m>
-                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                  <m:oMathParaPr>
-                    <m:jc m:val="centerGroup"/>
-                  </m:oMathParaPr>
-                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
-                    <m:sSub>
-                      <m:sSubPr>
-                        <m:ctrlPr>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                        </m:ctrlPr>
-                      </m:sSubPr>
-                      <m:e>
-                        <m:r>
-                          <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                          </a:rPr>
-                          <m:t>𝑡</m:t>
-                        </m:r>
-                      </m:e>
-                      <m:sub/>
-                    </m:sSub>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t> [</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                        <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>℃</m:t>
-                    </m:r>
-                    <m:r>
-                      <a:rPr lang="en-US" sz="1100" b="0" i="1">
-                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                      </a:rPr>
-                      <m:t>]</m:t>
-                    </m:r>
-                  </m:oMath>
-                </m:oMathPara>
-              </a14:m>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Choice>
-      <mc:Fallback xmlns="">
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45735D89-9C2E-44A0-B032-FE3D128B7FC3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1336862" y="13916585"/>
-              <a:ext cx="445315" cy="172227"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr/>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>𝑡_  [</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>℃</a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100" b="0" i="0">
-                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
-                </a:rPr>
-                <a:t>]</a:t>
-              </a:r>
-              <a:endParaRPr lang="en-GB" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1006,8 +1044,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A67" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M82" sqref="M82"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A34" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="O76" sqref="O76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1019,23 +1057,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1050,21 +1088,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1079,21 +1117,21 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1108,21 +1146,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1137,21 +1175,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1166,21 +1204,21 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1195,21 +1233,21 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1224,21 +1262,21 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1253,21 +1291,21 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1282,21 +1320,21 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1311,21 +1349,21 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1340,21 +1378,21 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1369,21 +1407,21 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1398,21 +1436,21 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1427,21 +1465,21 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1456,21 +1494,21 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1485,21 +1523,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1514,21 +1552,21 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1543,21 +1581,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1572,21 +1610,21 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1601,21 +1639,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1630,21 +1668,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1659,21 +1697,21 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1688,21 +1726,21 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1717,21 +1755,21 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1746,21 +1784,21 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1775,21 +1813,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1804,21 +1842,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1833,21 +1871,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1862,21 +1900,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1891,21 +1929,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1920,21 +1958,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1949,21 +1987,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="54"/>
+      <c r="M33" s="54"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="54"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -1978,21 +2016,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
+      <c r="K34" s="54"/>
+      <c r="L34" s="54"/>
+      <c r="M34" s="54"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="54"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2007,21 +2045,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2036,21 +2074,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2065,21 +2103,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="54"/>
+      <c r="N37" s="54"/>
+      <c r="O37" s="54"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2094,21 +2132,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
+      <c r="K38" s="54"/>
+      <c r="L38" s="54"/>
+      <c r="M38" s="54"/>
+      <c r="N38" s="54"/>
+      <c r="O38" s="54"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2123,21 +2161,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
+      <c r="N39" s="54"/>
+      <c r="O39" s="54"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2152,21 +2190,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
+      <c r="K40" s="54"/>
+      <c r="L40" s="54"/>
+      <c r="M40" s="54"/>
+      <c r="N40" s="54"/>
+      <c r="O40" s="54"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2181,21 +2219,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="54"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="54"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2210,21 +2248,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2239,21 +2277,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="54"/>
+      <c r="N43" s="54"/>
+      <c r="O43" s="54"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2268,21 +2306,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
+      <c r="K44" s="54"/>
+      <c r="L44" s="54"/>
+      <c r="M44" s="54"/>
+      <c r="N44" s="54"/>
+      <c r="O44" s="54"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2297,21 +2335,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="54"/>
+      <c r="M45" s="54"/>
+      <c r="N45" s="54"/>
+      <c r="O45" s="54"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2326,21 +2364,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2355,21 +2393,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2384,21 +2422,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
+      <c r="K48" s="54"/>
+      <c r="L48" s="54"/>
+      <c r="M48" s="54"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="54"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2413,21 +2451,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
+      <c r="K49" s="54"/>
+      <c r="L49" s="54"/>
+      <c r="M49" s="54"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="54"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2442,21 +2480,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
+      <c r="A50" s="54"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="54"/>
+      <c r="D50" s="54"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="54"/>
+      <c r="K50" s="54"/>
+      <c r="L50" s="54"/>
+      <c r="M50" s="54"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="54"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2471,21 +2509,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
-      <c r="B51" s="35"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
-      <c r="N51" s="35"/>
-      <c r="O51" s="35"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="54"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="54"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="54"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="54"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2500,21 +2538,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="35"/>
-      <c r="B52" s="35"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="35"/>
-      <c r="G52" s="35"/>
-      <c r="H52" s="35"/>
-      <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
-      <c r="K52" s="35"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="35"/>
-      <c r="N52" s="35"/>
-      <c r="O52" s="35"/>
+      <c r="A52" s="54"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="54"/>
+      <c r="D52" s="54"/>
+      <c r="E52" s="54"/>
+      <c r="F52" s="54"/>
+      <c r="G52" s="54"/>
+      <c r="H52" s="54"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="54"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="54"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="54"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2529,21 +2567,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="35"/>
-      <c r="B53" s="35"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="35"/>
-      <c r="N53" s="35"/>
-      <c r="O53" s="35"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="54"/>
+      <c r="C53" s="54"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="54"/>
+      <c r="H53" s="54"/>
+      <c r="I53" s="54"/>
+      <c r="J53" s="54"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="54"/>
+      <c r="N53" s="54"/>
+      <c r="O53" s="54"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2558,21 +2596,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="35"/>
-      <c r="B54" s="35"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="35"/>
-      <c r="N54" s="35"/>
-      <c r="O54" s="35"/>
+      <c r="A54" s="54"/>
+      <c r="B54" s="54"/>
+      <c r="C54" s="54"/>
+      <c r="D54" s="54"/>
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="54"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="54"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="54"/>
+      <c r="M54" s="54"/>
+      <c r="N54" s="54"/>
+      <c r="O54" s="54"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2587,21 +2625,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="35"/>
-      <c r="B55" s="35"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="35"/>
-      <c r="N55" s="35"/>
-      <c r="O55" s="35"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="54"/>
+      <c r="D55" s="54"/>
+      <c r="E55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="54"/>
+      <c r="I55" s="54"/>
+      <c r="J55" s="54"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="54"/>
+      <c r="N55" s="54"/>
+      <c r="O55" s="54"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2616,21 +2654,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="35"/>
-      <c r="B56" s="35"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="35"/>
-      <c r="G56" s="35"/>
-      <c r="H56" s="35"/>
-      <c r="I56" s="35"/>
-      <c r="J56" s="35"/>
-      <c r="K56" s="35"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="35"/>
-      <c r="N56" s="35"/>
-      <c r="O56" s="35"/>
+      <c r="A56" s="54"/>
+      <c r="B56" s="54"/>
+      <c r="C56" s="54"/>
+      <c r="D56" s="54"/>
+      <c r="E56" s="54"/>
+      <c r="F56" s="54"/>
+      <c r="G56" s="54"/>
+      <c r="H56" s="54"/>
+      <c r="I56" s="54"/>
+      <c r="J56" s="54"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="54"/>
+      <c r="N56" s="54"/>
+      <c r="O56" s="54"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2645,21 +2683,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="35"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="35"/>
-      <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
-      <c r="G57" s="35"/>
-      <c r="H57" s="35"/>
-      <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
-      <c r="K57" s="35"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="35"/>
-      <c r="N57" s="35"/>
-      <c r="O57" s="35"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="54"/>
+      <c r="I57" s="54"/>
+      <c r="J57" s="54"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="54"/>
+      <c r="N57" s="54"/>
+      <c r="O57" s="54"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2674,21 +2712,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="35"/>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
-      <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
-      <c r="H58" s="35"/>
-      <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
-      <c r="K58" s="35"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="35"/>
-      <c r="N58" s="35"/>
-      <c r="O58" s="35"/>
+      <c r="A58" s="54"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="54"/>
+      <c r="D58" s="54"/>
+      <c r="E58" s="54"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="54"/>
+      <c r="I58" s="54"/>
+      <c r="J58" s="54"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="54"/>
+      <c r="N58" s="54"/>
+      <c r="O58" s="54"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2703,21 +2741,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="35"/>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2732,21 +2770,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
-      <c r="E60" s="35"/>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
-      <c r="H60" s="35"/>
-      <c r="I60" s="35"/>
-      <c r="J60" s="35"/>
-      <c r="K60" s="35"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="35"/>
-      <c r="N60" s="35"/>
-      <c r="O60" s="35"/>
+      <c r="A60" s="54"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="54"/>
+      <c r="D60" s="54"/>
+      <c r="E60" s="54"/>
+      <c r="F60" s="54"/>
+      <c r="G60" s="54"/>
+      <c r="H60" s="54"/>
+      <c r="I60" s="54"/>
+      <c r="J60" s="54"/>
+      <c r="K60" s="54"/>
+      <c r="L60" s="54"/>
+      <c r="M60" s="54"/>
+      <c r="N60" s="54"/>
+      <c r="O60" s="54"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2761,21 +2799,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="35"/>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="54"/>
+      <c r="C61" s="54"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="54"/>
+      <c r="H61" s="54"/>
+      <c r="I61" s="54"/>
+      <c r="J61" s="54"/>
+      <c r="K61" s="54"/>
+      <c r="L61" s="54"/>
+      <c r="M61" s="54"/>
+      <c r="N61" s="54"/>
+      <c r="O61" s="54"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2790,21 +2828,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="35"/>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="35"/>
-      <c r="O62" s="35"/>
+      <c r="A62" s="54"/>
+      <c r="B62" s="54"/>
+      <c r="C62" s="54"/>
+      <c r="D62" s="54"/>
+      <c r="E62" s="54"/>
+      <c r="F62" s="54"/>
+      <c r="G62" s="54"/>
+      <c r="H62" s="54"/>
+      <c r="I62" s="54"/>
+      <c r="J62" s="54"/>
+      <c r="K62" s="54"/>
+      <c r="L62" s="54"/>
+      <c r="M62" s="54"/>
+      <c r="N62" s="54"/>
+      <c r="O62" s="54"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2819,21 +2857,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="35"/>
-      <c r="B63" s="35"/>
-      <c r="C63" s="35"/>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="35"/>
-      <c r="O63" s="35"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="54"/>
+      <c r="C63" s="54"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="54"/>
+      <c r="H63" s="54"/>
+      <c r="I63" s="54"/>
+      <c r="J63" s="54"/>
+      <c r="K63" s="54"/>
+      <c r="L63" s="54"/>
+      <c r="M63" s="54"/>
+      <c r="N63" s="54"/>
+      <c r="O63" s="54"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2848,21 +2886,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="35"/>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2877,21 +2915,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2906,21 +2944,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="35"/>
-      <c r="N66" s="35"/>
-      <c r="O66" s="35"/>
+      <c r="A66" s="54"/>
+      <c r="B66" s="54"/>
+      <c r="C66" s="54"/>
+      <c r="D66" s="54"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="54"/>
+      <c r="L66" s="54"/>
+      <c r="M66" s="54"/>
+      <c r="N66" s="54"/>
+      <c r="O66" s="54"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2935,21 +2973,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -2964,21 +3002,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
-      <c r="I68" s="35"/>
-      <c r="J68" s="35"/>
-      <c r="K68" s="35"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="35"/>
-      <c r="N68" s="35"/>
-      <c r="O68" s="35"/>
+      <c r="A68" s="54"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="54"/>
+      <c r="D68" s="54"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -2993,21 +3031,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-      <c r="J69" s="35"/>
-      <c r="K69" s="35"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="35"/>
-      <c r="N69" s="35"/>
-      <c r="O69" s="35"/>
+      <c r="A69" s="54"/>
+      <c r="B69" s="54"/>
+      <c r="C69" s="54"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -3022,21 +3060,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="35"/>
-      <c r="K70" s="35"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="35"/>
-      <c r="N70" s="35"/>
-      <c r="O70" s="35"/>
+      <c r="A70" s="54"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="54"/>
+      <c r="D70" s="54"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="54"/>
+      <c r="K70" s="54"/>
+      <c r="L70" s="54"/>
+      <c r="M70" s="54"/>
+      <c r="N70" s="54"/>
+      <c r="O70" s="54"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -3051,21 +3089,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
-      <c r="I71" s="35"/>
-      <c r="J71" s="35"/>
-      <c r="K71" s="35"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="35"/>
-      <c r="N71" s="35"/>
-      <c r="O71" s="35"/>
+      <c r="A71" s="54"/>
+      <c r="B71" s="54"/>
+      <c r="C71" s="54"/>
+      <c r="D71" s="54"/>
+      <c r="E71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="54"/>
+      <c r="H71" s="54"/>
+      <c r="I71" s="54"/>
+      <c r="J71" s="54"/>
+      <c r="K71" s="54"/>
+      <c r="L71" s="54"/>
+      <c r="M71" s="54"/>
+      <c r="N71" s="54"/>
+      <c r="O71" s="54"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -3080,21 +3118,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -3109,21 +3147,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -3138,21 +3176,21 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="35"/>
-      <c r="N74" s="35"/>
-      <c r="O74" s="35"/>
+      <c r="A74" s="54"/>
+      <c r="B74" s="54"/>
+      <c r="C74" s="54"/>
+      <c r="D74" s="54"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="54"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="54"/>
+      <c r="L74" s="54"/>
+      <c r="M74" s="54"/>
+      <c r="N74" s="54"/>
+      <c r="O74" s="54"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -3228,7 +3266,9 @@
       <c r="B76" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C76" s="20"/>
+      <c r="C76" s="28" t="s">
+        <v>48</v>
+      </c>
       <c r="D76" s="20" t="s">
         <v>11</v>
       </c>
@@ -3369,7 +3409,7 @@
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
-      <c r="E79" s="34"/>
+      <c r="E79" s="31"/>
       <c r="F79" s="5"/>
       <c r="G79" s="5"/>
       <c r="H79" s="5"/>
@@ -5176,7 +5216,6 @@
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5185,43 +5224,44 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A37" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O57" sqref="O57"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P54" sqref="P54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="20.21875" customWidth="1"/>
     <col min="13" max="13" width="6.5546875" customWidth="1"/>
     <col min="15" max="15" width="13.44140625" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
+      <c r="S1" s="55"/>
+      <c r="T1" s="55"/>
+      <c r="U1" s="55"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -5231,27 +5271,27 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
-      <c r="Q2" s="35"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
+      <c r="N2" s="55"/>
+      <c r="O2" s="55"/>
+      <c r="P2" s="55"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
+      <c r="S2" s="55"/>
+      <c r="T2" s="55"/>
+      <c r="U2" s="55"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -5261,27 +5301,27 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="35"/>
-      <c r="R3" s="35"/>
-      <c r="S3" s="35"/>
-      <c r="T3" s="35"/>
-      <c r="U3" s="35"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+      <c r="I3" s="55"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="55"/>
+      <c r="L3" s="55"/>
+      <c r="M3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="55"/>
+      <c r="Q3" s="55"/>
+      <c r="R3" s="55"/>
+      <c r="S3" s="55"/>
+      <c r="T3" s="55"/>
+      <c r="U3" s="55"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -5291,27 +5331,27 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55"/>
+      <c r="P4" s="55"/>
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -5321,27 +5361,27 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
-      <c r="Q5" s="35"/>
-      <c r="R5" s="35"/>
-      <c r="S5" s="35"/>
-      <c r="T5" s="35"/>
-      <c r="U5" s="35"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
+      <c r="O5" s="55"/>
+      <c r="P5" s="55"/>
+      <c r="Q5" s="55"/>
+      <c r="R5" s="55"/>
+      <c r="S5" s="55"/>
+      <c r="T5" s="55"/>
+      <c r="U5" s="55"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -5351,27 +5391,27 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="35"/>
-      <c r="U6" s="35"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
+      <c r="P6" s="55"/>
+      <c r="Q6" s="55"/>
+      <c r="R6" s="55"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="55"/>
+      <c r="U6" s="55"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -5381,27 +5421,27 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="35"/>
-      <c r="S7" s="35"/>
-      <c r="T7" s="35"/>
-      <c r="U7" s="35"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+      <c r="S7" s="55"/>
+      <c r="T7" s="55"/>
+      <c r="U7" s="55"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -5411,27 +5451,27 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
-      <c r="Q8" s="35"/>
-      <c r="R8" s="35"/>
-      <c r="S8" s="35"/>
-      <c r="T8" s="35"/>
-      <c r="U8" s="35"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="55"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="55"/>
+      <c r="U8" s="55"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -5441,27 +5481,27 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
-      <c r="Q9" s="35"/>
-      <c r="R9" s="35"/>
-      <c r="S9" s="35"/>
-      <c r="T9" s="35"/>
-      <c r="U9" s="35"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="55"/>
+      <c r="U9" s="55"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -5471,27 +5511,27 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
-      <c r="Q10" s="35"/>
-      <c r="R10" s="35"/>
-      <c r="S10" s="35"/>
-      <c r="T10" s="35"/>
-      <c r="U10" s="35"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="55"/>
+      <c r="U10" s="55"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -5501,27 +5541,27 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="35"/>
-      <c r="U11" s="35"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="55"/>
+      <c r="T11" s="55"/>
+      <c r="U11" s="55"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -5531,27 +5571,27 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
-      <c r="Q12" s="35"/>
-      <c r="R12" s="35"/>
-      <c r="S12" s="35"/>
-      <c r="T12" s="35"/>
-      <c r="U12" s="35"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="55"/>
+      <c r="U12" s="55"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -5561,27 +5601,27 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
-      <c r="Q13" s="35"/>
-      <c r="R13" s="35"/>
-      <c r="S13" s="35"/>
-      <c r="T13" s="35"/>
-      <c r="U13" s="35"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="P13" s="55"/>
+      <c r="Q13" s="55"/>
+      <c r="R13" s="55"/>
+      <c r="S13" s="55"/>
+      <c r="T13" s="55"/>
+      <c r="U13" s="55"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -5591,27 +5631,27 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
-      <c r="Q14" s="35"/>
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="55"/>
+      <c r="P14" s="55"/>
+      <c r="Q14" s="55"/>
+      <c r="R14" s="55"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="55"/>
+      <c r="U14" s="55"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -5621,27 +5661,27 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="55"/>
+      <c r="P15" s="55"/>
+      <c r="Q15" s="55"/>
+      <c r="R15" s="55"/>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="55"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -5651,27 +5691,27 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -5681,27 +5721,27 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="55"/>
+      <c r="O17" s="55"/>
+      <c r="P17" s="55"/>
+      <c r="Q17" s="55"/>
+      <c r="R17" s="55"/>
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -5711,27 +5751,27 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
+      <c r="K18" s="55"/>
+      <c r="L18" s="55"/>
+      <c r="M18" s="55"/>
+      <c r="N18" s="55"/>
+      <c r="O18" s="55"/>
+      <c r="P18" s="55"/>
+      <c r="Q18" s="55"/>
+      <c r="R18" s="55"/>
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -5741,27 +5781,27 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
+      <c r="K19" s="55"/>
+      <c r="L19" s="55"/>
+      <c r="M19" s="55"/>
+      <c r="N19" s="55"/>
+      <c r="O19" s="55"/>
+      <c r="P19" s="55"/>
+      <c r="Q19" s="55"/>
+      <c r="R19" s="55"/>
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -5771,27 +5811,27 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="55"/>
+      <c r="O20" s="55"/>
+      <c r="P20" s="55"/>
+      <c r="Q20" s="55"/>
+      <c r="R20" s="55"/>
+      <c r="S20" s="55"/>
+      <c r="T20" s="55"/>
+      <c r="U20" s="55"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -5801,27 +5841,27 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
+      <c r="M21" s="55"/>
+      <c r="N21" s="55"/>
+      <c r="O21" s="55"/>
+      <c r="P21" s="55"/>
+      <c r="Q21" s="55"/>
+      <c r="R21" s="55"/>
+      <c r="S21" s="55"/>
+      <c r="T21" s="55"/>
+      <c r="U21" s="55"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -5831,27 +5871,27 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="55"/>
+      <c r="O22" s="55"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="55"/>
+      <c r="R22" s="55"/>
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -5861,27 +5901,27 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="55"/>
+      <c r="S23" s="55"/>
+      <c r="T23" s="55"/>
+      <c r="U23" s="55"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -5891,27 +5931,27 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
+      <c r="M24" s="55"/>
+      <c r="N24" s="55"/>
+      <c r="O24" s="55"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="55"/>
+      <c r="R24" s="55"/>
+      <c r="S24" s="55"/>
+      <c r="T24" s="55"/>
+      <c r="U24" s="55"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -5921,27 +5961,27 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="55"/>
+      <c r="N25" s="55"/>
+      <c r="O25" s="55"/>
+      <c r="P25" s="55"/>
+      <c r="Q25" s="55"/>
+      <c r="R25" s="55"/>
+      <c r="S25" s="55"/>
+      <c r="T25" s="55"/>
+      <c r="U25" s="55"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -5951,27 +5991,27 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
+      <c r="M26" s="55"/>
+      <c r="N26" s="55"/>
+      <c r="O26" s="55"/>
+      <c r="P26" s="55"/>
+      <c r="Q26" s="55"/>
+      <c r="R26" s="55"/>
+      <c r="S26" s="55"/>
+      <c r="T26" s="55"/>
+      <c r="U26" s="55"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -5981,27 +6021,27 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
+      <c r="M27" s="55"/>
+      <c r="N27" s="55"/>
+      <c r="O27" s="55"/>
+      <c r="P27" s="55"/>
+      <c r="Q27" s="55"/>
+      <c r="R27" s="55"/>
+      <c r="S27" s="55"/>
+      <c r="T27" s="55"/>
+      <c r="U27" s="55"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -6011,27 +6051,27 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
+      <c r="M28" s="55"/>
+      <c r="N28" s="55"/>
+      <c r="O28" s="55"/>
+      <c r="P28" s="55"/>
+      <c r="Q28" s="55"/>
+      <c r="R28" s="55"/>
+      <c r="S28" s="55"/>
+      <c r="T28" s="55"/>
+      <c r="U28" s="55"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -6041,27 +6081,27 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
-      <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="55"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="55"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -6071,27 +6111,27 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="55"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="55"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -6101,27 +6141,27 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
+      <c r="M31" s="55"/>
+      <c r="N31" s="55"/>
+      <c r="O31" s="55"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="55"/>
+      <c r="R31" s="55"/>
+      <c r="S31" s="55"/>
+      <c r="T31" s="55"/>
+      <c r="U31" s="55"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -6131,27 +6171,27 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="55"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="55"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -6161,27 +6201,27 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="35"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="55"/>
+      <c r="L33" s="55"/>
+      <c r="M33" s="55"/>
+      <c r="N33" s="55"/>
+      <c r="O33" s="55"/>
+      <c r="P33" s="55"/>
+      <c r="Q33" s="55"/>
+      <c r="R33" s="55"/>
+      <c r="S33" s="55"/>
+      <c r="T33" s="55"/>
+      <c r="U33" s="55"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -6191,27 +6231,27 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="35"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
+      <c r="A34" s="55"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="55"/>
+      <c r="E34" s="55"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
+      <c r="K34" s="55"/>
+      <c r="L34" s="55"/>
+      <c r="M34" s="55"/>
+      <c r="N34" s="55"/>
+      <c r="O34" s="55"/>
+      <c r="P34" s="55"/>
+      <c r="Q34" s="55"/>
+      <c r="R34" s="55"/>
+      <c r="S34" s="55"/>
+      <c r="T34" s="55"/>
+      <c r="U34" s="55"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -6221,27 +6261,27 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="55"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="55"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="55"/>
+      <c r="L35" s="55"/>
+      <c r="M35" s="55"/>
+      <c r="N35" s="55"/>
+      <c r="O35" s="55"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="55"/>
+      <c r="R35" s="55"/>
+      <c r="S35" s="55"/>
+      <c r="T35" s="55"/>
+      <c r="U35" s="55"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -6251,27 +6291,27 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="35"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="55"/>
+      <c r="L36" s="55"/>
+      <c r="M36" s="55"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="55"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="55"/>
+      <c r="R36" s="55"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="55"/>
+      <c r="U36" s="55"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -6281,27 +6321,27 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="35"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="55"/>
+      <c r="P37" s="55"/>
+      <c r="Q37" s="55"/>
+      <c r="R37" s="55"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="55"/>
+      <c r="U37" s="55"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -6311,27 +6351,27 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="35"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+      <c r="H38" s="55"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="55"/>
+      <c r="K38" s="55"/>
+      <c r="L38" s="55"/>
+      <c r="M38" s="55"/>
+      <c r="N38" s="55"/>
+      <c r="O38" s="55"/>
+      <c r="P38" s="55"/>
+      <c r="Q38" s="55"/>
+      <c r="R38" s="55"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="55"/>
+      <c r="U38" s="55"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -6341,27 +6381,27 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="35"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="55"/>
+      <c r="H39" s="55"/>
+      <c r="I39" s="55"/>
+      <c r="J39" s="55"/>
+      <c r="K39" s="55"/>
+      <c r="L39" s="55"/>
+      <c r="M39" s="55"/>
+      <c r="N39" s="55"/>
+      <c r="O39" s="55"/>
+      <c r="P39" s="55"/>
+      <c r="Q39" s="55"/>
+      <c r="R39" s="55"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="55"/>
+      <c r="U39" s="55"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -6371,27 +6411,27 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="35"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="55"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="55"/>
+      <c r="H40" s="55"/>
+      <c r="I40" s="55"/>
+      <c r="J40" s="55"/>
+      <c r="K40" s="55"/>
+      <c r="L40" s="55"/>
+      <c r="M40" s="55"/>
+      <c r="N40" s="55"/>
+      <c r="O40" s="55"/>
+      <c r="P40" s="55"/>
+      <c r="Q40" s="55"/>
+      <c r="R40" s="55"/>
+      <c r="S40" s="55"/>
+      <c r="T40" s="55"/>
+      <c r="U40" s="55"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -6401,27 +6441,27 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="35"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="55"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="55"/>
+      <c r="L41" s="55"/>
+      <c r="M41" s="55"/>
+      <c r="N41" s="55"/>
+      <c r="O41" s="55"/>
+      <c r="P41" s="55"/>
+      <c r="Q41" s="55"/>
+      <c r="R41" s="55"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="55"/>
+      <c r="U41" s="55"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
@@ -6431,27 +6471,27 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="55"/>
+      <c r="C42" s="55"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="55"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="55"/>
+      <c r="L42" s="55"/>
+      <c r="M42" s="55"/>
+      <c r="N42" s="55"/>
+      <c r="O42" s="55"/>
+      <c r="P42" s="55"/>
+      <c r="Q42" s="55"/>
+      <c r="R42" s="55"/>
+      <c r="S42" s="55"/>
+      <c r="T42" s="55"/>
+      <c r="U42" s="55"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
@@ -6461,27 +6501,27 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="35"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="55"/>
+      <c r="M43" s="55"/>
+      <c r="N43" s="55"/>
+      <c r="O43" s="55"/>
+      <c r="P43" s="55"/>
+      <c r="Q43" s="55"/>
+      <c r="R43" s="55"/>
+      <c r="S43" s="55"/>
+      <c r="T43" s="55"/>
+      <c r="U43" s="55"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
@@ -6491,27 +6531,27 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="35"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="55"/>
+      <c r="C44" s="55"/>
+      <c r="D44" s="55"/>
+      <c r="E44" s="55"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="55"/>
+      <c r="R44" s="55"/>
+      <c r="S44" s="55"/>
+      <c r="T44" s="55"/>
+      <c r="U44" s="55"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
@@ -6521,27 +6561,27 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="35"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="55"/>
+      <c r="C45" s="55"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="55"/>
+      <c r="L45" s="55"/>
+      <c r="M45" s="55"/>
+      <c r="N45" s="55"/>
+      <c r="O45" s="55"/>
+      <c r="P45" s="55"/>
+      <c r="Q45" s="55"/>
+      <c r="R45" s="55"/>
+      <c r="S45" s="55"/>
+      <c r="T45" s="55"/>
+      <c r="U45" s="55"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
@@ -6551,27 +6591,27 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="55"/>
+      <c r="D46" s="55"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="55"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="55"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="55"/>
+      <c r="L46" s="55"/>
+      <c r="M46" s="55"/>
+      <c r="N46" s="55"/>
+      <c r="O46" s="55"/>
+      <c r="P46" s="55"/>
+      <c r="Q46" s="55"/>
+      <c r="R46" s="55"/>
+      <c r="S46" s="55"/>
+      <c r="T46" s="55"/>
+      <c r="U46" s="55"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
@@ -6581,27 +6621,27 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="55"/>
+      <c r="C47" s="55"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="55"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="55"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="55"/>
+      <c r="L47" s="55"/>
+      <c r="M47" s="55"/>
+      <c r="N47" s="55"/>
+      <c r="O47" s="55"/>
+      <c r="P47" s="55"/>
+      <c r="Q47" s="55"/>
+      <c r="R47" s="55"/>
+      <c r="S47" s="55"/>
+      <c r="T47" s="55"/>
+      <c r="U47" s="55"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
@@ -6611,27 +6651,27 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="35"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
+      <c r="A48" s="55"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="55"/>
+      <c r="D48" s="55"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="55"/>
+      <c r="H48" s="55"/>
+      <c r="I48" s="55"/>
+      <c r="J48" s="55"/>
+      <c r="K48" s="55"/>
+      <c r="L48" s="55"/>
+      <c r="M48" s="55"/>
+      <c r="N48" s="55"/>
+      <c r="O48" s="55"/>
+      <c r="P48" s="55"/>
+      <c r="Q48" s="55"/>
+      <c r="R48" s="55"/>
+      <c r="S48" s="55"/>
+      <c r="T48" s="55"/>
+      <c r="U48" s="55"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
@@ -6641,27 +6681,27 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="35"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="55"/>
+      <c r="C49" s="55"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="55"/>
+      <c r="K49" s="55"/>
+      <c r="L49" s="55"/>
+      <c r="M49" s="55"/>
+      <c r="N49" s="55"/>
+      <c r="O49" s="55"/>
+      <c r="P49" s="55"/>
+      <c r="Q49" s="55"/>
+      <c r="R49" s="55"/>
+      <c r="S49" s="55"/>
+      <c r="T49" s="55"/>
+      <c r="U49" s="55"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
@@ -6670,28 +6710,28 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A50" s="35"/>
-      <c r="B50" s="35"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="35"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
+    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="56"/>
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="56"/>
+      <c r="G50" s="56"/>
+      <c r="H50" s="56"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="56"/>
+      <c r="K50" s="56"/>
+      <c r="L50" s="56"/>
+      <c r="M50" s="56"/>
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="56"/>
+      <c r="R50" s="56"/>
+      <c r="S50" s="56"/>
+      <c r="T50" s="56"/>
+      <c r="U50" s="56"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
@@ -6700,53 +6740,58 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="4"/>
-      <c r="B51" s="2" t="s">
+    <row r="51" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="33"/>
+      <c r="B51" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="40" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H51" s="3" t="s">
+      <c r="G51" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="K51" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="O51" s="7" t="s">
+      <c r="O51" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
+      <c r="P51" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q51" s="35"/>
+      <c r="R51" s="35"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="32"/>
       <c r="V51" s="4"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
@@ -6755,52 +6800,57 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A52" s="4"/>
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="33"/>
+      <c r="B52" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="33" t="s">
+      <c r="E52" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="28" t="s">
+      <c r="F52" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="28" t="s">
+      <c r="G52" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="28" t="s">
+      <c r="H52" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="I52" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="J52" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="K52" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="L52" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="M52" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="N52" s="41" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I52" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="J52" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="K52" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="L52" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="M52" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="N52" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="O52" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
+      <c r="P52" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q52" s="35"/>
+      <c r="R52" s="35"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="33"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
       <c r="W52" s="1"/>
@@ -6811,51 +6861,56 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="23" t="s">
+      <c r="A53" s="37"/>
+      <c r="B53" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="23" t="s">
+      <c r="C53" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="23" t="s">
+      <c r="E53" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="23" t="s">
+      <c r="F53" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="23" t="s">
+      <c r="G53" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="23" t="s">
+      <c r="H53" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="23" t="s">
+      <c r="I53" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="24" t="s">
+      <c r="J53" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="K53" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="L53" s="23" t="s">
+      <c r="L53" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="25" t="s">
+      <c r="M53" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="26" t="s">
+      <c r="N53" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="27" t="s">
+      <c r="O53" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="S53" s="11"/>
-      <c r="T53" s="11"/>
+      <c r="P53" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="37"/>
+      <c r="T53" s="37"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="1"/>
@@ -6868,20 +6923,22 @@
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="11"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="12"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="30"/>
-      <c r="P54" s="11"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="M54" s="49"/>
+      <c r="N54" s="43"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="43"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -6926,9 +6983,9 @@
       <c r="J56" s="11"/>
       <c r="K56" s="11"/>
       <c r="L56" s="11"/>
-      <c r="M56" s="32"/>
+      <c r="M56" s="30"/>
       <c r="N56" s="11"/>
-      <c r="O56" s="31"/>
+      <c r="O56" s="29"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
@@ -7969,642 +8026,642 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="35"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="35"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="54"/>
+      <c r="G33" s="54"/>
+      <c r="H33" s="54"/>
+      <c r="I33" s="54"/>
+      <c r="J33" s="54"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
+      <c r="A34" s="54"/>
+      <c r="B34" s="54"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="54"/>
+      <c r="G34" s="54"/>
+      <c r="H34" s="54"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="54"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="35"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="35"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="35"/>
+      <c r="A36" s="54"/>
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="35"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="35"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="54"/>
+      <c r="C37" s="54"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="54"/>
+      <c r="H37" s="54"/>
+      <c r="I37" s="54"/>
+      <c r="J37" s="54"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="54"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="54"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="35"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="54"/>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="35"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
+      <c r="A40" s="54"/>
+      <c r="B40" s="54"/>
+      <c r="C40" s="54"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="54"/>
+      <c r="H40" s="54"/>
+      <c r="I40" s="54"/>
+      <c r="J40" s="54"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="35"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="54"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="54"/>
+      <c r="H41" s="54"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="54"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="35"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="35"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="54"/>
+      <c r="C43" s="54"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="54"/>
+      <c r="G43" s="54"/>
+      <c r="H43" s="54"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="54"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="35"/>
-      <c r="B44" s="35"/>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="A44" s="54"/>
+      <c r="B44" s="54"/>
+      <c r="C44" s="54"/>
+      <c r="D44" s="54"/>
+      <c r="E44" s="54"/>
+      <c r="F44" s="54"/>
+      <c r="G44" s="54"/>
+      <c r="H44" s="54"/>
+      <c r="I44" s="54"/>
+      <c r="J44" s="54"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="35"/>
-      <c r="B45" s="35"/>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="35"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="54"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="54"/>
+      <c r="H45" s="54"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="54"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="35"/>
-      <c r="B46" s="35"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="35"/>
-      <c r="B47" s="35"/>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="35"/>
-      <c r="B48" s="35"/>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="35"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="35"/>
+      <c r="A48" s="54"/>
+      <c r="B48" s="54"/>
+      <c r="C48" s="54"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
+      <c r="G48" s="54"/>
+      <c r="H48" s="54"/>
+      <c r="I48" s="54"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="35"/>
-      <c r="B49" s="35"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="54"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
+      <c r="F49" s="54"/>
+      <c r="G49" s="54"/>
+      <c r="H49" s="54"/>
+      <c r="I49" s="54"/>
+      <c r="J49" s="54"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -9279,582 +9336,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="54"/>
+      <c r="L1" s="54"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="35"/>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
+      <c r="J2" s="54"/>
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="54"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="35"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="35"/>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35"/>
-      <c r="P3" s="35"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
+      <c r="H3" s="54"/>
+      <c r="I3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="54"/>
+      <c r="L3" s="54"/>
+      <c r="M3" s="54"/>
+      <c r="N3" s="54"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="35"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="35"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="35"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
-      <c r="O5" s="35"/>
-      <c r="P5" s="35"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
-      <c r="I7" s="35"/>
-      <c r="J7" s="35"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
-      <c r="O7" s="35"/>
-      <c r="P7" s="35"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="35"/>
-      <c r="J8" s="35"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
-      <c r="O8" s="35"/>
-      <c r="P8" s="35"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
-      <c r="O9" s="35"/>
-      <c r="P9" s="35"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35"/>
-      <c r="K10" s="35"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="35"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="35"/>
-      <c r="P10" s="35"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="35"/>
-      <c r="N12" s="35"/>
-      <c r="O12" s="35"/>
-      <c r="P12" s="35"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="35"/>
-      <c r="N13" s="35"/>
-      <c r="O13" s="35"/>
-      <c r="P13" s="35"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35"/>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="35"/>
-      <c r="N14" s="35"/>
-      <c r="O14" s="35"/>
-      <c r="P14" s="35"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="35"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
+      <c r="A16" s="54"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="35"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="35"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="35"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="54"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="35"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="54"/>
+      <c r="N25" s="54"/>
+      <c r="O25" s="54"/>
+      <c r="P25" s="54"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="35"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="54"/>
+      <c r="K26" s="54"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="54"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="54"/>
+      <c r="P26" s="54"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="35"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="54"/>
+      <c r="J27" s="54"/>
+      <c r="K27" s="54"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="54"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="54"/>
+      <c r="P27" s="54"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="35"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="54"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="54"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="54"/>
+      <c r="N28" s="54"/>
+      <c r="O28" s="54"/>
+      <c r="P28" s="54"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="35"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="35"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="54"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="54"/>
+      <c r="K29" s="54"/>
+      <c r="L29" s="54"/>
+      <c r="M29" s="54"/>
+      <c r="N29" s="54"/>
+      <c r="O29" s="54"/>
+      <c r="P29" s="54"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="35"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="35"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="54"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="54"/>
+      <c r="K30" s="54"/>
+      <c r="L30" s="54"/>
+      <c r="M30" s="54"/>
+      <c r="N30" s="54"/>
+      <c r="O30" s="54"/>
+      <c r="P30" s="54"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="54"/>
+      <c r="C31" s="54"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="54"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="35"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="35"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="35"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
+      <c r="A32" s="54"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="54"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03A949CE-475E-4200-ACC0-9000EB9D1035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373C960D-41B3-4FBD-9D06-A29CA912DD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
@@ -323,9 +323,13 @@
     <t>[kJ/kg]</t>
   </si>
   <si>
+    <t>[epsilon]</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -336,6 +340,7 @@
     <r>
       <rPr>
         <b/>
+        <i/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
@@ -345,15 +350,12 @@
       <t>Δh / Δx</t>
     </r>
   </si>
-  <si>
-    <t>[epsilon]</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +466,16 @@
     </font>
     <font>
       <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -478,7 +490,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -496,20 +508,20 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -519,53 +531,20 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="medium">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
+      </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -656,66 +635,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -724,7 +671,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1057,23 +1025,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
       <c r="R1" s="1"/>
@@ -1088,21 +1056,21 @@
       <c r="AA1" s="1"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
       <c r="R2" s="1"/>
@@ -1117,21 +1085,21 @@
       <c r="AA2" s="1"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
@@ -1146,21 +1114,21 @@
       <c r="AA3" s="1"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="1"/>
@@ -1175,21 +1143,21 @@
       <c r="AA4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
       <c r="P5" s="1"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="1"/>
@@ -1204,21 +1172,21 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
@@ -1233,21 +1201,21 @@
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
@@ -1262,21 +1230,21 @@
       <c r="AA7" s="1"/>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
       <c r="R8" s="1"/>
@@ -1291,21 +1259,21 @@
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1320,21 +1288,21 @@
       <c r="AA9" s="1"/>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
       <c r="R10" s="1"/>
@@ -1349,21 +1317,21 @@
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
       <c r="R11" s="1"/>
@@ -1378,21 +1346,21 @@
       <c r="AA11" s="1"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
       <c r="R12" s="1"/>
@@ -1407,21 +1375,21 @@
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
@@ -1436,21 +1404,21 @@
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
       <c r="R14" s="1"/>
@@ -1465,21 +1433,21 @@
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
@@ -1494,21 +1462,21 @@
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
       <c r="R16" s="1"/>
@@ -1523,21 +1491,21 @@
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
@@ -1552,21 +1520,21 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
@@ -1581,21 +1549,21 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
@@ -1610,21 +1578,21 @@
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
       <c r="R20" s="1"/>
@@ -1639,21 +1607,21 @@
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
@@ -1668,21 +1636,21 @@
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
@@ -1697,21 +1665,21 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
       <c r="R23" s="1"/>
@@ -1726,21 +1694,21 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -1755,21 +1723,21 @@
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -1784,21 +1752,21 @@
       <c r="AA25" s="1"/>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -1813,21 +1781,21 @@
       <c r="AA26" s="1"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -1842,21 +1810,21 @@
       <c r="AA27" s="1"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -1871,21 +1839,21 @@
       <c r="AA28" s="1"/>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -1900,21 +1868,21 @@
       <c r="AA29" s="1"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -1929,21 +1897,21 @@
       <c r="AA30" s="1"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -1958,21 +1926,21 @@
       <c r="AA31" s="1"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -1987,21 +1955,21 @@
       <c r="AA32" s="1"/>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
-      <c r="M33" s="54"/>
-      <c r="N33" s="54"/>
-      <c r="O33" s="54"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+      <c r="K33" s="42"/>
+      <c r="L33" s="42"/>
+      <c r="M33" s="42"/>
+      <c r="N33" s="42"/>
+      <c r="O33" s="42"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -2016,21 +1984,21 @@
       <c r="AA33" s="1"/>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="54"/>
-      <c r="N34" s="54"/>
-      <c r="O34" s="54"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="42"/>
+      <c r="M34" s="42"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="42"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -2045,21 +2013,21 @@
       <c r="AA34" s="1"/>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="54"/>
-      <c r="N35" s="54"/>
-      <c r="O35" s="54"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="42"/>
+      <c r="N35" s="42"/>
+      <c r="O35" s="42"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="1"/>
@@ -2074,21 +2042,21 @@
       <c r="AA35" s="1"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="54"/>
-      <c r="N36" s="54"/>
-      <c r="O36" s="54"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="42"/>
+      <c r="N36" s="42"/>
+      <c r="O36" s="42"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
@@ -2103,21 +2071,21 @@
       <c r="AA36" s="1"/>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
-      <c r="K37" s="54"/>
-      <c r="L37" s="54"/>
-      <c r="M37" s="54"/>
-      <c r="N37" s="54"/>
-      <c r="O37" s="54"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="42"/>
+      <c r="N37" s="42"/>
+      <c r="O37" s="42"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -2132,21 +2100,21 @@
       <c r="AA37" s="1"/>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
-      <c r="K38" s="54"/>
-      <c r="L38" s="54"/>
-      <c r="M38" s="54"/>
-      <c r="N38" s="54"/>
-      <c r="O38" s="54"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="42"/>
+      <c r="N38" s="42"/>
+      <c r="O38" s="42"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -2161,21 +2129,21 @@
       <c r="AA38" s="1"/>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
-      <c r="K39" s="54"/>
-      <c r="L39" s="54"/>
-      <c r="M39" s="54"/>
-      <c r="N39" s="54"/>
-      <c r="O39" s="54"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="42"/>
+      <c r="M39" s="42"/>
+      <c r="N39" s="42"/>
+      <c r="O39" s="42"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
@@ -2190,21 +2158,21 @@
       <c r="AA39" s="1"/>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="54"/>
-      <c r="N40" s="54"/>
-      <c r="O40" s="54"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="42"/>
+      <c r="M40" s="42"/>
+      <c r="N40" s="42"/>
+      <c r="O40" s="42"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
       <c r="R40" s="1"/>
@@ -2219,21 +2187,21 @@
       <c r="AA40" s="1"/>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
-      <c r="N41" s="54"/>
-      <c r="O41" s="54"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="42"/>
+      <c r="L41" s="42"/>
+      <c r="M41" s="42"/>
+      <c r="N41" s="42"/>
+      <c r="O41" s="42"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
       <c r="R41" s="1"/>
@@ -2248,21 +2216,21 @@
       <c r="AA41" s="1"/>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="42"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
       <c r="R42" s="1"/>
@@ -2277,21 +2245,21 @@
       <c r="AA42" s="1"/>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
@@ -2306,21 +2274,21 @@
       <c r="AA43" s="1"/>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="54"/>
-      <c r="M44" s="54"/>
-      <c r="N44" s="54"/>
-      <c r="O44" s="54"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
@@ -2335,21 +2303,21 @@
       <c r="AA44" s="1"/>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="54"/>
-      <c r="M45" s="54"/>
-      <c r="N45" s="54"/>
-      <c r="O45" s="54"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
@@ -2364,21 +2332,21 @@
       <c r="AA45" s="1"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="54"/>
-      <c r="M46" s="54"/>
-      <c r="N46" s="54"/>
-      <c r="O46" s="54"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
@@ -2393,21 +2361,21 @@
       <c r="AA46" s="1"/>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
@@ -2422,21 +2390,21 @@
       <c r="AA47" s="1"/>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
-      <c r="K48" s="54"/>
-      <c r="L48" s="54"/>
-      <c r="M48" s="54"/>
-      <c r="N48" s="54"/>
-      <c r="O48" s="54"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="1"/>
@@ -2451,21 +2419,21 @@
       <c r="AA48" s="1"/>
     </row>
     <row r="49" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
-      <c r="K49" s="54"/>
-      <c r="L49" s="54"/>
-      <c r="M49" s="54"/>
-      <c r="N49" s="54"/>
-      <c r="O49" s="54"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="1"/>
@@ -2480,21 +2448,21 @@
       <c r="AA49" s="1"/>
     </row>
     <row r="50" spans="1:27" ht="8.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="54"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="54"/>
-      <c r="D50" s="54"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
-      <c r="J50" s="54"/>
-      <c r="K50" s="54"/>
-      <c r="L50" s="54"/>
-      <c r="M50" s="54"/>
-      <c r="N50" s="54"/>
-      <c r="O50" s="54"/>
+      <c r="A50" s="42"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="1"/>
@@ -2509,21 +2477,21 @@
       <c r="AA50" s="1"/>
     </row>
     <row r="51" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A51" s="54"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="54"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="54"/>
-      <c r="N51" s="54"/>
-      <c r="O51" s="54"/>
+      <c r="A51" s="42"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
@@ -2538,21 +2506,21 @@
       <c r="AA51" s="1"/>
     </row>
     <row r="52" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A52" s="54"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="54"/>
-      <c r="D52" s="54"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
-      <c r="K52" s="54"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="54"/>
-      <c r="N52" s="54"/>
-      <c r="O52" s="54"/>
+      <c r="A52" s="42"/>
+      <c r="B52" s="42"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="1"/>
@@ -2567,21 +2535,21 @@
       <c r="AA52" s="1"/>
     </row>
     <row r="53" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A53" s="54"/>
-      <c r="B53" s="54"/>
-      <c r="C53" s="54"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
-      <c r="K53" s="54"/>
-      <c r="L53" s="54"/>
-      <c r="M53" s="54"/>
-      <c r="N53" s="54"/>
-      <c r="O53" s="54"/>
+      <c r="A53" s="42"/>
+      <c r="B53" s="42"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="1"/>
@@ -2596,21 +2564,21 @@
       <c r="AA53" s="1"/>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A54" s="54"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="54"/>
-      <c r="D54" s="54"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
+      <c r="A54" s="42"/>
+      <c r="B54" s="42"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="1"/>
@@ -2625,21 +2593,21 @@
       <c r="AA54" s="1"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A55" s="54"/>
-      <c r="B55" s="54"/>
-      <c r="C55" s="54"/>
-      <c r="D55" s="54"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
+      <c r="A55" s="42"/>
+      <c r="B55" s="42"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
       <c r="P55" s="1"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="1"/>
@@ -2654,21 +2622,21 @@
       <c r="AA55" s="1"/>
     </row>
     <row r="56" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A56" s="54"/>
-      <c r="B56" s="54"/>
-      <c r="C56" s="54"/>
-      <c r="D56" s="54"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
+      <c r="A56" s="42"/>
+      <c r="B56" s="42"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
       <c r="P56" s="1"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="1"/>
@@ -2683,21 +2651,21 @@
       <c r="AA56" s="1"/>
     </row>
     <row r="57" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A57" s="54"/>
-      <c r="B57" s="54"/>
-      <c r="C57" s="54"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
+      <c r="A57" s="42"/>
+      <c r="B57" s="42"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
       <c r="P57" s="1"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="1"/>
@@ -2712,21 +2680,21 @@
       <c r="AA57" s="1"/>
     </row>
     <row r="58" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A58" s="54"/>
-      <c r="B58" s="54"/>
-      <c r="C58" s="54"/>
-      <c r="D58" s="54"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
+      <c r="A58" s="42"/>
+      <c r="B58" s="42"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="1"/>
@@ -2741,21 +2709,21 @@
       <c r="AA58" s="1"/>
     </row>
     <row r="59" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
+      <c r="A59" s="42"/>
+      <c r="B59" s="42"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
       <c r="P59" s="1"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="1"/>
@@ -2770,21 +2738,21 @@
       <c r="AA59" s="1"/>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
+      <c r="A60" s="42"/>
+      <c r="B60" s="42"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="1"/>
@@ -2799,21 +2767,21 @@
       <c r="AA60" s="1"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A61" s="54"/>
-      <c r="B61" s="54"/>
-      <c r="C61" s="54"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
+      <c r="A61" s="42"/>
+      <c r="B61" s="42"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
@@ -2828,21 +2796,21 @@
       <c r="AA61" s="1"/>
     </row>
     <row r="62" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A62" s="54"/>
-      <c r="B62" s="54"/>
-      <c r="C62" s="54"/>
-      <c r="D62" s="54"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
+      <c r="A62" s="42"/>
+      <c r="B62" s="42"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
       <c r="P62" s="1"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="1"/>
@@ -2857,21 +2825,21 @@
       <c r="AA62" s="1"/>
     </row>
     <row r="63" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A63" s="54"/>
-      <c r="B63" s="54"/>
-      <c r="C63" s="54"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
+      <c r="A63" s="42"/>
+      <c r="B63" s="42"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
       <c r="P63" s="1"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="1"/>
@@ -2886,21 +2854,21 @@
       <c r="AA63" s="1"/>
     </row>
     <row r="64" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A64" s="54"/>
-      <c r="B64" s="54"/>
-      <c r="C64" s="54"/>
-      <c r="D64" s="54"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
+      <c r="A64" s="42"/>
+      <c r="B64" s="42"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
       <c r="P64" s="1"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="1"/>
@@ -2915,21 +2883,21 @@
       <c r="AA64" s="1"/>
     </row>
     <row r="65" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
+      <c r="A65" s="42"/>
+      <c r="B65" s="42"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
       <c r="P65" s="1"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="1"/>
@@ -2944,21 +2912,21 @@
       <c r="AA65" s="1"/>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A66" s="54"/>
-      <c r="B66" s="54"/>
-      <c r="C66" s="54"/>
-      <c r="D66" s="54"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
+      <c r="A66" s="42"/>
+      <c r="B66" s="42"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
       <c r="P66" s="1"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="1"/>
@@ -2973,21 +2941,21 @@
       <c r="AA66" s="1"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
+      <c r="A67" s="42"/>
+      <c r="B67" s="42"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
       <c r="P67" s="1"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
@@ -3002,21 +2970,21 @@
       <c r="AA67" s="1"/>
     </row>
     <row r="68" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
+      <c r="A68" s="42"/>
+      <c r="B68" s="42"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
       <c r="P68" s="1"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="1"/>
@@ -3031,21 +2999,21 @@
       <c r="AA68" s="1"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A69" s="54"/>
-      <c r="B69" s="54"/>
-      <c r="C69" s="54"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
+      <c r="A69" s="42"/>
+      <c r="B69" s="42"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="1"/>
@@ -3060,21 +3028,21 @@
       <c r="AA69" s="1"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A70" s="54"/>
-      <c r="B70" s="54"/>
-      <c r="C70" s="54"/>
-      <c r="D70" s="54"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="54"/>
-      <c r="K70" s="54"/>
-      <c r="L70" s="54"/>
-      <c r="M70" s="54"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="54"/>
+      <c r="A70" s="42"/>
+      <c r="B70" s="42"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
@@ -3089,21 +3057,21 @@
       <c r="AA70" s="1"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A71" s="54"/>
-      <c r="B71" s="54"/>
-      <c r="C71" s="54"/>
-      <c r="D71" s="54"/>
-      <c r="E71" s="54"/>
-      <c r="F71" s="54"/>
-      <c r="G71" s="54"/>
-      <c r="H71" s="54"/>
-      <c r="I71" s="54"/>
-      <c r="J71" s="54"/>
-      <c r="K71" s="54"/>
-      <c r="L71" s="54"/>
-      <c r="M71" s="54"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="54"/>
+      <c r="A71" s="42"/>
+      <c r="B71" s="42"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
       <c r="P71" s="1"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="1"/>
@@ -3118,21 +3086,21 @@
       <c r="AA71" s="1"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A72" s="54"/>
-      <c r="B72" s="54"/>
-      <c r="C72" s="54"/>
-      <c r="D72" s="54"/>
-      <c r="E72" s="54"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="54"/>
-      <c r="H72" s="54"/>
-      <c r="I72" s="54"/>
-      <c r="J72" s="54"/>
-      <c r="K72" s="54"/>
-      <c r="L72" s="54"/>
-      <c r="M72" s="54"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="54"/>
+      <c r="A72" s="42"/>
+      <c r="B72" s="42"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
       <c r="P72" s="1"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="1"/>
@@ -3147,21 +3115,21 @@
       <c r="AA72" s="1"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
+      <c r="A73" s="42"/>
+      <c r="B73" s="42"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
       <c r="P73" s="1"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="1"/>
@@ -3176,21 +3144,21 @@
       <c r="AA73" s="1"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A74" s="54"/>
-      <c r="B74" s="54"/>
-      <c r="C74" s="54"/>
-      <c r="D74" s="54"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="54"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="54"/>
-      <c r="K74" s="54"/>
-      <c r="L74" s="54"/>
-      <c r="M74" s="54"/>
-      <c r="N74" s="54"/>
-      <c r="O74" s="54"/>
+      <c r="A74" s="42"/>
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42"/>
+      <c r="F74" s="42"/>
+      <c r="G74" s="42"/>
+      <c r="H74" s="42"/>
+      <c r="I74" s="42"/>
+      <c r="J74" s="42"/>
+      <c r="K74" s="42"/>
+      <c r="L74" s="42"/>
+      <c r="M74" s="42"/>
+      <c r="N74" s="42"/>
+      <c r="O74" s="42"/>
       <c r="P74" s="1"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="1"/>
@@ -5224,8 +5192,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AB98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P54" sqref="P54"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5239,29 +5207,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
-      <c r="S1" s="55"/>
-      <c r="T1" s="55"/>
-      <c r="U1" s="55"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="43"/>
+      <c r="U1" s="43"/>
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
       <c r="X1" s="1"/>
@@ -5271,27 +5239,27 @@
       <c r="AB1" s="1"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A2" s="55"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="55"/>
-      <c r="O2" s="55"/>
-      <c r="P2" s="55"/>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
-      <c r="S2" s="55"/>
-      <c r="T2" s="55"/>
-      <c r="U2" s="55"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="43"/>
+      <c r="U2" s="43"/>
       <c r="V2" s="1"/>
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
@@ -5301,27 +5269,27 @@
       <c r="AB2" s="1"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="55"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="55"/>
-      <c r="L3" s="55"/>
-      <c r="M3" s="55"/>
-      <c r="N3" s="55"/>
-      <c r="O3" s="55"/>
-      <c r="P3" s="55"/>
-      <c r="Q3" s="55"/>
-      <c r="R3" s="55"/>
-      <c r="S3" s="55"/>
-      <c r="T3" s="55"/>
-      <c r="U3" s="55"/>
+      <c r="A3" s="43"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -5331,27 +5299,27 @@
       <c r="AB3" s="1"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
+      <c r="A4" s="43"/>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
@@ -5361,27 +5329,27 @@
       <c r="AB4" s="1"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="55"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55"/>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
-      <c r="M5" s="55"/>
-      <c r="N5" s="55"/>
-      <c r="O5" s="55"/>
-      <c r="P5" s="55"/>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="55"/>
-      <c r="S5" s="55"/>
-      <c r="T5" s="55"/>
-      <c r="U5" s="55"/>
+      <c r="A5" s="43"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="43"/>
+      <c r="U5" s="43"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
@@ -5391,27 +5359,27 @@
       <c r="AB5" s="1"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
-      <c r="P6" s="55"/>
-      <c r="Q6" s="55"/>
-      <c r="R6" s="55"/>
-      <c r="S6" s="55"/>
-      <c r="T6" s="55"/>
-      <c r="U6" s="55"/>
+      <c r="A6" s="43"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
+      <c r="U6" s="43"/>
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
@@ -5421,27 +5389,27 @@
       <c r="AB6" s="1"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="55"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
-      <c r="S7" s="55"/>
-      <c r="T7" s="55"/>
-      <c r="U7" s="55"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43"/>
+      <c r="T7" s="43"/>
+      <c r="U7" s="43"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
@@ -5451,27 +5419,27 @@
       <c r="AB7" s="1"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="55"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
-      <c r="R8" s="55"/>
-      <c r="S8" s="55"/>
-      <c r="T8" s="55"/>
-      <c r="U8" s="55"/>
+      <c r="A8" s="43"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43"/>
+      <c r="S8" s="43"/>
+      <c r="T8" s="43"/>
+      <c r="U8" s="43"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
@@ -5481,27 +5449,27 @@
       <c r="AB8" s="1"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-      <c r="S9" s="55"/>
-      <c r="T9" s="55"/>
-      <c r="U9" s="55"/>
+      <c r="A9" s="43"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
@@ -5511,27 +5479,27 @@
       <c r="AB9" s="1"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="55"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="55"/>
-      <c r="Q10" s="55"/>
-      <c r="R10" s="55"/>
-      <c r="S10" s="55"/>
-      <c r="T10" s="55"/>
-      <c r="U10" s="55"/>
+      <c r="A10" s="43"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43"/>
+      <c r="S10" s="43"/>
+      <c r="T10" s="43"/>
+      <c r="U10" s="43"/>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
@@ -5541,27 +5509,27 @@
       <c r="AB10" s="1"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="55"/>
-      <c r="P11" s="55"/>
-      <c r="Q11" s="55"/>
-      <c r="R11" s="55"/>
-      <c r="S11" s="55"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="55"/>
+      <c r="A11" s="43"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
@@ -5571,27 +5539,27 @@
       <c r="AB11" s="1"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="55"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-      <c r="S12" s="55"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="55"/>
+      <c r="A12" s="43"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="43"/>
+      <c r="E12" s="43"/>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
+      <c r="M12" s="43"/>
+      <c r="N12" s="43"/>
+      <c r="O12" s="43"/>
+      <c r="P12" s="43"/>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+      <c r="S12" s="43"/>
+      <c r="T12" s="43"/>
+      <c r="U12" s="43"/>
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -5601,27 +5569,27 @@
       <c r="AB12" s="1"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="55"/>
-      <c r="P13" s="55"/>
-      <c r="Q13" s="55"/>
-      <c r="R13" s="55"/>
-      <c r="S13" s="55"/>
-      <c r="T13" s="55"/>
-      <c r="U13" s="55"/>
+      <c r="A13" s="43"/>
+      <c r="B13" s="43"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -5631,27 +5599,27 @@
       <c r="AB13" s="1"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="55"/>
-      <c r="P14" s="55"/>
-      <c r="Q14" s="55"/>
-      <c r="R14" s="55"/>
-      <c r="S14" s="55"/>
-      <c r="T14" s="55"/>
-      <c r="U14" s="55"/>
+      <c r="A14" s="43"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="43"/>
+      <c r="L14" s="43"/>
+      <c r="M14" s="43"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="43"/>
+      <c r="P14" s="43"/>
+      <c r="Q14" s="43"/>
+      <c r="R14" s="43"/>
+      <c r="S14" s="43"/>
+      <c r="T14" s="43"/>
+      <c r="U14" s="43"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
@@ -5661,27 +5629,27 @@
       <c r="AB14" s="1"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="55"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="55"/>
-      <c r="P15" s="55"/>
-      <c r="Q15" s="55"/>
-      <c r="R15" s="55"/>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="55"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="43"/>
+      <c r="L15" s="43"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="43"/>
+      <c r="O15" s="43"/>
+      <c r="P15" s="43"/>
+      <c r="Q15" s="43"/>
+      <c r="R15" s="43"/>
+      <c r="S15" s="43"/>
+      <c r="T15" s="43"/>
+      <c r="U15" s="43"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
@@ -5691,27 +5659,27 @@
       <c r="AB15" s="1"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="55"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
+      <c r="A16" s="43"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
+      <c r="M16" s="43"/>
+      <c r="N16" s="43"/>
+      <c r="O16" s="43"/>
+      <c r="P16" s="43"/>
+      <c r="Q16" s="43"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="43"/>
+      <c r="T16" s="43"/>
+      <c r="U16" s="43"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
@@ -5721,27 +5689,27 @@
       <c r="AB16" s="1"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="55"/>
-      <c r="O17" s="55"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="55"/>
-      <c r="R17" s="55"/>
-      <c r="S17" s="55"/>
-      <c r="T17" s="55"/>
-      <c r="U17" s="55"/>
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="43"/>
+      <c r="N17" s="43"/>
+      <c r="O17" s="43"/>
+      <c r="P17" s="43"/>
+      <c r="Q17" s="43"/>
+      <c r="R17" s="43"/>
+      <c r="S17" s="43"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="43"/>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
@@ -5751,27 +5719,27 @@
       <c r="AB17" s="1"/>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="55"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
-      <c r="K18" s="55"/>
-      <c r="L18" s="55"/>
-      <c r="M18" s="55"/>
-      <c r="N18" s="55"/>
-      <c r="O18" s="55"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="55"/>
-      <c r="R18" s="55"/>
-      <c r="S18" s="55"/>
-      <c r="T18" s="55"/>
-      <c r="U18" s="55"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="43"/>
+      <c r="P18" s="43"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1"/>
@@ -5781,27 +5749,27 @@
       <c r="AB18" s="1"/>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
-      <c r="K19" s="55"/>
-      <c r="L19" s="55"/>
-      <c r="M19" s="55"/>
-      <c r="N19" s="55"/>
-      <c r="O19" s="55"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="55"/>
-      <c r="R19" s="55"/>
-      <c r="S19" s="55"/>
-      <c r="T19" s="55"/>
-      <c r="U19" s="55"/>
+      <c r="A19" s="43"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="43"/>
+      <c r="N19" s="43"/>
+      <c r="O19" s="43"/>
+      <c r="P19" s="43"/>
+      <c r="Q19" s="43"/>
+      <c r="R19" s="43"/>
+      <c r="S19" s="43"/>
+      <c r="T19" s="43"/>
+      <c r="U19" s="43"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
       <c r="X19" s="1"/>
@@ -5811,27 +5779,27 @@
       <c r="AB19" s="1"/>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="55"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
-      <c r="L20" s="55"/>
-      <c r="M20" s="55"/>
-      <c r="N20" s="55"/>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
-      <c r="R20" s="55"/>
-      <c r="S20" s="55"/>
-      <c r="T20" s="55"/>
-      <c r="U20" s="55"/>
+      <c r="A20" s="43"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+      <c r="I20" s="43"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="43"/>
+      <c r="R20" s="43"/>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
       <c r="X20" s="1"/>
@@ -5841,27 +5809,27 @@
       <c r="AB20" s="1"/>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="55"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
-      <c r="L21" s="55"/>
-      <c r="M21" s="55"/>
-      <c r="N21" s="55"/>
-      <c r="O21" s="55"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="55"/>
-      <c r="R21" s="55"/>
-      <c r="S21" s="55"/>
-      <c r="T21" s="55"/>
-      <c r="U21" s="55"/>
+      <c r="A21" s="43"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43"/>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="43"/>
+      <c r="S21" s="43"/>
+      <c r="T21" s="43"/>
+      <c r="U21" s="43"/>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -5871,27 +5839,27 @@
       <c r="AB21" s="1"/>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A22" s="55"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-      <c r="P22" s="55"/>
-      <c r="Q22" s="55"/>
-      <c r="R22" s="55"/>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
+      <c r="A22" s="43"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
       <c r="X22" s="1"/>
@@ -5901,27 +5869,27 @@
       <c r="AB22" s="1"/>
     </row>
     <row r="23" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
-      <c r="L23" s="55"/>
-      <c r="M23" s="55"/>
-      <c r="N23" s="55"/>
-      <c r="O23" s="55"/>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="55"/>
-      <c r="R23" s="55"/>
-      <c r="S23" s="55"/>
-      <c r="T23" s="55"/>
-      <c r="U23" s="55"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43"/>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="43"/>
+      <c r="S23" s="43"/>
+      <c r="T23" s="43"/>
+      <c r="U23" s="43"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
@@ -5931,27 +5899,27 @@
       <c r="AB23" s="1"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
-      <c r="L24" s="55"/>
-      <c r="M24" s="55"/>
-      <c r="N24" s="55"/>
-      <c r="O24" s="55"/>
-      <c r="P24" s="55"/>
-      <c r="Q24" s="55"/>
-      <c r="R24" s="55"/>
-      <c r="S24" s="55"/>
-      <c r="T24" s="55"/>
-      <c r="U24" s="55"/>
+      <c r="A24" s="43"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="43"/>
+      <c r="M24" s="43"/>
+      <c r="N24" s="43"/>
+      <c r="O24" s="43"/>
+      <c r="P24" s="43"/>
+      <c r="Q24" s="43"/>
+      <c r="R24" s="43"/>
+      <c r="S24" s="43"/>
+      <c r="T24" s="43"/>
+      <c r="U24" s="43"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
@@ -5961,27 +5929,27 @@
       <c r="AB24" s="1"/>
     </row>
     <row r="25" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="55"/>
-      <c r="N25" s="55"/>
-      <c r="O25" s="55"/>
-      <c r="P25" s="55"/>
-      <c r="Q25" s="55"/>
-      <c r="R25" s="55"/>
-      <c r="S25" s="55"/>
-      <c r="T25" s="55"/>
-      <c r="U25" s="55"/>
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="43"/>
+      <c r="L25" s="43"/>
+      <c r="M25" s="43"/>
+      <c r="N25" s="43"/>
+      <c r="O25" s="43"/>
+      <c r="P25" s="43"/>
+      <c r="Q25" s="43"/>
+      <c r="R25" s="43"/>
+      <c r="S25" s="43"/>
+      <c r="T25" s="43"/>
+      <c r="U25" s="43"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
@@ -5991,27 +5959,27 @@
       <c r="AB25" s="1"/>
     </row>
     <row r="26" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
-      <c r="K26" s="55"/>
-      <c r="L26" s="55"/>
-      <c r="M26" s="55"/>
-      <c r="N26" s="55"/>
-      <c r="O26" s="55"/>
-      <c r="P26" s="55"/>
-      <c r="Q26" s="55"/>
-      <c r="R26" s="55"/>
-      <c r="S26" s="55"/>
-      <c r="T26" s="55"/>
-      <c r="U26" s="55"/>
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="43"/>
+      <c r="L26" s="43"/>
+      <c r="M26" s="43"/>
+      <c r="N26" s="43"/>
+      <c r="O26" s="43"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
@@ -6021,27 +5989,27 @@
       <c r="AB26" s="1"/>
     </row>
     <row r="27" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="55"/>
-      <c r="M27" s="55"/>
-      <c r="N27" s="55"/>
-      <c r="O27" s="55"/>
-      <c r="P27" s="55"/>
-      <c r="Q27" s="55"/>
-      <c r="R27" s="55"/>
-      <c r="S27" s="55"/>
-      <c r="T27" s="55"/>
-      <c r="U27" s="55"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="43"/>
+      <c r="L27" s="43"/>
+      <c r="M27" s="43"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="43"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -6051,27 +6019,27 @@
       <c r="AB27" s="1"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
-      <c r="K28" s="55"/>
-      <c r="L28" s="55"/>
-      <c r="M28" s="55"/>
-      <c r="N28" s="55"/>
-      <c r="O28" s="55"/>
-      <c r="P28" s="55"/>
-      <c r="Q28" s="55"/>
-      <c r="R28" s="55"/>
-      <c r="S28" s="55"/>
-      <c r="T28" s="55"/>
-      <c r="U28" s="55"/>
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="43"/>
+      <c r="L28" s="43"/>
+      <c r="M28" s="43"/>
+      <c r="N28" s="43"/>
+      <c r="O28" s="43"/>
+      <c r="P28" s="43"/>
+      <c r="Q28" s="43"/>
+      <c r="R28" s="43"/>
+      <c r="S28" s="43"/>
+      <c r="T28" s="43"/>
+      <c r="U28" s="43"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
@@ -6081,27 +6049,27 @@
       <c r="AB28" s="1"/>
     </row>
     <row r="29" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="55"/>
-      <c r="M29" s="55"/>
-      <c r="N29" s="55"/>
-      <c r="O29" s="55"/>
-      <c r="P29" s="55"/>
-      <c r="Q29" s="55"/>
-      <c r="R29" s="55"/>
-      <c r="S29" s="55"/>
-      <c r="T29" s="55"/>
-      <c r="U29" s="55"/>
+      <c r="A29" s="43"/>
+      <c r="B29" s="43"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="43"/>
+      <c r="I29" s="43"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="43"/>
+      <c r="L29" s="43"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="43"/>
+      <c r="O29" s="43"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="43"/>
+      <c r="R29" s="43"/>
+      <c r="S29" s="43"/>
+      <c r="T29" s="43"/>
+      <c r="U29" s="43"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
       <c r="X29" s="1"/>
@@ -6111,27 +6079,27 @@
       <c r="AB29" s="1"/>
     </row>
     <row r="30" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="55"/>
-      <c r="L30" s="55"/>
-      <c r="M30" s="55"/>
-      <c r="N30" s="55"/>
-      <c r="O30" s="55"/>
-      <c r="P30" s="55"/>
-      <c r="Q30" s="55"/>
-      <c r="R30" s="55"/>
-      <c r="S30" s="55"/>
-      <c r="T30" s="55"/>
-      <c r="U30" s="55"/>
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="43"/>
+      <c r="L30" s="43"/>
+      <c r="M30" s="43"/>
+      <c r="N30" s="43"/>
+      <c r="O30" s="43"/>
+      <c r="P30" s="43"/>
+      <c r="Q30" s="43"/>
+      <c r="R30" s="43"/>
+      <c r="S30" s="43"/>
+      <c r="T30" s="43"/>
+      <c r="U30" s="43"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
       <c r="X30" s="1"/>
@@ -6141,27 +6109,27 @@
       <c r="AB30" s="1"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="55"/>
-      <c r="L31" s="55"/>
-      <c r="M31" s="55"/>
-      <c r="N31" s="55"/>
-      <c r="O31" s="55"/>
-      <c r="P31" s="55"/>
-      <c r="Q31" s="55"/>
-      <c r="R31" s="55"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
+      <c r="A31" s="43"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="43"/>
+      <c r="I31" s="43"/>
+      <c r="J31" s="43"/>
+      <c r="K31" s="43"/>
+      <c r="L31" s="43"/>
+      <c r="M31" s="43"/>
+      <c r="N31" s="43"/>
+      <c r="O31" s="43"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="43"/>
+      <c r="R31" s="43"/>
+      <c r="S31" s="43"/>
+      <c r="T31" s="43"/>
+      <c r="U31" s="43"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
@@ -6171,27 +6139,27 @@
       <c r="AB31" s="1"/>
     </row>
     <row r="32" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="55"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="55"/>
-      <c r="L32" s="55"/>
-      <c r="M32" s="55"/>
-      <c r="N32" s="55"/>
-      <c r="O32" s="55"/>
-      <c r="P32" s="55"/>
-      <c r="Q32" s="55"/>
-      <c r="R32" s="55"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43"/>
+      <c r="K32" s="43"/>
+      <c r="L32" s="43"/>
+      <c r="M32" s="43"/>
+      <c r="N32" s="43"/>
+      <c r="O32" s="43"/>
+      <c r="P32" s="43"/>
+      <c r="Q32" s="43"/>
+      <c r="R32" s="43"/>
+      <c r="S32" s="43"/>
+      <c r="T32" s="43"/>
+      <c r="U32" s="43"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
@@ -6201,27 +6169,27 @@
       <c r="AB32" s="1"/>
     </row>
     <row r="33" spans="1:28" ht="9.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
-      <c r="K33" s="55"/>
-      <c r="L33" s="55"/>
-      <c r="M33" s="55"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="55"/>
-      <c r="P33" s="55"/>
-      <c r="Q33" s="55"/>
-      <c r="R33" s="55"/>
-      <c r="S33" s="55"/>
-      <c r="T33" s="55"/>
-      <c r="U33" s="55"/>
+      <c r="A33" s="43"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="43"/>
+      <c r="F33" s="43"/>
+      <c r="G33" s="43"/>
+      <c r="H33" s="43"/>
+      <c r="I33" s="43"/>
+      <c r="J33" s="43"/>
+      <c r="K33" s="43"/>
+      <c r="L33" s="43"/>
+      <c r="M33" s="43"/>
+      <c r="N33" s="43"/>
+      <c r="O33" s="43"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
+      <c r="T33" s="43"/>
+      <c r="U33" s="43"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
@@ -6231,27 +6199,27 @@
       <c r="AB33" s="1"/>
     </row>
     <row r="34" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="55"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="55"/>
-      <c r="L34" s="55"/>
-      <c r="M34" s="55"/>
-      <c r="N34" s="55"/>
-      <c r="O34" s="55"/>
-      <c r="P34" s="55"/>
-      <c r="Q34" s="55"/>
-      <c r="R34" s="55"/>
-      <c r="S34" s="55"/>
-      <c r="T34" s="55"/>
-      <c r="U34" s="55"/>
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="43"/>
+      <c r="L34" s="43"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="43"/>
+      <c r="O34" s="43"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="43"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="43"/>
+      <c r="T34" s="43"/>
+      <c r="U34" s="43"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -6261,27 +6229,27 @@
       <c r="AB34" s="1"/>
     </row>
     <row r="35" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="55"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="55"/>
-      <c r="L35" s="55"/>
-      <c r="M35" s="55"/>
-      <c r="N35" s="55"/>
-      <c r="O35" s="55"/>
-      <c r="P35" s="55"/>
-      <c r="Q35" s="55"/>
-      <c r="R35" s="55"/>
-      <c r="S35" s="55"/>
-      <c r="T35" s="55"/>
-      <c r="U35" s="55"/>
+      <c r="A35" s="43"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+      <c r="I35" s="43"/>
+      <c r="J35" s="43"/>
+      <c r="K35" s="43"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="43"/>
+      <c r="O35" s="43"/>
+      <c r="P35" s="43"/>
+      <c r="Q35" s="43"/>
+      <c r="R35" s="43"/>
+      <c r="S35" s="43"/>
+      <c r="T35" s="43"/>
+      <c r="U35" s="43"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -6291,27 +6259,27 @@
       <c r="AB35" s="1"/>
     </row>
     <row r="36" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="55"/>
-      <c r="N36" s="55"/>
-      <c r="O36" s="55"/>
-      <c r="P36" s="55"/>
-      <c r="Q36" s="55"/>
-      <c r="R36" s="55"/>
-      <c r="S36" s="55"/>
-      <c r="T36" s="55"/>
-      <c r="U36" s="55"/>
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43"/>
+      <c r="K36" s="43"/>
+      <c r="L36" s="43"/>
+      <c r="M36" s="43"/>
+      <c r="N36" s="43"/>
+      <c r="O36" s="43"/>
+      <c r="P36" s="43"/>
+      <c r="Q36" s="43"/>
+      <c r="R36" s="43"/>
+      <c r="S36" s="43"/>
+      <c r="T36" s="43"/>
+      <c r="U36" s="43"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -6321,27 +6289,27 @@
       <c r="AB36" s="1"/>
     </row>
     <row r="37" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="55"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="55"/>
-      <c r="K37" s="55"/>
-      <c r="L37" s="55"/>
-      <c r="M37" s="55"/>
-      <c r="N37" s="55"/>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="R37" s="55"/>
-      <c r="S37" s="55"/>
-      <c r="T37" s="55"/>
-      <c r="U37" s="55"/>
+      <c r="A37" s="43"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
+      <c r="K37" s="43"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="43"/>
+      <c r="N37" s="43"/>
+      <c r="O37" s="43"/>
+      <c r="P37" s="43"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
+      <c r="T37" s="43"/>
+      <c r="U37" s="43"/>
       <c r="V37" s="1"/>
       <c r="W37" s="1"/>
       <c r="X37" s="1"/>
@@ -6351,27 +6319,27 @@
       <c r="AB37" s="1"/>
     </row>
     <row r="38" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A38" s="55"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="55"/>
-      <c r="K38" s="55"/>
-      <c r="L38" s="55"/>
-      <c r="M38" s="55"/>
-      <c r="N38" s="55"/>
-      <c r="O38" s="55"/>
-      <c r="P38" s="55"/>
-      <c r="Q38" s="55"/>
-      <c r="R38" s="55"/>
-      <c r="S38" s="55"/>
-      <c r="T38" s="55"/>
-      <c r="U38" s="55"/>
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43"/>
+      <c r="K38" s="43"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="43"/>
+      <c r="N38" s="43"/>
+      <c r="O38" s="43"/>
+      <c r="P38" s="43"/>
+      <c r="Q38" s="43"/>
+      <c r="R38" s="43"/>
+      <c r="S38" s="43"/>
+      <c r="T38" s="43"/>
+      <c r="U38" s="43"/>
       <c r="V38" s="1"/>
       <c r="W38" s="1"/>
       <c r="X38" s="1"/>
@@ -6381,27 +6349,27 @@
       <c r="AB38" s="1"/>
     </row>
     <row r="39" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A39" s="55"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="55"/>
-      <c r="J39" s="55"/>
-      <c r="K39" s="55"/>
-      <c r="L39" s="55"/>
-      <c r="M39" s="55"/>
-      <c r="N39" s="55"/>
-      <c r="O39" s="55"/>
-      <c r="P39" s="55"/>
-      <c r="Q39" s="55"/>
-      <c r="R39" s="55"/>
-      <c r="S39" s="55"/>
-      <c r="T39" s="55"/>
-      <c r="U39" s="55"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="43"/>
+      <c r="G39" s="43"/>
+      <c r="H39" s="43"/>
+      <c r="I39" s="43"/>
+      <c r="J39" s="43"/>
+      <c r="K39" s="43"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="43"/>
+      <c r="N39" s="43"/>
+      <c r="O39" s="43"/>
+      <c r="P39" s="43"/>
+      <c r="Q39" s="43"/>
+      <c r="R39" s="43"/>
+      <c r="S39" s="43"/>
+      <c r="T39" s="43"/>
+      <c r="U39" s="43"/>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -6411,27 +6379,27 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A40" s="55"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="55"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="55"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="55"/>
-      <c r="L40" s="55"/>
-      <c r="M40" s="55"/>
-      <c r="N40" s="55"/>
-      <c r="O40" s="55"/>
-      <c r="P40" s="55"/>
-      <c r="Q40" s="55"/>
-      <c r="R40" s="55"/>
-      <c r="S40" s="55"/>
-      <c r="T40" s="55"/>
-      <c r="U40" s="55"/>
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="43"/>
+      <c r="N40" s="43"/>
+      <c r="O40" s="43"/>
+      <c r="P40" s="43"/>
+      <c r="Q40" s="43"/>
+      <c r="R40" s="43"/>
+      <c r="S40" s="43"/>
+      <c r="T40" s="43"/>
+      <c r="U40" s="43"/>
       <c r="V40" s="1"/>
       <c r="W40" s="1"/>
       <c r="X40" s="1"/>
@@ -6441,27 +6409,27 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A41" s="55"/>
-      <c r="B41" s="55"/>
-      <c r="C41" s="55"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="55"/>
-      <c r="L41" s="55"/>
-      <c r="M41" s="55"/>
-      <c r="N41" s="55"/>
-      <c r="O41" s="55"/>
-      <c r="P41" s="55"/>
-      <c r="Q41" s="55"/>
-      <c r="R41" s="55"/>
-      <c r="S41" s="55"/>
-      <c r="T41" s="55"/>
-      <c r="U41" s="55"/>
+      <c r="A41" s="43"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="43"/>
+      <c r="G41" s="43"/>
+      <c r="H41" s="43"/>
+      <c r="I41" s="43"/>
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+      <c r="M41" s="43"/>
+      <c r="N41" s="43"/>
+      <c r="O41" s="43"/>
+      <c r="P41" s="43"/>
+      <c r="Q41" s="43"/>
+      <c r="R41" s="43"/>
+      <c r="S41" s="43"/>
+      <c r="T41" s="43"/>
+      <c r="U41" s="43"/>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
@@ -6471,27 +6439,27 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A42" s="55"/>
-      <c r="B42" s="55"/>
-      <c r="C42" s="55"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="55"/>
-      <c r="L42" s="55"/>
-      <c r="M42" s="55"/>
-      <c r="N42" s="55"/>
-      <c r="O42" s="55"/>
-      <c r="P42" s="55"/>
-      <c r="Q42" s="55"/>
-      <c r="R42" s="55"/>
-      <c r="S42" s="55"/>
-      <c r="T42" s="55"/>
-      <c r="U42" s="55"/>
+      <c r="A42" s="43"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="43"/>
+      <c r="G42" s="43"/>
+      <c r="H42" s="43"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="43"/>
+      <c r="K42" s="43"/>
+      <c r="L42" s="43"/>
+      <c r="M42" s="43"/>
+      <c r="N42" s="43"/>
+      <c r="O42" s="43"/>
+      <c r="P42" s="43"/>
+      <c r="Q42" s="43"/>
+      <c r="R42" s="43"/>
+      <c r="S42" s="43"/>
+      <c r="T42" s="43"/>
+      <c r="U42" s="43"/>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
@@ -6501,27 +6469,27 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55"/>
-      <c r="C43" s="55"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="55"/>
-      <c r="F43" s="55"/>
-      <c r="G43" s="55"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="55"/>
-      <c r="J43" s="55"/>
-      <c r="K43" s="55"/>
-      <c r="L43" s="55"/>
-      <c r="M43" s="55"/>
-      <c r="N43" s="55"/>
-      <c r="O43" s="55"/>
-      <c r="P43" s="55"/>
-      <c r="Q43" s="55"/>
-      <c r="R43" s="55"/>
-      <c r="S43" s="55"/>
-      <c r="T43" s="55"/>
-      <c r="U43" s="55"/>
+      <c r="A43" s="43"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="43"/>
+      <c r="G43" s="43"/>
+      <c r="H43" s="43"/>
+      <c r="I43" s="43"/>
+      <c r="J43" s="43"/>
+      <c r="K43" s="43"/>
+      <c r="L43" s="43"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="43"/>
+      <c r="O43" s="43"/>
+      <c r="P43" s="43"/>
+      <c r="Q43" s="43"/>
+      <c r="R43" s="43"/>
+      <c r="S43" s="43"/>
+      <c r="T43" s="43"/>
+      <c r="U43" s="43"/>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
@@ -6531,27 +6499,27 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A44" s="55"/>
-      <c r="B44" s="55"/>
-      <c r="C44" s="55"/>
-      <c r="D44" s="55"/>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="55"/>
-      <c r="R44" s="55"/>
-      <c r="S44" s="55"/>
-      <c r="T44" s="55"/>
-      <c r="U44" s="55"/>
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
@@ -6561,27 +6529,27 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55"/>
-      <c r="C45" s="55"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="55"/>
-      <c r="L45" s="55"/>
-      <c r="M45" s="55"/>
-      <c r="N45" s="55"/>
-      <c r="O45" s="55"/>
-      <c r="P45" s="55"/>
-      <c r="Q45" s="55"/>
-      <c r="R45" s="55"/>
-      <c r="S45" s="55"/>
-      <c r="T45" s="55"/>
-      <c r="U45" s="55"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="43"/>
+      <c r="I45" s="43"/>
+      <c r="J45" s="43"/>
+      <c r="K45" s="43"/>
+      <c r="L45" s="43"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
+      <c r="O45" s="43"/>
+      <c r="P45" s="43"/>
+      <c r="Q45" s="43"/>
+      <c r="R45" s="43"/>
+      <c r="S45" s="43"/>
+      <c r="T45" s="43"/>
+      <c r="U45" s="43"/>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
@@ -6591,27 +6559,27 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A46" s="55"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="55"/>
-      <c r="D46" s="55"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="55"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="55"/>
-      <c r="L46" s="55"/>
-      <c r="M46" s="55"/>
-      <c r="N46" s="55"/>
-      <c r="O46" s="55"/>
-      <c r="P46" s="55"/>
-      <c r="Q46" s="55"/>
-      <c r="R46" s="55"/>
-      <c r="S46" s="55"/>
-      <c r="T46" s="55"/>
-      <c r="U46" s="55"/>
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43"/>
+      <c r="K46" s="43"/>
+      <c r="L46" s="43"/>
+      <c r="M46" s="43"/>
+      <c r="N46" s="43"/>
+      <c r="O46" s="43"/>
+      <c r="P46" s="43"/>
+      <c r="Q46" s="43"/>
+      <c r="R46" s="43"/>
+      <c r="S46" s="43"/>
+      <c r="T46" s="43"/>
+      <c r="U46" s="43"/>
       <c r="V46" s="1"/>
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
@@ -6621,27 +6589,27 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55"/>
-      <c r="C47" s="55"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="55"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="55"/>
-      <c r="J47" s="55"/>
-      <c r="K47" s="55"/>
-      <c r="L47" s="55"/>
-      <c r="M47" s="55"/>
-      <c r="N47" s="55"/>
-      <c r="O47" s="55"/>
-      <c r="P47" s="55"/>
-      <c r="Q47" s="55"/>
-      <c r="R47" s="55"/>
-      <c r="S47" s="55"/>
-      <c r="T47" s="55"/>
-      <c r="U47" s="55"/>
+      <c r="A47" s="43"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="43"/>
+      <c r="G47" s="43"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="43"/>
+      <c r="J47" s="43"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="43"/>
+      <c r="M47" s="43"/>
+      <c r="N47" s="43"/>
+      <c r="O47" s="43"/>
+      <c r="P47" s="43"/>
+      <c r="Q47" s="43"/>
+      <c r="R47" s="43"/>
+      <c r="S47" s="43"/>
+      <c r="T47" s="43"/>
+      <c r="U47" s="43"/>
       <c r="V47" s="1"/>
       <c r="W47" s="1"/>
       <c r="X47" s="1"/>
@@ -6651,27 +6619,27 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A48" s="55"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="55"/>
-      <c r="D48" s="55"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="55"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="55"/>
-      <c r="J48" s="55"/>
-      <c r="K48" s="55"/>
-      <c r="L48" s="55"/>
-      <c r="M48" s="55"/>
-      <c r="N48" s="55"/>
-      <c r="O48" s="55"/>
-      <c r="P48" s="55"/>
-      <c r="Q48" s="55"/>
-      <c r="R48" s="55"/>
-      <c r="S48" s="55"/>
-      <c r="T48" s="55"/>
-      <c r="U48" s="55"/>
+      <c r="A48" s="43"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
       <c r="V48" s="1"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
@@ -6681,27 +6649,27 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A49" s="55"/>
-      <c r="B49" s="55"/>
-      <c r="C49" s="55"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="55"/>
-      <c r="K49" s="55"/>
-      <c r="L49" s="55"/>
-      <c r="M49" s="55"/>
-      <c r="N49" s="55"/>
-      <c r="O49" s="55"/>
-      <c r="P49" s="55"/>
-      <c r="Q49" s="55"/>
-      <c r="R49" s="55"/>
-      <c r="S49" s="55"/>
-      <c r="T49" s="55"/>
-      <c r="U49" s="55"/>
+      <c r="A49" s="43"/>
+      <c r="B49" s="43"/>
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="43"/>
+      <c r="K49" s="43"/>
+      <c r="L49" s="43"/>
+      <c r="M49" s="43"/>
+      <c r="N49" s="43"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="43"/>
+      <c r="Q49" s="43"/>
+      <c r="R49" s="43"/>
+      <c r="S49" s="43"/>
+      <c r="T49" s="43"/>
+      <c r="U49" s="43"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
@@ -6710,28 +6678,28 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
     </row>
-    <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="56"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="56"/>
-      <c r="G50" s="56"/>
-      <c r="H50" s="56"/>
-      <c r="I50" s="56"/>
-      <c r="J50" s="56"/>
-      <c r="K50" s="56"/>
-      <c r="L50" s="56"/>
-      <c r="M50" s="56"/>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="56"/>
-      <c r="R50" s="56"/>
-      <c r="S50" s="56"/>
-      <c r="T50" s="56"/>
-      <c r="U50" s="56"/>
+    <row r="50" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A50" s="43"/>
+      <c r="B50" s="43"/>
+      <c r="C50" s="43"/>
+      <c r="D50" s="43"/>
+      <c r="E50" s="43"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
+      <c r="H50" s="43"/>
+      <c r="I50" s="43"/>
+      <c r="J50" s="43"/>
+      <c r="K50" s="43"/>
+      <c r="L50" s="43"/>
+      <c r="M50" s="43"/>
+      <c r="N50" s="43"/>
+      <c r="O50" s="43"/>
+      <c r="P50" s="43"/>
+      <c r="Q50" s="43"/>
+      <c r="R50" s="43"/>
+      <c r="S50" s="43"/>
+      <c r="T50" s="43"/>
+      <c r="U50" s="43"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
@@ -6740,58 +6708,58 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
     </row>
-    <row r="51" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="33"/>
-      <c r="B51" s="36" t="s">
+    <row r="51" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51" s="35"/>
+      <c r="B51" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="E51" s="40" t="s">
+      <c r="E51" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="F51" s="40" t="s">
+      <c r="F51" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="G51" s="40" t="s">
+      <c r="G51" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="H51" s="45" t="s">
+      <c r="H51" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="I51" s="45" t="s">
+      <c r="I51" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="K51" s="40" t="s">
+      <c r="K51" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="L51" s="40" t="s">
+      <c r="L51" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="M51" s="40" t="s">
+      <c r="M51" s="50" t="s">
         <v>34</v>
       </c>
-      <c r="N51" s="40" t="s">
+      <c r="N51" s="50" t="s">
         <v>35</v>
       </c>
       <c r="O51" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="P51" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q51" s="35"/>
-      <c r="R51" s="35"/>
-      <c r="S51" s="33"/>
-      <c r="T51" s="33"/>
-      <c r="U51" s="32"/>
+      <c r="P51" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q51" s="11"/>
+      <c r="R51" s="11"/>
+      <c r="S51" s="11"/>
+      <c r="T51" s="11"/>
+      <c r="U51" s="11"/>
       <c r="V51" s="4"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
@@ -6800,58 +6768,58 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
     </row>
-    <row r="52" spans="1:28" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="33"/>
-      <c r="B52" s="34" t="s">
+    <row r="52" spans="1:28" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52" s="35"/>
+      <c r="B52" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="41" t="s">
+      <c r="D52" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="44" t="s">
+      <c r="E52" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="F52" s="41" t="s">
+      <c r="F52" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="G52" s="41" t="s">
+      <c r="G52" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="I52" s="46" t="s">
+      <c r="I52" s="48" t="s">
         <v>57</v>
       </c>
-      <c r="J52" s="46" t="s">
+      <c r="J52" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="K52" s="41" t="s">
+      <c r="K52" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="L52" s="46" t="s">
+      <c r="L52" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="M52" s="41" t="s">
+      <c r="M52" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="N52" s="41" t="s">
+      <c r="N52" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="O52" s="41" t="s">
+      <c r="O52" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="P52" s="41" t="s">
+      <c r="P52" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="Q52" s="35"/>
-      <c r="R52" s="35"/>
-      <c r="S52" s="33"/>
-      <c r="T52" s="33"/>
-      <c r="U52" s="4"/>
+      <c r="Q52" s="11"/>
+      <c r="R52" s="11"/>
+      <c r="S52" s="11"/>
+      <c r="T52" s="11"/>
+      <c r="U52" s="11"/>
       <c r="V52" s="4"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
@@ -6861,56 +6829,56 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A53" s="37"/>
-      <c r="B53" s="38" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C53" s="42" t="s">
+      <c r="C53" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="E53" s="42" t="s">
+      <c r="E53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F53" s="42" t="s">
+      <c r="F53" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G53" s="42" t="s">
+      <c r="G53" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="H53" s="42" t="s">
+      <c r="H53" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="I53" s="42" t="s">
+      <c r="I53" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="J53" s="42" t="s">
+      <c r="J53" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="K53" s="47" t="s">
+      <c r="K53" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="L53" s="42" t="s">
+      <c r="L53" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="M53" s="48" t="s">
+      <c r="M53" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="N53" s="50" t="s">
+      <c r="N53" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="O53" s="52" t="s">
+      <c r="O53" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="P53" s="42" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="39"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="37"/>
+      <c r="P53" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q53" s="11"/>
+      <c r="R53" s="11"/>
+      <c r="S53" s="11"/>
+      <c r="T53" s="11"/>
       <c r="U53" s="11"/>
       <c r="V53" s="11"/>
       <c r="W53" s="1"/>
@@ -6923,22 +6891,22 @@
     <row r="54" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="43"/>
-      <c r="J54" s="43"/>
-      <c r="K54" s="43"/>
-      <c r="L54" s="43" t="s">
+      <c r="C54" s="32"/>
+      <c r="D54" s="32"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="32"/>
+      <c r="H54" s="32"/>
+      <c r="I54" s="32"/>
+      <c r="J54" s="32"/>
+      <c r="K54" s="32"/>
+      <c r="L54" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="M54" s="49"/>
-      <c r="N54" s="43"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="43"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="34"/>
+      <c r="P54" s="32"/>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -8026,642 +7994,642 @@
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
       <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
       <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
       <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
       <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
       <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
       <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
       <c r="K23" s="1"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
       <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="54"/>
-      <c r="I33" s="54"/>
-      <c r="J33" s="54"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="42"/>
+      <c r="C33" s="42"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="54"/>
-      <c r="B34" s="54"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="54"/>
-      <c r="G34" s="54"/>
-      <c r="H34" s="54"/>
-      <c r="I34" s="54"/>
-      <c r="J34" s="54"/>
+      <c r="A34" s="42"/>
+      <c r="B34" s="42"/>
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="54"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="54"/>
-      <c r="H35" s="54"/>
-      <c r="I35" s="54"/>
-      <c r="J35" s="54"/>
+      <c r="A35" s="42"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
       <c r="K35" s="1"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="54"/>
-      <c r="B36" s="54"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="54"/>
-      <c r="J36" s="54"/>
+      <c r="A36" s="42"/>
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="C37" s="54"/>
-      <c r="D37" s="54"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="G37" s="54"/>
-      <c r="H37" s="54"/>
-      <c r="I37" s="54"/>
-      <c r="J37" s="54"/>
+      <c r="A37" s="42"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="54"/>
-      <c r="I38" s="54"/>
-      <c r="J38" s="54"/>
+      <c r="A38" s="42"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="54"/>
-      <c r="B39" s="54"/>
-      <c r="C39" s="54"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="54"/>
-      <c r="H39" s="54"/>
-      <c r="I39" s="54"/>
-      <c r="J39" s="54"/>
+      <c r="A39" s="42"/>
+      <c r="B39" s="42"/>
+      <c r="C39" s="42"/>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="54"/>
-      <c r="B40" s="54"/>
-      <c r="C40" s="54"/>
-      <c r="D40" s="54"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="54"/>
-      <c r="H40" s="54"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="54"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="42"/>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
       <c r="K40" s="1"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="54"/>
-      <c r="B41" s="54"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="42"/>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="42"/>
+      <c r="J41" s="42"/>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
+      <c r="A42" s="42"/>
+      <c r="B42" s="42"/>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="42"/>
+      <c r="J42" s="42"/>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="42"/>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
       <c r="K43" s="1"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="54"/>
-      <c r="B44" s="54"/>
-      <c r="C44" s="54"/>
-      <c r="D44" s="54"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="54"/>
+      <c r="A44" s="42"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="54"/>
-      <c r="B45" s="54"/>
-      <c r="C45" s="54"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="54"/>
-      <c r="G45" s="54"/>
-      <c r="H45" s="54"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="54"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="54"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="54"/>
-      <c r="D46" s="54"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="54"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="54"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="42"/>
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="42"/>
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="54"/>
-      <c r="B48" s="54"/>
-      <c r="C48" s="54"/>
-      <c r="D48" s="54"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="54"/>
-      <c r="G48" s="54"/>
-      <c r="H48" s="54"/>
-      <c r="I48" s="54"/>
-      <c r="J48" s="54"/>
+      <c r="A48" s="42"/>
+      <c r="B48" s="42"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="54"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="54"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="54"/>
-      <c r="G49" s="54"/>
-      <c r="H49" s="54"/>
-      <c r="I49" s="54"/>
-      <c r="J49" s="54"/>
+      <c r="A49" s="42"/>
+      <c r="B49" s="42"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
@@ -9336,582 +9304,582 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
-      <c r="P1" s="54"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="42"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
+      <c r="O2" s="42"/>
+      <c r="P2" s="42"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="54"/>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="54"/>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
-      <c r="K3" s="54"/>
-      <c r="L3" s="54"/>
-      <c r="M3" s="54"/>
-      <c r="N3" s="54"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54"/>
-      <c r="P4" s="54"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="54"/>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54"/>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54"/>
-      <c r="M5" s="54"/>
-      <c r="N5" s="54"/>
-      <c r="O5" s="54"/>
-      <c r="P5" s="54"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
+      <c r="A6" s="42"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
+      <c r="A8" s="42"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
+      <c r="A9" s="42"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
+      <c r="A14" s="42"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="54"/>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="54"/>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
-      <c r="B17" s="54"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
+      <c r="A18" s="42"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="42"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
+      <c r="A20" s="42"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
+      <c r="A22" s="42"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="42"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+      <c r="K22" s="42"/>
+      <c r="L22" s="42"/>
+      <c r="M22" s="42"/>
+      <c r="N22" s="42"/>
+      <c r="O22" s="42"/>
+      <c r="P22" s="42"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
-      <c r="L23" s="54"/>
-      <c r="M23" s="54"/>
-      <c r="N23" s="54"/>
-      <c r="O23" s="54"/>
-      <c r="P23" s="54"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+      <c r="K23" s="42"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
-      <c r="N24" s="54"/>
-      <c r="O24" s="54"/>
-      <c r="P24" s="54"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="42"/>
+      <c r="N24" s="42"/>
+      <c r="O24" s="42"/>
+      <c r="P24" s="42"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
-      <c r="M25" s="54"/>
-      <c r="N25" s="54"/>
-      <c r="O25" s="54"/>
-      <c r="P25" s="54"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="42"/>
+      <c r="C25" s="42"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="42"/>
+      <c r="O25" s="42"/>
+      <c r="P25" s="42"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="54"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="54"/>
-      <c r="N26" s="54"/>
-      <c r="O26" s="54"/>
-      <c r="P26" s="54"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="42"/>
+      <c r="C26" s="42"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="42"/>
+      <c r="N26" s="42"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="42"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
-      <c r="I27" s="54"/>
-      <c r="J27" s="54"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
-      <c r="N27" s="54"/>
-      <c r="O27" s="54"/>
-      <c r="P27" s="54"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="42"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="42"/>
+      <c r="O27" s="42"/>
+      <c r="P27" s="42"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A28" s="54"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="54"/>
-      <c r="I28" s="54"/>
-      <c r="J28" s="54"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="54"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
-      <c r="P28" s="54"/>
+      <c r="A28" s="42"/>
+      <c r="B28" s="42"/>
+      <c r="C28" s="42"/>
+      <c r="D28" s="42"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42"/>
+      <c r="M28" s="42"/>
+      <c r="N28" s="42"/>
+      <c r="O28" s="42"/>
+      <c r="P28" s="42"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A29" s="54"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-      <c r="I29" s="54"/>
-      <c r="J29" s="54"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
-      <c r="P29" s="54"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="42"/>
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+      <c r="K29" s="42"/>
+      <c r="L29" s="42"/>
+      <c r="M29" s="42"/>
+      <c r="N29" s="42"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="42"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A30" s="54"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="54"/>
-      <c r="D30" s="54"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="54"/>
-      <c r="G30" s="54"/>
-      <c r="H30" s="54"/>
-      <c r="I30" s="54"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="54"/>
-      <c r="N30" s="54"/>
-      <c r="O30" s="54"/>
-      <c r="P30" s="54"/>
+      <c r="A30" s="42"/>
+      <c r="B30" s="42"/>
+      <c r="C30" s="42"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+      <c r="K30" s="42"/>
+      <c r="L30" s="42"/>
+      <c r="M30" s="42"/>
+      <c r="N30" s="42"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="42"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A31" s="54"/>
-      <c r="B31" s="54"/>
-      <c r="C31" s="54"/>
-      <c r="D31" s="54"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="54"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="54"/>
-      <c r="I31" s="54"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
-      <c r="N31" s="54"/>
-      <c r="O31" s="54"/>
-      <c r="P31" s="54"/>
+      <c r="A31" s="42"/>
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+      <c r="K31" s="42"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A32" s="54"/>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="54"/>
-      <c r="G32" s="54"/>
-      <c r="H32" s="54"/>
-      <c r="I32" s="54"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
-      <c r="M32" s="54"/>
-      <c r="N32" s="54"/>
-      <c r="O32" s="54"/>
-      <c r="P32" s="54"/>
+      <c r="A32" s="42"/>
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+      <c r="K32" s="42"/>
+      <c r="L32" s="42"/>
+      <c r="M32" s="42"/>
+      <c r="N32" s="42"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="42"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>

--- a/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
+++ b/files/resources/Core/templates/AHU/PDF_Print_AHU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DengusiakM\Documents\GitHub\SAM\SAM_UI\files\resources\Core\templates\AHU\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2E71BD0F-EBAB-4D3A-9327-A1884854884A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828443E5-3452-46F6-9276-39E293ACCD89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D450CF10-0C30-412E-BDB3-053468AC8C92}"/>
   </bookViews>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">A3_Landscape!$A$1:$U$98</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$147</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">A3_Portrait!$A$1:$O$146</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">A4_Landscape!$A$1:$P$33,A4_Landscape!$B$34:$P$66</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">A4_Portrait!$A$1:$N$98</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">A4_Portrait_Old!$A$1:$J$98</definedName>
@@ -1018,7 +1018,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F9135E-1C3B-4B75-8739-436391A26F14}">
   <dimension ref="A1:AA146"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A60" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A43" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
@@ -5181,10 +5181,13 @@
     <mergeCell ref="A1:O74"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="70" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C...delivered by SAM technology</oddHeader>
   </headerFooter>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="74" max="14" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
@@ -13778,7 +13781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95B4A7F-6483-4D0C-AE1B-E22AAA7D8D24}">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A54" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A33" zoomScale="130" zoomScaleNormal="115" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
